--- a/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-270" windowWidth="24915" windowHeight="8760" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="1065" yWindow="-270" windowWidth="24915" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Step 6x6" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +86,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,18 +123,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -418,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7587,7 +7612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
@@ -9034,20 +9059,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -9055,11 +9080,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>-7.5781861786445734</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0.90471971760062098</v>
       </c>
       <c r="C3">
@@ -9075,14 +9100,14 @@
         <v>7.5727981893505216E-17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.9047197176006212</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>-2.6942442705977081</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>10.285620950468143</v>
       </c>
       <c r="D4">
@@ -9095,17 +9120,17 @@
         <v>-7.7854933920436891E-16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>10.285620950468143</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>-16.685024351785046</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>9.0852417862567343</v>
       </c>
       <c r="E5">
@@ -9115,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -9125,17 +9150,17 @@
       <c r="C6">
         <v>9.0852417862567343</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>-6.7246305433187095</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>14.758651273915017</v>
       </c>
       <c r="F6">
         <v>8.8817841970012523E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9148,14 +9173,14 @@
       <c r="D7">
         <v>14.758651273915016</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.46975105241595072</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.37318052160723914</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9171,72 +9196,67 @@
       <c r="E8">
         <v>0.37318052160723914</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>-0.20427262603442226</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f>A3</f>
         <v>-7.5781861786445734</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
+        <f>B3</f>
+        <v>0.90471971760062098</v>
+      </c>
+      <c r="C12" s="3">
         <f>B4</f>
         <v>-2.6942442705977081</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="4">
+        <f>C4</f>
+        <v>10.285620950468143</v>
+      </c>
+      <c r="E12" s="3">
         <f>C5</f>
         <v>-16.685024351785046</v>
       </c>
-      <c r="D12">
+      <c r="F12" s="4">
+        <f>D5</f>
+        <v>9.0852417862567343</v>
+      </c>
+      <c r="G12" s="3">
         <f>D6</f>
         <v>-6.7246305433187095</v>
       </c>
-      <c r="E12">
+      <c r="H12" s="4">
+        <f>E6</f>
+        <v>14.758651273915017</v>
+      </c>
+      <c r="I12" s="3">
         <f>E7</f>
         <v>0.46975105241595072</v>
       </c>
-      <c r="F12">
+      <c r="J12" s="4">
+        <f>F7</f>
+        <v>0.37318052160723914</v>
+      </c>
+      <c r="K12" s="3">
         <f>F8</f>
         <v>-0.20427262603442226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>A4</f>
-        <v>0.9047197176006212</v>
-      </c>
-      <c r="B13">
-        <f>B5</f>
-        <v>10.285620950468143</v>
-      </c>
-      <c r="C13">
-        <f>C6</f>
-        <v>9.0852417862567343</v>
-      </c>
-      <c r="D13">
-        <f>D7</f>
-        <v>14.758651273915016</v>
-      </c>
-      <c r="E13">
-        <f>E8</f>
-        <v>0.37318052160723914</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9249,7 +9269,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,7 +9381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -9454,761 +9474,761 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-5</f>
-        <v>9.2006831929307467</v>
+        <v>11.308407162431585</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*20-5</f>
-        <v>-6.1240369304432107E-2</v>
+        <v>-1.1990566754136012E-2</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.207412677496848</v>
+        <v>3.025263959856197</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.12621854278315</v>
+        <v>10.207296364744385</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0784399380945011</v>
+        <v>-2.210022851255502</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.644731218248101</v>
+        <v>-0.36509291912041597</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5629005360507016</v>
+        <v>6.3806712904888165</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.026388819366517</v>
+        <v>7.9907603980820774</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.929797966632858</v>
+        <v>9.5674822295085207</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I20" ca="1" si="1">RAND()*20-5</f>
-        <v>7.0297231278715984</v>
+        <v>6.0652384463284008</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.182026808304091</v>
+        <v>-3.2757431556337613</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.862178205260661</v>
+        <v>8.888173420751837</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1024637096525716</v>
+        <v>3.4085159781623648</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.335097816122492</v>
+        <v>-1.4048212278384953</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.56106357598444</v>
+        <v>10.062374904164065</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2761040208472414</v>
+        <v>8.9489423501053125</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5658278197097939</v>
+        <v>-3.2312059318900288</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.105331721120955</v>
+        <v>13.204451295162972</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>14.74002185037136</v>
+        <v>-2.3260014603834778</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.051018171838388</v>
+        <v>3.5236904604879076</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13909974505476708</v>
+        <v>1.2350814142488193</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3268240915160483</v>
+        <v>-4.0595652196779142</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0400578921307648</v>
+        <v>4.2910432621142327</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.273279797234796</v>
+        <v>12.300982011235639</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64038646958897161</v>
+        <v>7.6637007496297631</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0361487244924419</v>
+        <v>2.0826627162731075</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5761599684142169</v>
+        <v>14.18342850990814</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0105091803410868</v>
+        <v>2.5808999582629184</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8185025829953929</v>
+        <v>7.7242176839348691</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3463767334511743</v>
+        <v>6.9189008794088718</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34143725011443582</v>
+        <v>13.545103618081491</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.464782796245387</v>
+        <v>1.303172261364911</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7288684710434197</v>
+        <v>5.699384595677909</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9877829582219455</v>
+        <v>0.21156280487894819</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8209850926712363</v>
+        <v>3.1865731599545022</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3851739791185711</v>
+        <v>14.011086462467372</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5578796364013261</v>
+        <v>4.3200158012758365</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9734704819146431</v>
+        <v>4.5507523608189722</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1418286580660562</v>
+        <v>4.6762253650273067</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5978443238806666</v>
+        <v>11.937580719685478</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7062026159886052</v>
+        <v>2.704225483676197</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3877769175192598</v>
+        <v>-1.8648258012598884</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7579231344911559</v>
+        <v>3.5784103376105598</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48092309755581475</v>
+        <v>-2.6917447450944243</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3637866644448677</v>
+        <v>11.240764779007339</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1796555424351478</v>
+        <v>7.9746739437698455</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.547936145626501</v>
+        <v>4.6520240158498147</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2748354856373174</v>
+        <v>8.572079985025951</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6951328705944952</v>
+        <v>-1.3981067905066125</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6373253525545568</v>
+        <v>2.8139790064313281</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6764384163884056</v>
+        <v>-2.3357321880871451</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.21301573850889</v>
+        <v>11.235351968838408</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3325689883344811</v>
+        <v>-4.545828055389447</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8739626918156134</v>
+        <v>11.802920085220951</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2581944172523887</v>
+        <v>8.4296804095886415</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.801404746657809</v>
+        <v>11.283107797045105</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.887273241549092</v>
+        <v>-2.7460084470652513</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2073411449947251</v>
+        <v>11.911590808418925</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5619523471549321</v>
+        <v>6.7532285222906108</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4025999186753442</v>
+        <v>-0.48791001648314669</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.869216356717768</v>
+        <v>6.71502006479081</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5355692289115326</v>
+        <v>9.6096904955161548</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7262603837914092</v>
+        <v>4.1177643123839474</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>13.814480892438773</v>
+        <v>-1.6562864896404927</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>13.772758857489208</v>
+        <v>-4.6769154158992077</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.647891371122043</v>
+        <v>8.6636410319444508</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8647232631963249</v>
+        <v>5.5333038065952511</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6859306578350806</v>
+        <v>4.3710903032978123</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0290641921682653</v>
+        <v>14.553594305547936</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9595491054737177</v>
+        <v>-2.0991480800140017</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.620382571192879</v>
+        <v>-1.1555850077125784</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.862353482446423</v>
+        <v>11.315031492259685</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6434517260318273</v>
+        <v>9.3046621193300822</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.9244934764675</v>
+        <v>-2.3085458946233617</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7248352681620265</v>
+        <v>14.82409070239887</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2505823476818865</v>
+        <v>-1.7618626483869271</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.306236193282082</v>
+        <v>12.530655171486423</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7997081209724399</v>
+        <v>2.1925816759439209</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.597483346658853</v>
+        <v>-0.93537863486375983</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37582670837791543</v>
+        <v>8.6111047280057633</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0701843867603911</v>
+        <v>-0.12685546979989137</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>11.81196589703297</v>
+        <v>3.5676962350306027</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3297081834285507</v>
+        <v>3.7060586162492815</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4611838302402509</v>
+        <v>-4.204496423108754</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7333021721120332</v>
+        <v>4.832757186151186</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3684705214057029</v>
+        <v>10.207520300113778</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3797556588067525</v>
+        <v>3.1632707765867565</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23285433173729331</v>
+        <v>5.6900701670937863</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.410494679581415</v>
+        <v>-1.4808538374864022</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4325656446548223</v>
+        <v>8.2486972792386339</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>12.89298137034163</v>
+        <v>13.411165840621344</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>13.300512387673539</v>
+        <v>4.9894183803588312</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.230071561669428</v>
+        <v>5.8494340188938487</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9360085094703248</v>
+        <v>10.494062657553055</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1141489531035815</v>
+        <v>14.90087574440377</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8925074238766975</v>
+        <v>9.5276419692137004</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9366473177585402</v>
+        <v>8.3428876281276327</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6631889299910867</v>
+        <v>-0.94589774450590802</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.313573325632019</v>
+        <v>10.870573383304965</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3919365685491982</v>
+        <v>3.8423867205560001</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3133127570433967</v>
+        <v>-1.1264279653778941</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0637643438360307</v>
+        <v>6.0392050410901525</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0520015444553845</v>
+        <v>8.7461050863206484</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.039622810099907</v>
+        <v>-4.9723654889060276</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.929891598054038</v>
+        <v>13.649681823378906</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.9652287348977</v>
+        <v>9.4532990335058145</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.344217521143563</v>
+        <v>8.7250230683757035</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3293226188046265</v>
+        <v>12.624992825815472</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3476461789920968</v>
+        <v>12.405913744771311</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.37964506889065</v>
+        <v>7.6088695466412588</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6603384984076315</v>
+        <v>8.8729746880034561</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5055974383289747</v>
+        <v>8.8343279993005268</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.920779779454989</v>
+        <v>-3.9929039911472874</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4730689138858111</v>
+        <v>8.6588921910273378</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.622382079168597</v>
+        <v>7.1396434483640796</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7720464600356038</v>
+        <v>7.07003054547868</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.333290544432987</v>
+        <v>4.8754991238783756</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9410974055330801</v>
+        <v>2.3370250890329096</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>14.007111165001874</v>
+        <v>12.213077012530722</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9395583143899442</v>
+        <v>-3.7988213203998322</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>13.779318581752666</v>
+        <v>0.93661500122184105</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>13.347725648519621</v>
+        <v>-1.2637796181119709</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6469215313544701</v>
+        <v>14.33069013490007</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1500357686232725</v>
+        <v>9.3227940476919198</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>14.239594232726486</v>
+        <v>0.68666442836069042</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.942524785102734</v>
+        <v>7.1404911859895144</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3978284339269429</v>
+        <v>-3.0434839026769178</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.151550127101494</v>
+        <v>4.3905507094684548</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3363723126046168</v>
+        <v>-0.27788341917995218</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0754097269196645</v>
+        <v>7.0867672332236396</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8649583382472761</v>
+        <v>-0.75442970699761425</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.124826789699959</v>
+        <v>14.708559311361419</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1221530667913964</v>
+        <v>0.67224691738280828</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5878455041092643</v>
+        <v>12.10310051608413</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5859487205584664</v>
+        <v>13.623930538872735</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4416073089206254</v>
+        <v>-4.1790285618647616</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.225471089586339</v>
+        <v>6.5975023745942849</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>14.775108691171614</v>
+        <v>9.1399567768931931</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9181402178207456</v>
+        <v>-0.61024753677802757</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6014214433979088</v>
+        <v>-2.1914967522420215</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7145006325071437</v>
+        <v>5.0235661686114454</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.83418990418492545</v>
+        <v>-2.4492274726931806</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4420035258845569</v>
+        <v>12.892369279423818</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8455137319898283</v>
+        <v>-2.7247137040893765</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6339064879422001</v>
+        <v>7.5777622696354605</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7095962677026826</v>
+        <v>8.2833482646709005</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8876648172460992</v>
+        <v>14.083007067543384</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.525314430644809</v>
+        <v>-0.97305996024668939</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4621350601140346</v>
+        <v>-1.672580926936087</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.148643090493284</v>
+        <v>10.208781927347273</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63859470917434891</v>
+        <v>-3.4177002910713372</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6879817639340029</v>
+        <v>10.129062004973777</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.514550525090446</v>
+        <v>0.14162364481900003</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89941518008983934</v>
+        <v>8.9736569503562684</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.079968793889977</v>
+        <v>11.675596239004076</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>13.599201376574491</v>
+        <v>11.925748077794019</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1693981771121216</v>
+        <v>7.8206623108076556</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.852482774242516</v>
+        <v>-0.80115357962843081</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.323292797129756</v>
+        <v>8.6047935150137498</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.413046014132529</v>
+        <v>12.617357482964564</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.474696445189284</v>
+        <v>-3.2509804672651588</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6986082046182585</v>
+        <v>4.7161491038793262</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>12.437531487741843</v>
+        <v>8.1608214778301242</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.502074704073795</v>
+        <v>-2.085186322112611</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5631570362163991</v>
+        <v>-9.0320384651219499E-2</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6556894328593472</v>
+        <v>3.7711631827614127</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8010222145794641</v>
+        <v>4.6409619323500486</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8020855566624387</v>
+        <v>-3.1084474517050298</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7201524311314897</v>
+        <v>6.2262662595759171</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2128897341642659</v>
+        <v>11.926413654009348</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0124189347597081</v>
+        <v>5.1421344713703547</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0775013619178146</v>
+        <v>1.7566755257729838</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1779636730204155</v>
+        <v>14.071587889481158</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.640384603306636</v>
+        <v>-3.7160002275683368</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6563317970761733</v>
+        <v>11.746913267734659</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.307152983852367</v>
+        <v>-3.0899225779918549</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0187349281197786</v>
+        <v>3.0324417848956582</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4584018142158279</v>
+        <v>13.268279864679009</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15488056532559291</v>
+        <v>-3.1691805973644782</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9225540892068267</v>
+        <v>9.0261656918859767</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-270" windowWidth="24915" windowHeight="8760"/>
+    <workbookView xWindow="1065" yWindow="-270" windowWidth="24915" windowHeight="8760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Step 6x6" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -9059,20 +9059,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>-7.5781861786445734</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>7.5727981893505216E-17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.9047197176006212</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>-7.7854933920436891E-16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>8.8817841970012523E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>0.37318052160723914</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9200,63 +9200,68 @@
         <v>-0.20427262603442226</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <f>A3</f>
         <v>-7.5781861786445734</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
+        <f>B4</f>
+        <v>-2.6942442705977081</v>
+      </c>
+      <c r="C12">
+        <f>C5</f>
+        <v>-16.685024351785046</v>
+      </c>
+      <c r="D12">
+        <f>D6</f>
+        <v>-6.7246305433187095</v>
+      </c>
+      <c r="E12">
+        <f>E7</f>
+        <v>0.46975105241595072</v>
+      </c>
+      <c r="F12">
+        <f>F8</f>
+        <v>-0.20427262603442226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <f>B3</f>
         <v>0.90471971760062098</v>
       </c>
-      <c r="C12" s="3">
-        <f>B4</f>
-        <v>-2.6942442705977081</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B13">
         <f>C4</f>
         <v>10.285620950468143</v>
       </c>
-      <c r="E12" s="3">
-        <f>C5</f>
-        <v>-16.685024351785046</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="C13">
         <f>D5</f>
         <v>9.0852417862567343</v>
       </c>
-      <c r="G12" s="3">
-        <f>D6</f>
-        <v>-6.7246305433187095</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="D13">
         <f>E6</f>
         <v>14.758651273915017</v>
       </c>
-      <c r="I12" s="3">
-        <f>E7</f>
-        <v>0.46975105241595072</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="E13">
         <f>F7</f>
         <v>0.37318052160723914</v>
       </c>
-      <c r="K12" s="3">
-        <f>F8</f>
-        <v>-0.20427262603442226</v>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9474,761 +9479,761 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-5</f>
-        <v>11.308407162431585</v>
+        <v>9.7259418598613543</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*20-5</f>
-        <v>-1.1990566754136012E-2</v>
+        <v>-4.5946643717203539</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.025263959856197</v>
+        <v>-1.624043910990085</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.207296364744385</v>
+        <v>12.299471236605161</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.210022851255502</v>
+        <v>10.904216372299437</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36509291912041597</v>
+        <v>3.645918451774623</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3806712904888165</v>
+        <v>1.231420880671859</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9907603980820774</v>
+        <v>1.8714145844944401</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5674822295085207</v>
+        <v>12.40168426944193</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I20" ca="1" si="1">RAND()*20-5</f>
-        <v>6.0652384463284008</v>
+        <v>11.627860837452328</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2757431556337613</v>
+        <v>-1.0778658756800796</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.888173420751837</v>
+        <v>0.26857938979075069</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4085159781623648</v>
+        <v>-1.1523590394722905</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4048212278384953</v>
+        <v>0.829013227556608</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.062374904164065</v>
+        <v>-1.2742363553333513</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9489423501053125</v>
+        <v>8.8923181395085891</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2312059318900288</v>
+        <v>8.6580291664027733</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.204451295162972</v>
+        <v>14.213918216689017</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3260014603834778</v>
+        <v>9.4192199746900194</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5236904604879076</v>
+        <v>5.5612925363396659</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2350814142488193</v>
+        <v>0.75951252836398808</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0595652196779142</v>
+        <v>13.585484761835243</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2910432621142327</v>
+        <v>-4.5559512714731332</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.300982011235639</v>
+        <v>1.498352996604102</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6637007496297631</v>
+        <v>-1.442604118805324</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0826627162731075</v>
+        <v>2.3469592741313789</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.18342850990814</v>
+        <v>4.5923102777966456</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5808999582629184</v>
+        <v>2.3148511368116242</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7242176839348691</v>
+        <v>6.5912073858479499</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9189008794088718</v>
+        <v>-3.3930007410728225</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.545103618081491</v>
+        <v>9.7274942198340586</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.303172261364911</v>
+        <v>-3.924570970909198</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.699384595677909</v>
+        <v>12.69590931013575</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21156280487894819</v>
+        <v>4.7715582845048878</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1865731599545022</v>
+        <v>0.26322465461739597</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.011086462467372</v>
+        <v>6.6003870504279778</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3200158012758365</v>
+        <v>-3.6203822836368138</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5507523608189722</v>
+        <v>-0.91492076464542826</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6762253650273067</v>
+        <v>13.42738037845827</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.937580719685478</v>
+        <v>-0.14594527203131591</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.704225483676197</v>
+        <v>-3.773985980725747</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8648258012598884</v>
+        <v>7.9057979468285229</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5784103376105598</v>
+        <v>4.3470538517858799</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6917447450944243</v>
+        <v>9.8164452999375413</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.240764779007339</v>
+        <v>14.700829744928107</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9746739437698455</v>
+        <v>3.439607045885424</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6520240158498147</v>
+        <v>-2.4132382401711205</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.572079985025951</v>
+        <v>13.603218744338641</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3981067905066125</v>
+        <v>-2.7698478066818577</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8139790064313281</v>
+        <v>6.8426081460599537</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3357321880871451</v>
+        <v>13.79750074279784</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.235351968838408</v>
+        <v>13.774815318859559</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.545828055389447</v>
+        <v>14.57063935061975</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.802920085220951</v>
+        <v>8.5216934336650461</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4296804095886415</v>
+        <v>13.351344079254545</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.283107797045105</v>
+        <v>9.4903728749735432</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7460084470652513</v>
+        <v>7.8567379158195401</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.911590808418925</v>
+        <v>13.172779505202389</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7532285222906108</v>
+        <v>1.8313057608474237</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48791001648314669</v>
+        <v>2.5056900187002906</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.71502006479081</v>
+        <v>13.423566268427855</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6096904955161548</v>
+        <v>6.8292842042901984</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1177643123839474</v>
+        <v>12.836308881173757</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6562864896404927</v>
+        <v>5.2800274900098554</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6769154158992077</v>
+        <v>-7.1447902099171401E-2</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6636410319444508</v>
+        <v>12.153466357938377</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5333038065952511</v>
+        <v>5.5515943890547419</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3710903032978123</v>
+        <v>3.6436529638989335</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>14.553594305547936</v>
+        <v>11.195904955875026</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0991480800140017</v>
+        <v>4.084086815058285</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1555850077125784</v>
+        <v>3.9600119322612315</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.315031492259685</v>
+        <v>-3.9984041994136077</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3046621193300822</v>
+        <v>3.3881040458457328</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3085458946233617</v>
+        <v>11.371291588534987</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.82409070239887</v>
+        <v>5.1489487604062099</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7618626483869271</v>
+        <v>10.48807777127867</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.530655171486423</v>
+        <v>-3.7444641675543777</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1925816759439209</v>
+        <v>2.1035120896672765</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93537863486375983</v>
+        <v>-4.2885288711658482</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6111047280057633</v>
+        <v>11.042470502619587</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12685546979989137</v>
+        <v>10.204814720310647</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5676962350306027</v>
+        <v>3.1458073177623369</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7060586162492815</v>
+        <v>4.5147980322989678</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.204496423108754</v>
+        <v>8.3057219159563171</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.832757186151186</v>
+        <v>4.4553398210212496</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.207520300113778</v>
+        <v>14.352135196559715</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1632707765867565</v>
+        <v>-1.1905374321737927</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6900701670937863</v>
+        <v>10.828319207521822</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4808538374864022</v>
+        <v>6.4831010876470074</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2486972792386339</v>
+        <v>4.016037251770106</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>13.411165840621344</v>
+        <v>5.3196144369793714</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9894183803588312</v>
+        <v>1.4436867408279301</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8494340188938487</v>
+        <v>-1.2004168188128284</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.494062657553055</v>
+        <v>1.9968770768890121</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>14.90087574440377</v>
+        <v>11.608547367106375</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5276419692137004</v>
+        <v>10.948741232282647</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3428876281276327</v>
+        <v>1.9571472704679005</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94589774450590802</v>
+        <v>7.8159440192149532</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.870573383304965</v>
+        <v>2.3557381416554328</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8423867205560001</v>
+        <v>14.659361963833692</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1264279653778941</v>
+        <v>-3.088733880901835</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0392050410901525</v>
+        <v>7.7762051739649891</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7461050863206484</v>
+        <v>13.220868973266509</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9723654889060276</v>
+        <v>7.5298526147149225</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.649681823378906</v>
+        <v>2.3463038558243277</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4532990335058145</v>
+        <v>13.571951787816882</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7250230683757035</v>
+        <v>3.34160513137439</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.624992825815472</v>
+        <v>-2.0814214888453875</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>12.405913744771311</v>
+        <v>6.8599421062031851</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6088695466412588</v>
+        <v>2.2991938068769002</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8729746880034561</v>
+        <v>3.027182868040164</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8343279993005268</v>
+        <v>4.5583459745002219</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9929039911472874</v>
+        <v>11.281152161894866</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6588921910273378</v>
+        <v>7.5836815371846846</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1396434483640796</v>
+        <v>-1.5549542345932932</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.07003054547868</v>
+        <v>13.588660080717283</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8754991238783756</v>
+        <v>-2.6184043157379566</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3370250890329096</v>
+        <v>3.5394933003115785</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.213077012530722</v>
+        <v>-4.1196204018725364</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7988213203998322</v>
+        <v>11.979772077958966</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93661500122184105</v>
+        <v>9.7241469889121408</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2637796181119709</v>
+        <v>8.9861840745059922</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>14.33069013490007</v>
+        <v>11.277239179396901</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3227940476919198</v>
+        <v>-3.6863576621608685</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68666442836069042</v>
+        <v>-0.3340867724951968</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1404911859895144</v>
+        <v>5.7389825343776319</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0434839026769178</v>
+        <v>-0.48841856662206418</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3905507094684548</v>
+        <v>6.9148939738135304</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27788341917995218</v>
+        <v>1.6068585791543004</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0867672332236396</v>
+        <v>9.9364211687694937</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75442970699761425</v>
+        <v>11.940240963517898</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.708559311361419</v>
+        <v>7.8921631483146815</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67224691738280828</v>
+        <v>14.454611699474992</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.10310051608413</v>
+        <v>7.2574352470362662</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.623930538872735</v>
+        <v>-2.8243516555953607</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1790285618647616</v>
+        <v>-2.2763383049744301</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5975023745942849</v>
+        <v>4.7259059821273333</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1399567768931931</v>
+        <v>-3.2534367827280319</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61024753677802757</v>
+        <v>5.2183143576766433</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1914967522420215</v>
+        <v>-0.7199672268572499</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0235661686114454</v>
+        <v>10.089774417502735</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4492274726931806</v>
+        <v>9.2615624014046567</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.892369279423818</v>
+        <v>11.685184237894699</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7247137040893765</v>
+        <v>3.1738159793531917</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5777622696354605</v>
+        <v>12.223552101515022</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2833482646709005</v>
+        <v>5.8070427922289554</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.083007067543384</v>
+        <v>2.133094951946461</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.97305996024668939</v>
+        <v>-3.7058177827671401</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.672580926936087</v>
+        <v>1.8742969244678225</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.208781927347273</v>
+        <v>5.9334628129376981</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4177002910713372</v>
+        <v>10.100470443021832</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.129062004973777</v>
+        <v>-1.432944290675211</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14162364481900003</v>
+        <v>0.8195938552423554</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9736569503562684</v>
+        <v>5.4415051664515133</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.675596239004076</v>
+        <v>4.0404193880665034</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.925748077794019</v>
+        <v>1.4717948876781017</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8206623108076556</v>
+        <v>0.24317320236522733</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80115357962843081</v>
+        <v>11.461530887514687</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6047935150137498</v>
+        <v>3.9101981389343514</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.617357482964564</v>
+        <v>11.591990518560454</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2509804672651588</v>
+        <v>1.0057480361140474</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7161491038793262</v>
+        <v>-2.5431090626365438</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1608214778301242</v>
+        <v>14.469218736966344</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.085186322112611</v>
+        <v>3.4871970226863205</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.0320384651219499E-2</v>
+        <v>9.8759888430518501</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7711631827614127</v>
+        <v>9.8891770084828465</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6409619323500486</v>
+        <v>13.187272449280183</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1084474517050298</v>
+        <v>10.56340729046669</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2262662595759171</v>
+        <v>-1.4090579602215092</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>11.926413654009348</v>
+        <v>-4.5779684663559568</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1421344713703547</v>
+        <v>0.95761150585406085</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7566755257729838</v>
+        <v>10.396297268938969</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>14.071587889481158</v>
+        <v>13.127728551025616</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7160002275683368</v>
+        <v>-2.0771170316413756</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.746913267734659</v>
+        <v>0.20283537913310834</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0899225779918549</v>
+        <v>11.175095520908201</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0324417848956582</v>
+        <v>-1.2176182670694335</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.268279864679009</v>
+        <v>3.7401649898411886</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1691805973644782</v>
+        <v>5.6310861115336444</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0261656918859767</v>
+        <v>11.138116172425192</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-270" windowWidth="24915" windowHeight="8760" activeTab="5"/>
+    <workbookView xWindow="2115" yWindow="510" windowWidth="24915" windowHeight="8760" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Step 6x6" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,20 @@
     <sheet name="Step 5x5 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Step 5x5 (3)" sheetId="5" r:id="rId4"/>
     <sheet name="Step 5x5 (4)" sheetId="6" r:id="rId5"/>
-    <sheet name="ToTriDiag 6x6" sheetId="7" r:id="rId6"/>
-    <sheet name="ToTriDiag Non-Symm 5x5" sheetId="9" r:id="rId7"/>
-    <sheet name="ToTriDiag Non-Symm 4x4" sheetId="10" r:id="rId8"/>
-    <sheet name="rand" sheetId="3" r:id="rId9"/>
+    <sheet name="Test eig 5x5" sheetId="13" r:id="rId6"/>
+    <sheet name="ToTriDiag 6x6" sheetId="7" r:id="rId7"/>
+    <sheet name="6x6" sheetId="11" r:id="rId8"/>
+    <sheet name="Vertification" sheetId="12" r:id="rId9"/>
+    <sheet name="ToTriDiag Non-Symm 5x5" sheetId="9" r:id="rId10"/>
+    <sheet name="ToTriDiag Non-Symm 4x4" sheetId="10" r:id="rId11"/>
+    <sheet name="rand" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="32">
   <si>
     <t>#1</t>
   </si>
@@ -65,12 +68,66 @@
   <si>
     <t>#4</t>
   </si>
+  <si>
+    <t>#0</t>
+  </si>
+  <si>
+    <t>A=</t>
+  </si>
+  <si>
+    <t>A^t*A=</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>Reflector</t>
+  </si>
+  <si>
+    <t>Unit reflector</t>
+  </si>
+  <si>
+    <t>Householder matrix</t>
+  </si>
+  <si>
+    <t>Q^t</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>#100</t>
+  </si>
+  <si>
+    <t>Eigen-value</t>
+  </si>
+  <si>
+    <t>Diag=</t>
+  </si>
+  <si>
+    <t>Min=</t>
+  </si>
+  <si>
+    <t>Is Full Rank?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +150,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +178,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,14 +192,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -137,10 +223,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -443,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3254,6 +3342,978 @@
       </c>
       <c r="F111">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.68796544280244021</v>
+      </c>
+      <c r="B3">
+        <v>6.7364450166587719</v>
+      </c>
+      <c r="C3">
+        <v>-4.4698834078885907</v>
+      </c>
+      <c r="D3">
+        <v>2.8834809047872945E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.5603910975939428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.7005828706675619</v>
+      </c>
+      <c r="B4">
+        <v>14.487665541883317</v>
+      </c>
+      <c r="C4">
+        <v>5.6452093189674013</v>
+      </c>
+      <c r="D4">
+        <v>-4.574656152118548</v>
+      </c>
+      <c r="E4">
+        <v>6.8686477469058218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11.857977813280517</v>
+      </c>
+      <c r="B5">
+        <v>7.6868405332764222</v>
+      </c>
+      <c r="C5">
+        <v>6.6731937640518453</v>
+      </c>
+      <c r="D5">
+        <v>14.421379186669085</v>
+      </c>
+      <c r="E5">
+        <v>6.8317343442518723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1.3286536612263511</v>
+      </c>
+      <c r="B6">
+        <v>1.700936487297227</v>
+      </c>
+      <c r="C6">
+        <v>14.574554134302748</v>
+      </c>
+      <c r="D6">
+        <v>5.8078461674456179</v>
+      </c>
+      <c r="E6">
+        <v>-1.0117117966920164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-2.4961276170452673</v>
+      </c>
+      <c r="B7">
+        <v>7.1061738848212279</v>
+      </c>
+      <c r="C7">
+        <v>9.9900812102077534</v>
+      </c>
+      <c r="D7">
+        <v>-3.7630396441607461</v>
+      </c>
+      <c r="E7">
+        <v>3.4275388620990057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.8900470309808615</v>
+      </c>
+      <c r="B3">
+        <v>-2.0358986241656996</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.2011256650050859</v>
+      </c>
+      <c r="B4">
+        <v>7.9510869111374873</v>
+      </c>
+      <c r="C4">
+        <v>9.8229269332479276</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-1.2564930308573596</v>
+      </c>
+      <c r="C5">
+        <v>0.21866096036479821</v>
+      </c>
+      <c r="D5">
+        <v>5.4631511879236587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>13.481301357880604</v>
+      </c>
+      <c r="D6">
+        <v>10.269749036249143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f ca="1">RAND()*20-5</f>
+        <v>9.7864838327165611</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*20-5</f>
+        <v>9.3188605193637404</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9851977716546738</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.2953818532756167</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.127762964053957</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8886877241530531</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5128964662879358</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.9023940881701291</v>
+      </c>
+      <c r="I1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8812306756334252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:I20" ca="1" si="1">RAND()*20-5</f>
+        <v>14.535772386505442</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1665730608880587</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4437288124905105</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7488888446078157</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.845366216561374</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8892702912064507</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0437281483564584</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4379819206146731</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.207550955168438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.907931487753032</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8263363990700903</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0907622648596096</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6506219294779823</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.63495580401088159</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.8937844056158326</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.292149678370912</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9782610000510576</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.50205874994689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.25933477269964</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.85126827724044</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.958323178305715</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5364967568006556</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.7127531847640438</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5043284771451919</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.6653568692671676E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7468393623727412</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8539474525702708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0211617409747054</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.589234366974793</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0730176831841018</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.294435120748261</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.689784756760579</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7244094758147668</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.440029615717009</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5084338921618823</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.11733699013168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.5251526582245774E-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8683098249437924</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8868187890372496</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5935801349616563</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.12230563996360022</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.9167564924570297</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3177722919259196</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.163229819838897</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.403481777459678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.53493569121403794</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.5009050384007634</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.648530253347339</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.9210929250340776</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3139960511088926</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9859149223760566</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.576309420030678</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.0152482796230995</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.18797353833957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0060290033697381</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7304982377086464</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.71328731494014</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.468875300946646</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0676210841831928</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3868047316039487</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.619603727824618E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.14805533148689154</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.507424319790868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7886119285256221</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5422117358959531</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.3533139187546626</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1629064484271652</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9530467277416115</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.8383315281931254</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.955295722122468</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.58747593062963</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2452365848840188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.6787948343447479</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.062228868588293</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.97610649005316574</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4320152031713782</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.095777541503569</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.72992480901211465</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9611711208320095</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.82067047451768</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.8618492224231469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5326165887174952</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.85272869462432954</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.1194114292084976</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.841326805499129</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.617690747718072</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.195775157528946</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.452079968275967</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.203181761969617</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9260709824115434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.656357267890872</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.0544214639022216</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.9779020182857909</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.865607412742065</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.261137427902133</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.3432197197588267</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.743605569241343</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.759196180371289</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.392688885903592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.984341320899039</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3282771913836626</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.55859460350504</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7427503717885813</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0181603296239654</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.037894857044485</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.1882988223116282</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.7612696454893477</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.70524636136808816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6225622587597712</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.888594976060602</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.3967173966436692</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.501029679098341</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40378542652961258</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.4226338722160889</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.55218981816178747</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6281537057191429</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2388228019250658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.5513265596777157</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.385254390929227</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2334546847595078</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.871765916606538</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.350682768129877</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.8649167611581894</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.784852050428604</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.3102401433921025</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7933200971286247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.54724274116585647</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.4083793458066141</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8929633993074741</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7937190772573679</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3410994403706109</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.4587435874019214</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.14486828337142477</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0992967880500215</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5328173479428884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9751189127250672</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.814321152007622</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.9144770400509827</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.340937197850781</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.237766836553178</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0158395174135073</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.290298817912351</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.3123772063540304</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81432181036638518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.4017081097955626</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.431757851382162</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.4782448458205426</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1321208426795026</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5914957707296811</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19185296864508317</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9506794707425961</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.082761098105065</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.5236549987921757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.2568133859229977</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.8465442238907848</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.477960939882518</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17416548712390956</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0167670183730255</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.9791868762027085</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.5027336761970549</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.19591966635495162</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.55115266258520368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4448770394269062</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4410807872346565</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4338768731130056</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.86490690622847</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9695055853955887</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.0469607130151</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.995761933796235</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.7181321829014458</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.270086051132596</v>
       </c>
     </row>
   </sheetData>
@@ -7612,8 +8672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9059,9 +10119,71 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10.056355720869814</v>
+      </c>
+      <c r="B3">
+        <v>5.831678905041656</v>
+      </c>
+      <c r="C3">
+        <v>12.771272123473643</v>
+      </c>
+      <c r="D3">
+        <v>6.4381124944785366</v>
+      </c>
+      <c r="E3">
+        <v>12.58109513112894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12.516860812853835</v>
+      </c>
+      <c r="B4">
+        <v>-0.83466919335218392</v>
+      </c>
+      <c r="C4">
+        <v>-4.6161904128023696</v>
+      </c>
+      <c r="D4">
+        <v>7.2393035770353045</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -9269,196 +10391,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.68796544280244021</v>
+        <v>12.422439335546922</v>
       </c>
       <c r="B3">
-        <v>6.7364450166587719</v>
+        <v>3.0902949646671836</v>
       </c>
       <c r="C3">
-        <v>-4.4698834078885907</v>
+        <v>13.749540296568828</v>
       </c>
       <c r="D3">
-        <v>2.8834809047872945E-2</v>
+        <v>9.597365133180574</v>
       </c>
       <c r="E3">
-        <v>3.5603910975939428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.7195709905748258</v>
+      </c>
+      <c r="F3">
+        <v>12.551260681107269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9.7005828706675619</v>
+        <v>-2.1471040095784821</v>
       </c>
       <c r="B4">
-        <v>14.487665541883317</v>
+        <v>10.683786140681502</v>
       </c>
       <c r="C4">
-        <v>5.6452093189674013</v>
+        <v>13.035271918182453</v>
       </c>
       <c r="D4">
-        <v>-4.574656152118548</v>
+        <v>4.2768697031726184</v>
       </c>
       <c r="E4">
-        <v>6.8686477469058218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9579433208328094</v>
+      </c>
+      <c r="F4">
+        <v>8.1331206674786198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11.857977813280517</v>
+        <v>-1.4274544535710221</v>
       </c>
       <c r="B5">
-        <v>7.6868405332764222</v>
+        <v>1.2934637153610566</v>
       </c>
       <c r="C5">
-        <v>6.6731937640518453</v>
+        <v>8.3752507298800829</v>
       </c>
       <c r="D5">
-        <v>14.421379186669085</v>
+        <v>14.334132635294928</v>
       </c>
       <c r="E5">
-        <v>6.8317343442518723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.5835140428769732</v>
+      </c>
+      <c r="F5">
+        <v>-3.9434601573986372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-1.3286536612263511</v>
+        <v>13.030627172097816</v>
       </c>
       <c r="B6">
-        <v>1.700936487297227</v>
+        <v>11.841212165856621</v>
       </c>
       <c r="C6">
-        <v>14.574554134302748</v>
+        <v>9.2855835839169565E-2</v>
       </c>
       <c r="D6">
-        <v>5.8078461674456179</v>
+        <v>11.36015689318873</v>
       </c>
       <c r="E6">
-        <v>-1.0117117966920164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.838806156338388</v>
+      </c>
+      <c r="F6">
+        <v>1.1796454392196605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-2.4961276170452673</v>
+        <v>-1.3070024047068496</v>
       </c>
       <c r="B7">
-        <v>7.1061738848212279</v>
+        <v>2.2582927337671439</v>
       </c>
       <c r="C7">
-        <v>9.9900812102077534</v>
+        <v>10.896073570263471</v>
       </c>
       <c r="D7">
-        <v>-3.7630396441607461</v>
+        <v>-0.9572540480519498</v>
       </c>
       <c r="E7">
-        <v>3.4275388620990057</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-1.8900470309808615</v>
-      </c>
-      <c r="B3">
-        <v>-2.0358986241656996</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.2011256650050859</v>
-      </c>
-      <c r="B4">
-        <v>7.9510869111374873</v>
-      </c>
-      <c r="C4">
-        <v>9.8229269332479276</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>-1.2564930308573596</v>
-      </c>
-      <c r="C5">
-        <v>0.21866096036479821</v>
-      </c>
-      <c r="D5">
-        <v>5.4631511879236587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>13.481301357880604</v>
-      </c>
-      <c r="D6">
-        <v>10.269749036249143</v>
+        <v>1.0010164146226757</v>
+      </c>
+      <c r="F7">
+        <v>-2.3941246155187934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.3903128237244218</v>
+      </c>
+      <c r="B8">
+        <v>0.45508635858107382</v>
+      </c>
+      <c r="C8">
+        <v>-2.6156663902223865</v>
+      </c>
+      <c r="D8">
+        <v>-3.8492390236973106</v>
+      </c>
+      <c r="E8">
+        <v>1.0956944215440618</v>
+      </c>
+      <c r="F8">
+        <v>-2.0797835984841817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="array" ref="A12:F17">MMULT(TRANSPOSE(A3:F8),A3:F8)</f>
+        <v>351.74502736459374</v>
+      </c>
+      <c r="B12">
+        <v>166.94823956776469</v>
+      </c>
+      <c r="C12">
+        <v>106.34463839396584</v>
+      </c>
+      <c r="D12">
+        <v>221.96021957865258</v>
+      </c>
+      <c r="E12">
+        <v>116.41991475197233</v>
+      </c>
+      <c r="F12">
+        <v>153.45347410471106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>166.94823956776469</v>
+      </c>
+      <c r="B13">
+        <v>270.88755287340405</v>
+      </c>
+      <c r="C13">
+        <v>217.10497086115726</v>
+      </c>
+      <c r="D13">
+        <v>224.49706283830216</v>
+      </c>
+      <c r="E13">
+        <v>175.41776989298759</v>
+      </c>
+      <c r="F13">
+        <v>128.1942134830374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>106.34463839396584</v>
+      </c>
+      <c r="B14">
+        <v>217.10497086115726</v>
+      </c>
+      <c r="C14">
+        <v>554.68774925606544</v>
+      </c>
+      <c r="D14">
+        <v>308.4543444677862</v>
+      </c>
+      <c r="E14">
+        <v>28.394874672540638</v>
+      </c>
+      <c r="F14">
+        <v>225.02703546376364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>221.96021957865258</v>
+      </c>
+      <c r="B15">
+        <v>224.49706283830216</v>
+      </c>
+      <c r="C15">
+        <v>308.4543444677862</v>
+      </c>
+      <c r="D15">
+        <v>460.65453137566254</v>
+      </c>
+      <c r="E15">
+        <v>85.623415684544824</v>
+      </c>
+      <c r="F15">
+        <v>122.41557501089946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>116.41991475197233</v>
+      </c>
+      <c r="B16">
+        <v>175.41776989298759</v>
+      </c>
+      <c r="C16">
+        <v>28.394874672540638</v>
+      </c>
+      <c r="D16">
+        <v>85.623415684544824</v>
+      </c>
+      <c r="E16">
+        <v>153.8949701963854</v>
+      </c>
+      <c r="F16">
+        <v>37.039335145889723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>153.45347410471106</v>
+      </c>
+      <c r="B17">
+        <v>128.1942134830374</v>
+      </c>
+      <c r="C17">
+        <v>225.02703546376364</v>
+      </c>
+      <c r="D17">
+        <v>122.41557501089946</v>
+      </c>
+      <c r="E17">
+        <v>37.039335145889723</v>
+      </c>
+      <c r="F17">
+        <v>250.68157034329624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>375.10342965500502</v>
+      </c>
+      <c r="C21">
+        <v>1208.38273611207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1208.38273611208</v>
+      </c>
+      <c r="C22">
+        <v>375.10342965500399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.1568024814950499</v>
+      </c>
+      <c r="C23">
+        <v>1.1568024814950499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>58.015447803653899</v>
+      </c>
+      <c r="C24">
+        <v>58.015447803653899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>214.48156175770299</v>
+      </c>
+      <c r="C25">
+        <v>214.48156175770299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>185.41142359947</v>
+      </c>
+      <c r="C26">
+        <v>185.41142359947</v>
       </c>
     </row>
   </sheetData>
@@ -9468,772 +10731,3796 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">RAND()*20-5</f>
-        <v>9.7259418598613543</v>
-      </c>
-      <c r="B1">
-        <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*20-5</f>
-        <v>-4.5946643717203539</v>
-      </c>
-      <c r="C1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.624043910990085</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.299471236605161</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.904216372299437</v>
-      </c>
-      <c r="F1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.645918451774623</v>
-      </c>
-      <c r="G1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.231420880671859</v>
-      </c>
-      <c r="H1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8714145844944401</v>
-      </c>
-      <c r="I1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.40168426944193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:I20" ca="1" si="1">RAND()*20-5</f>
-        <v>11.627860837452328</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.0778658756800796</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26857938979075069</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1523590394722905</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.829013227556608</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.2742363553333513</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8923181395085891</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6580291664027733</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.213918216689017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.4192199746900194</v>
+        <f>'6x6'!A12-G3</f>
+        <v>-23.358402290411277</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5612925363396659</v>
+        <f>'6x6'!B12</f>
+        <v>166.94823956776469</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75951252836398808</v>
+        <f>'6x6'!C12</f>
+        <v>106.34463839396584</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.585484761835243</v>
+        <f>'6x6'!D12</f>
+        <v>221.96021957865258</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.5559512714731332</v>
+        <f>'6x6'!E12</f>
+        <v>116.41991475197233</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.498352996604102</v>
+        <f>'6x6'!F12</f>
+        <v>153.45347410471106</v>
       </c>
       <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.442604118805324</v>
+        <v>375.10342965500502</v>
       </c>
       <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3469592741313789</v>
+        <f>A3</f>
+        <v>-23.358402290411277</v>
       </c>
       <c r="I3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5923102777966456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f>SQRT(SUMPRODUCT(H3:H8,H3:H8))</f>
+        <v>355.09775570755892</v>
+      </c>
+      <c r="J3">
+        <f>H3-I3</f>
+        <v>-378.45615799797019</v>
+      </c>
+      <c r="K3">
+        <f>SQRT(SUMPRODUCT(J3:J8,J3:J8))</f>
+        <v>518.43790821810967</v>
+      </c>
+      <c r="L3">
+        <f>J3/K$3</f>
+        <v>-0.72999322001498324</v>
+      </c>
+      <c r="N3">
+        <f t="array" ref="N3:S8">MMULT(L3:L8,TRANSPOSE(L3:L8))</f>
+        <v>0.53289010126784375</v>
+      </c>
+      <c r="O3">
+        <v>-0.23507363378727611</v>
+      </c>
+      <c r="P3">
+        <v>-0.14973994721828948</v>
+      </c>
+      <c r="Q3">
+        <v>-0.31253396566303299</v>
+      </c>
+      <c r="R3">
+        <v>-0.16392657075513883</v>
+      </c>
+      <c r="S3">
+        <v>-0.21607215427050996</v>
+      </c>
+      <c r="U3">
+        <f>1-2*N3</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:Z8" si="0">-2*O3</f>
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0.43214430854101993</v>
+      </c>
+      <c r="AB3">
+        <f>U3</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AG8" si="1">V3</f>
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="1"/>
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="1"/>
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="1"/>
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="1"/>
+        <v>0.43214430854101993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3148511368116242</v>
+        <f>'6x6'!A13</f>
+        <v>166.94823956776469</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5912073858479499</v>
+        <f>'6x6'!B13-G3</f>
+        <v>-104.21587678160097</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.3930007410728225</v>
+        <f>'6x6'!C13</f>
+        <v>217.10497086115726</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.7274942198340586</v>
+        <f>'6x6'!D13</f>
+        <v>224.49706283830216</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.924570970909198</v>
+        <f>'6x6'!E13</f>
+        <v>175.41776989298759</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.69590931013575</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7715582845048878</v>
+        <f>'6x6'!F13</f>
+        <v>128.1942134830374</v>
+      </c>
+      <c r="G4" s="5">
+        <f>'6x6'!A22</f>
+        <v>1208.38273611208</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26322465461739597</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6003870504279778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H4:H8" si="2">A4</f>
+        <v>166.94823956776469</v>
+      </c>
+      <c r="J4">
+        <f>H4</f>
+        <v>166.94823956776469</v>
+      </c>
+      <c r="L4">
+        <f>J4/K$3</f>
+        <v>0.32202166724569192</v>
+      </c>
+      <c r="N4">
+        <v>-0.23507363378727611</v>
+      </c>
+      <c r="O4">
+        <v>0.10369795417569513</v>
+      </c>
+      <c r="P4">
+        <v>6.6054733296736334E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.137868004707841</v>
+      </c>
+      <c r="R4">
+        <v>7.2312873836492902E-2</v>
+      </c>
+      <c r="S4">
+        <v>9.5315837813027673E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:V8" si="3">-2*N4</f>
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="V4">
+        <f>1-2*O4</f>
+        <v>0.79260409164860968</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>-0.13210946659347267</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>-0.27573600941568199</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>-0.1446257476729858</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>-0.19063167562605535</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB8" si="4">U4</f>
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="1"/>
+        <v>0.79260409164860968</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="1"/>
+        <v>-0.13210946659347267</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="1"/>
+        <v>-0.27573600941568199</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="1"/>
+        <v>-0.1446257476729858</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="1"/>
+        <v>-0.19063167562605535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.6203822836368138</v>
+        <f>'6x6'!A14</f>
+        <v>106.34463839396584</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.91492076464542826</v>
+        <f>'6x6'!B14</f>
+        <v>217.10497086115726</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.42738037845827</v>
+        <f>'6x6'!C14-G3</f>
+        <v>179.58431960106043</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.14594527203131591</v>
+        <f>'6x6'!D14</f>
+        <v>308.4543444677862</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.773985980725747</v>
+        <f>'6x6'!E14</f>
+        <v>28.394874672540638</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9057979468285229</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3470538517858799</v>
+        <f>'6x6'!F14</f>
+        <v>225.02703546376364</v>
+      </c>
+      <c r="G5" s="5">
+        <f>'6x6'!A23</f>
+        <v>1.1568024814950499</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8164452999375413</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.700829744928107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>106.34463839396584</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J8" si="5">H5</f>
+        <v>106.34463839396584</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L8" si="6">J5/K$3</f>
+        <v>0.20512512049799042</v>
+      </c>
+      <c r="N5">
+        <v>-0.14973994721828948</v>
+      </c>
+      <c r="O5">
+        <v>6.6054733296736334E-2</v>
+      </c>
+      <c r="P5">
+        <v>4.2076315059315091E-2</v>
+      </c>
+      <c r="Q5">
+        <v>8.782077094500769E-2</v>
+      </c>
+      <c r="R5">
+        <v>4.6062698470377625E-2</v>
+      </c>
+      <c r="S5">
+        <v>6.0715394973242381E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>-0.13210946659347267</v>
+      </c>
+      <c r="W5">
+        <f>1-2*P5</f>
+        <v>0.91584736988136983</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>-0.17564154189001538</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>-9.212539694075525E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>-0.12143078994648476</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="4"/>
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>-0.13210946659347267</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>0.91584736988136983</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>-0.17564154189001538</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>-9.212539694075525E-2</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="1"/>
+        <v>-0.12143078994648476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.439607045885424</v>
+        <f>'6x6'!A15</f>
+        <v>221.96021957865258</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.4132382401711205</v>
+        <f>'6x6'!B15</f>
+        <v>224.49706283830216</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.603218744338641</v>
+        <f>'6x6'!C15</f>
+        <v>308.4543444677862</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.7698478066818577</v>
+        <f>'6x6'!D15-G3</f>
+        <v>85.551101720657527</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8426081460599537</v>
+        <f>'6x6'!E15</f>
+        <v>85.623415684544824</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.79750074279784</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.774815318859559</v>
+        <f>'6x6'!F15</f>
+        <v>122.41557501089946</v>
+      </c>
+      <c r="G6" s="5">
+        <f>'6x6'!A24</f>
+        <v>58.015447803653899</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.57063935061975</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5216934336650461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>221.96021957865258</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>221.96021957865258</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>0.42813269643328766</v>
+      </c>
+      <c r="N6">
+        <v>-0.31253396566303299</v>
+      </c>
+      <c r="O6">
+        <v>0.137868004707841</v>
+      </c>
+      <c r="P6">
+        <v>8.782077094500769E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.18329760575523765</v>
+      </c>
+      <c r="R6">
+        <v>9.61410638211396E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.12672385372303049</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>-0.27573600941568199</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>-0.17564154189001538</v>
+      </c>
+      <c r="X6">
+        <f>1-2*Q6</f>
+        <v>0.63340478848952464</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>-0.1922821276422792</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>-0.25344770744606099</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="4"/>
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="1"/>
+        <v>-0.27573600941568199</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>-0.17564154189001538</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>0.63340478848952464</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="1"/>
+        <v>-0.1922821276422792</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="1"/>
+        <v>-0.25344770744606099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.351344079254545</v>
+        <f>'6x6'!A16</f>
+        <v>116.41991475197233</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4903728749735432</v>
+        <f>'6x6'!B16</f>
+        <v>175.41776989298759</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8567379158195401</v>
+        <f>'6x6'!C16</f>
+        <v>28.394874672540638</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.172779505202389</v>
+        <f>'6x6'!D16</f>
+        <v>85.623415684544824</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8313057608474237</v>
+        <f>'6x6'!E16-G3</f>
+        <v>-221.20845945861961</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5056900187002906</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.423566268427855</v>
+        <f>'6x6'!F16</f>
+        <v>37.039335145889723</v>
+      </c>
+      <c r="G7" s="5">
+        <f>'6x6'!A25</f>
+        <v>214.48156175770299</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8292842042901984</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.836308881173757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>116.41991475197233</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>116.41991475197233</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0.22455903186576748</v>
+      </c>
+      <c r="N7">
+        <v>-0.16392657075513883</v>
+      </c>
+      <c r="O7">
+        <v>7.2312873836492902E-2</v>
+      </c>
+      <c r="P7">
+        <v>4.6062698470377625E-2</v>
+      </c>
+      <c r="Q7">
+        <v>9.61410638211396E-2</v>
+      </c>
+      <c r="R7">
+        <v>5.0426758792490776E-2</v>
+      </c>
+      <c r="S7">
+        <v>6.6467677295880323E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>-0.1446257476729858</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>-9.212539694075525E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>-0.1922821276422792</v>
+      </c>
+      <c r="Y7">
+        <f>1-2*R7</f>
+        <v>0.89914648241501849</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>-0.13293535459176065</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="4"/>
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>-0.1446257476729858</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>-9.212539694075525E-2</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>-0.1922821276422792</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="1"/>
+        <v>0.89914648241501849</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="1"/>
+        <v>-0.13293535459176065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.2800274900098554</v>
+        <f>'6x6'!A17</f>
+        <v>153.45347410471106</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7.1447902099171401E-2</v>
+        <f>'6x6'!B17</f>
+        <v>128.1942134830374</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.153466357938377</v>
+        <f>'6x6'!C17</f>
+        <v>225.02703546376364</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5515943890547419</v>
+        <f>'6x6'!D17</f>
+        <v>122.41557501089946</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.6436529638989335</v>
+        <f>'6x6'!E17</f>
+        <v>37.039335145889723</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.195904955875026</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.084086815058285</v>
+        <f>'6x6'!F17-G3</f>
+        <v>-124.42185931170877</v>
+      </c>
+      <c r="G8" s="5">
+        <f>'6x6'!A26</f>
+        <v>185.41142359947</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9600119322612315</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.9984041994136077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3881040458457328</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.371291588534987</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.1489487604062099</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.48807777127867</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.7444641675543777</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1035120896672765</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.2885288711658482</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.042470502619587</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.204814720310647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1458073177623369</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5147980322989678</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3057219159563171</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4553398210212496</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.352135196559715</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1905374321737927</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.828319207521822</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4831010876470074</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.016037251770106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>153.45347410471106</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>153.45347410471106</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0.29599200149567834</v>
+      </c>
+      <c r="N8">
+        <v>-0.21607215427050996</v>
+      </c>
+      <c r="O8">
+        <v>9.5315837813027673E-2</v>
+      </c>
+      <c r="P8">
+        <v>6.0715394973242381E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.12672385372303049</v>
+      </c>
+      <c r="R8">
+        <v>6.6467677295880323E-2</v>
+      </c>
+      <c r="S8">
+        <v>8.761126494941765E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>0.43214430854101993</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>-0.19063167562605535</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>-0.12143078994648476</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>-0.25344770744606099</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>-0.13293535459176065</v>
+      </c>
+      <c r="Z8">
+        <f>1-2*S8</f>
+        <v>0.82477747010116476</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="4"/>
+        <v>0.43214430854101993</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>-0.19063167562605535</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>-0.12143078994648476</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>-0.25344770744606099</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="1"/>
+        <v>-0.13293535459176065</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="1"/>
+        <v>0.82477747010116476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3196144369793714</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4436867408279301</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.2004168188128284</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9968770768890121</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.608547367106375</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.948741232282647</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9571472704679005</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8159440192149532</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3557381416554328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.659361963833692</v>
+        <f t="array" ref="A12:F17">MMULT(U3:Z8,A3:F8)</f>
+        <v>355.09775570755892</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.088733880901835</v>
+        <v>258.2754563745014</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7762051739649891</v>
+        <v>448.21625056440041</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.220868973266509</v>
+        <v>317.77031700485981</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5298526147149225</v>
+        <v>80.320654525402333</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3463038558243277</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.571951787816882</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.34160513137439</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.0814214888453875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152.46034566910964</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="array" ref="N12:S17">MMULT(L12:L17,TRANSPOSE(L12:L17))</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>1-2*N12</f>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ref="V12:Z16" si="7">-2*O12</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="array" ref="AB12:AG17">MMULT(U12:Z17,AB3:AG8)</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="AC12">
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="AD12">
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="AE12">
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="AF12">
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="AG12">
+        <v>0.43214430854101993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8599421062031851</v>
+        <v>1.4210854715202004E-14</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2991938068769002</v>
+        <v>-144.50302166824872</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.027182868040164</v>
+        <v>66.295259871189003</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5583459745002219</v>
+        <v>182.23238630948973</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.281152161894866</v>
+        <v>191.34222459444024</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5836815371846846</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.5549542345932932</v>
+        <v>128.63231190073901</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.588660080717283</v>
+        <f>B13</f>
+        <v>-144.50302166824872</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.6184043157379566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f>SQRT(SUMPRODUCT(H13:H17,H13:H17))</f>
+        <v>341.70909010895343</v>
+      </c>
+      <c r="J13">
+        <f>H13-I13</f>
+        <v>-486.21211177720215</v>
+      </c>
+      <c r="K13">
+        <f>SQRT(SUMPRODUCT(J13:J17,J13:J17))</f>
+        <v>576.44270888847325</v>
+      </c>
+      <c r="L13">
+        <f>J13/K$13</f>
+        <v>-0.84346996549707709</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.7114415826956404</v>
+      </c>
+      <c r="P13">
+        <v>-0.28012482048146609</v>
+      </c>
+      <c r="Q13">
+        <v>-0.25011727359275621</v>
+      </c>
+      <c r="R13">
+        <v>-0.21556915105750327</v>
+      </c>
+      <c r="S13">
+        <v>-0.13339352540608024</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:Y17" si="8">-2*N13</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>1-2*O13</f>
+        <v>-0.42288316539128079</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>0.56024964096293217</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>0.50023454718551241</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="7"/>
+        <v>0.43113830211500653</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="7"/>
+        <v>0.26678705081216048</v>
+      </c>
+      <c r="AB13">
+        <v>0.53828726458353282</v>
+      </c>
+      <c r="AC13">
+        <v>-0.66033764804353645</v>
+      </c>
+      <c r="AD13">
+        <v>0.40899311284344558</v>
+      </c>
+      <c r="AE13">
+        <v>0.18453520680380819</v>
+      </c>
+      <c r="AF13">
+        <v>0.26555146694129173</v>
+      </c>
+      <c r="AG13">
+        <v>4.8526496528596891E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5394933003115785</v>
+        <v>-7.1054273576010019E-15</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.1196204018725364</v>
+        <v>191.44239504731144</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.979772077958966</v>
+        <v>83.519789522461508</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.7241469889121408</v>
+        <v>281.53209746517484</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9861840745059922</v>
+        <v>38.538619711311668</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.277239179396901</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.6863576621608685</v>
+        <v>225.30610050770824</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.3340867724951968</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7389825343776319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H14:H17" si="9">B14</f>
+        <v>191.44239504731144</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J17" si="10">H14</f>
+        <v>191.44239504731144</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="11">J14/K$13</f>
+        <v>0.33211001214060043</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>-0.28012482048146609</v>
+      </c>
+      <c r="P14">
+        <v>0.11029706016402976</v>
+      </c>
+      <c r="Q14">
+        <v>9.8481812236800984E-2</v>
+      </c>
+      <c r="R14">
+        <v>8.4878746491767562E-2</v>
+      </c>
+      <c r="S14">
+        <v>5.2522706384670104E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="8"/>
+        <v>0.56024964096293217</v>
+      </c>
+      <c r="W14">
+        <f>1-2*P14</f>
+        <v>0.77940587967194053</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>-0.19696362447360197</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="7"/>
+        <v>-0.16975749298353512</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>-0.10504541276934021</v>
+      </c>
+      <c r="AB14">
+        <v>0.2726502784933762</v>
+      </c>
+      <c r="AC14">
+        <v>0.43997551395989348</v>
+      </c>
+      <c r="AD14">
+        <v>0.70279226231722525</v>
+      </c>
+      <c r="AE14">
+        <v>-0.35686990266103508</v>
+      </c>
+      <c r="AF14">
+        <v>-0.25362961795361055</v>
+      </c>
+      <c r="AG14">
+        <v>-0.2155975376753114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.48841856662206418</v>
+        <v>-3.5527136788005009E-14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9148939738135304</v>
+        <v>170.93469195982584</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6068585791543004</v>
+        <v>107.95054369341852</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9364211687694937</v>
+        <v>29.35957249552834</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.940240963517898</v>
+        <v>106.79522001956468</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8921631483146815</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.454611699474992</v>
+        <v>122.99803350966454</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2574352470362662</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.8243516555953607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>170.93469195982584</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>170.93469195982584</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="11"/>
+        <v>0.29653370460601536</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>-0.25011727359275621</v>
+      </c>
+      <c r="P15">
+        <v>9.8481812236800984E-2</v>
+      </c>
+      <c r="Q15">
+        <v>8.7932237967367571E-2</v>
+      </c>
+      <c r="R15">
+        <v>7.5786360601688418E-2</v>
+      </c>
+      <c r="S15">
+        <v>4.6896366055915809E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>0.50023454718551241</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>-0.19696362447360197</v>
+      </c>
+      <c r="X15">
+        <f>1-2*Q15</f>
+        <v>0.8241355240652648</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>-0.15157272120337684</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>-9.3792732111831617E-2</v>
+      </c>
+      <c r="AB15">
+        <v>0.60111235902183091</v>
+      </c>
+      <c r="AC15">
+        <v>0.23506605144218498</v>
+      </c>
+      <c r="AD15">
+        <v>-0.36587374815208429</v>
+      </c>
+      <c r="AE15">
+        <v>0.47158998244761974</v>
+      </c>
+      <c r="AF15">
+        <v>-0.33648568434256798</v>
+      </c>
+      <c r="AG15">
+        <v>-0.3375271194901262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.2763383049744301</v>
+        <v>1.4210854715202004E-14</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7259059821273333</v>
+        <v>147.32387692683798</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.2534367827280319</v>
+        <v>-76.770976388111947</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2183143576766433</v>
+        <v>56.150508086098441</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.7199672268572499</v>
+        <v>-210.10367833834761</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.089774417502735</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.2615624014046567</v>
+        <v>37.344839298397382</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.685184237894699</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1738159793531917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>147.32387692683798</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>147.32387692683798</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="11"/>
+        <v>0.25557418743471583</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>-0.21556915105750327</v>
+      </c>
+      <c r="P16">
+        <v>8.4878746491767562E-2</v>
+      </c>
+      <c r="Q16">
+        <v>7.5786360601688418E-2</v>
+      </c>
+      <c r="R16">
+        <v>6.5318165282915258E-2</v>
+      </c>
+      <c r="S16">
+        <v>4.0418679098573329E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="8"/>
+        <v>0.43113830211500653</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>-0.16975749298353512</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="8"/>
+        <v>-0.15157272120337684</v>
+      </c>
+      <c r="Y16">
+        <f>1-2*R16</f>
+        <v>0.86936366943416954</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>-8.0837358197146658E-2</v>
+      </c>
+      <c r="AB16">
+        <v>0.30720649719602378</v>
+      </c>
+      <c r="AC16">
+        <v>0.2956204018066419</v>
+      </c>
+      <c r="AD16">
+        <v>-0.25608126699585609</v>
+      </c>
+      <c r="AE16">
+        <v>-0.33174582747367798</v>
+      </c>
+      <c r="AF16">
+        <v>0.77486143064379187</v>
+      </c>
+      <c r="AG16">
+        <v>-0.20540107123500365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.223552101515022</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8070427922289554</v>
+        <v>91.163560385874504</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.133094951946461</v>
+        <v>86.407579876485357</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.7058177827671401</v>
+        <v>83.567238172788919</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8742969244678225</v>
+        <v>51.6765838134273</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.9334628129376981</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.100470443021832</v>
+        <v>-124.01917327937836</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.432944290675211</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8195938552423554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4415051664515133</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0404193880665034</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4717948876781017</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.24317320236522733</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.461530887514687</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9101981389343514</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.591990518560454</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0057480361140474</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.5431090626365438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.469218736966344</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4871970226863205</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8759888430518501</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8891770084828465</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.187272449280183</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.56340729046669</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.4090579602215092</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.5779684663559568</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95761150585406085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>91.163560385874504</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="10"/>
+        <v>91.163560385874504</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="11"/>
+        <v>0.15814851845669245</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>-0.13339352540608024</v>
+      </c>
+      <c r="P17">
+        <v>5.2522706384670104E-2</v>
+      </c>
+      <c r="Q17">
+        <v>4.6896366055915809E-2</v>
+      </c>
+      <c r="R17">
+        <v>4.0418679098573329E-2</v>
+      </c>
+      <c r="S17">
+        <v>2.5010953890046792E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="8"/>
+        <v>0.26678705081216048</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>-0.10504541276934021</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="8"/>
+        <v>-9.3792732111831617E-2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="8"/>
+        <v>-8.0837358197146658E-2</v>
+      </c>
+      <c r="Z17">
+        <f>1-2*S17</f>
+        <v>0.94997809221990637</v>
+      </c>
+      <c r="AB17">
+        <v>0.41936822875700169</v>
+      </c>
+      <c r="AC17">
+        <v>8.1791283027590367E-2</v>
+      </c>
+      <c r="AD17">
+        <v>-0.22288617635210767</v>
+      </c>
+      <c r="AE17">
+        <v>-0.33974741450258283</v>
+      </c>
+      <c r="AF17">
+        <v>-0.20984256107149812</v>
+      </c>
+      <c r="AG17">
+        <v>0.77993590827889026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.396297268938969</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.127728551025616</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.0771170316413756</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20283537913310834</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.175095520908201</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.2176182670694335</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7401649898411886</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6310861115336444</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.138116172425192</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="array" ref="A21:F26">MMULT(U12:Z17,A12:F17)</f>
+        <v>355.09775570755892</v>
+      </c>
+      <c r="B21">
+        <v>258.2754563745014</v>
+      </c>
+      <c r="C21">
+        <v>448.21625056440041</v>
+      </c>
+      <c r="D21">
+        <v>317.77031700485981</v>
+      </c>
+      <c r="E21">
+        <v>80.320654525402333</v>
+      </c>
+      <c r="F21">
+        <v>152.46034566910964</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="array" ref="N21:S26">MMULT(L21:L26,TRANSPOSE(L21:L26))</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>1-2*N21</f>
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ref="V21:Z25" si="12">-2*O21</f>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="array" ref="AB21:AG26">MMULT(U21:Z26,AB12:AG17)</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="AC21">
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="AD21">
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="AE21">
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="AF21">
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="AG21">
+        <v>0.43214430854101993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-2.1635401761294607E-14</v>
+      </c>
+      <c r="B22">
+        <v>341.70909010895332</v>
+      </c>
+      <c r="C22">
+        <v>62.710889082781726</v>
+      </c>
+      <c r="D22">
+        <v>141.85521235367372</v>
+      </c>
+      <c r="E22">
+        <v>-82.698598980253777</v>
+      </c>
+      <c r="F22">
+        <v>116.37316940993549</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22:Y26" si="13">-2*N22</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>1-2*O22</f>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0.53828726458353282</v>
+      </c>
+      <c r="AC22">
+        <v>-0.66033764804353645</v>
+      </c>
+      <c r="AD22">
+        <v>0.40899311284344558</v>
+      </c>
+      <c r="AE22">
+        <v>0.18453520680380819</v>
+      </c>
+      <c r="AF22">
+        <v>0.26555146694129173</v>
+      </c>
+      <c r="AG22">
+        <v>4.8526496528596891E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7.0087689512011992E-15</v>
+      </c>
+      <c r="B23">
+        <v>3.730349362740526E-14</v>
+      </c>
+      <c r="C23">
+        <v>84.931108804414606</v>
+      </c>
+      <c r="D23">
+        <v>297.43030876042417</v>
+      </c>
+      <c r="E23">
+        <v>146.44015144015799</v>
+      </c>
+      <c r="F23">
+        <v>230.13304649037252</v>
+      </c>
+      <c r="H23">
+        <f>C23</f>
+        <v>84.931108804414606</v>
+      </c>
+      <c r="I23">
+        <f>SQRT(SUMPRODUCT(H23:H26,H23:H26))</f>
+        <v>180.14253710079609</v>
+      </c>
+      <c r="J23">
+        <f>H23-I23</f>
+        <v>-95.211428296381484</v>
+      </c>
+      <c r="K23">
+        <f>SQRT(SUMPRODUCT(J23:J26,J23:J26))</f>
+        <v>185.21138331269321</v>
+      </c>
+      <c r="L23">
+        <f>J23/K$23</f>
+        <v>-0.51406898751809227</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.26426692392787648</v>
+      </c>
+      <c r="Q23">
+        <v>-0.30312296392881288</v>
+      </c>
+      <c r="R23">
+        <v>0.21006948555851679</v>
+      </c>
+      <c r="S23">
+        <v>-0.241696497330363</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>1-2*P23</f>
+        <v>0.47146615214424703</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="12"/>
+        <v>0.60624592785762577</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="12"/>
+        <v>-0.42013897111703358</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="12"/>
+        <v>0.48339299466072599</v>
+      </c>
+      <c r="AB23">
+        <v>0.56661753983621177</v>
+      </c>
+      <c r="AC23">
+        <v>0.26527708085235757</v>
+      </c>
+      <c r="AD23">
+        <v>0.10938139752690619</v>
+      </c>
+      <c r="AE23">
+        <v>9.2795257156146005E-2</v>
+      </c>
+      <c r="AF23">
+        <v>-0.7505567641940557</v>
+      </c>
+      <c r="AG23">
+        <v>0.15704116584942035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-2.2924882215764707E-14</v>
+      </c>
+      <c r="B24">
+        <v>4.9737991503207013E-14</v>
+      </c>
+      <c r="C24">
+        <v>109.21067955129888</v>
+      </c>
+      <c r="D24">
+        <v>43.554734699772965</v>
+      </c>
+      <c r="E24">
+        <v>203.13811775392281</v>
+      </c>
+      <c r="F24">
+        <v>127.30790711132697</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H26" si="14">C24</f>
+        <v>109.21067955129888</v>
+      </c>
+      <c r="J24">
+        <f>H24</f>
+        <v>109.21067955129888</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L26" si="15">J24/K$23</f>
+        <v>0.58965425125580972</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>-0.30312296392881288</v>
+      </c>
+      <c r="Q24">
+        <v>0.34769213602404958</v>
+      </c>
+      <c r="R24">
+        <v>-0.24095669691481031</v>
+      </c>
+      <c r="S24">
+        <v>0.2772339328473325</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="13"/>
+        <v>0.60624592785762577</v>
+      </c>
+      <c r="X24">
+        <f>1-2*Q24</f>
+        <v>0.30461572795190084</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="12"/>
+        <v>0.48191339382962062</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="12"/>
+        <v>-0.554467865694665</v>
+      </c>
+      <c r="AB24">
+        <v>0.26392211882137517</v>
+      </c>
+      <c r="AC24">
+        <v>0.43545097305927016</v>
+      </c>
+      <c r="AD24">
+        <v>0.31478827904846413</v>
+      </c>
+      <c r="AE24">
+        <v>-4.419093327722215E-2</v>
+      </c>
+      <c r="AF24">
+        <v>0.23350630400857422</v>
+      </c>
+      <c r="AG24">
+        <v>-0.7649561242559082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2.5072388908844598E-14</v>
+      </c>
+      <c r="B25">
+        <v>4.4408920985006262E-14</v>
+      </c>
+      <c r="C25">
+        <v>-75.684900191940514</v>
+      </c>
+      <c r="D25">
+        <v>68.384925251843512</v>
+      </c>
+      <c r="E25">
+        <v>-127.06840301853488</v>
+      </c>
+      <c r="F25">
+        <v>41.059399992786879</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="14"/>
+        <v>-75.684900191940514</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J26" si="16">H25</f>
+        <v>-75.684900191940514</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="15"/>
+        <v>-0.40864065068917149</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.21006948555851679</v>
+      </c>
+      <c r="Q25">
+        <v>-0.24095669691481031</v>
+      </c>
+      <c r="R25">
+        <v>0.16698718139566948</v>
+      </c>
+      <c r="S25">
+        <v>-0.19212793678766141</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="13"/>
+        <v>-0.42013897111703358</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="13"/>
+        <v>0.48191339382962062</v>
+      </c>
+      <c r="Y25">
+        <f>1-2*R25</f>
+        <v>0.66602563720866104</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="12"/>
+        <v>0.38425587357532281</v>
+      </c>
+      <c r="AB25">
+        <v>0.54088519766854015</v>
+      </c>
+      <c r="AC25">
+        <v>0.15675016626859614</v>
+      </c>
+      <c r="AD25">
+        <v>-0.72779188911426518</v>
+      </c>
+      <c r="AE25">
+        <v>2.5699316974908654E-2</v>
+      </c>
+      <c r="AF25">
+        <v>0.37984707009036156</v>
+      </c>
+      <c r="AG25">
+        <v>9.0814662407081581E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6.7210838392279442E-15</v>
+      </c>
+      <c r="B26">
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="C26">
+        <v>87.079640474934749</v>
+      </c>
+      <c r="D26">
+        <v>91.137857758297528</v>
+      </c>
+      <c r="E26">
+        <v>103.05855592603109</v>
+      </c>
+      <c r="F26">
+        <v>-121.72061458520186</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="14"/>
+        <v>87.079640474934749</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="16"/>
+        <v>87.079640474934749</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="15"/>
+        <v>0.47016354458039872</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>-0.241696497330363</v>
+      </c>
+      <c r="Q26">
+        <v>0.2772339328473325</v>
+      </c>
+      <c r="R26">
+        <v>-0.19212793678766141</v>
+      </c>
+      <c r="S26">
+        <v>0.22105375865240456</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="13"/>
+        <v>0.48339299466072599</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="13"/>
+        <v>-0.554467865694665</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="13"/>
+        <v>0.38425587357532281</v>
+      </c>
+      <c r="Z26">
+        <f>1-2*S26</f>
+        <v>0.55789248269519087</v>
+      </c>
+      <c r="AB26">
+        <v>0.15050803111927571</v>
+      </c>
+      <c r="AC26">
+        <v>0.24156912712403089</v>
+      </c>
+      <c r="AD26">
+        <v>0.31984283931821988</v>
+      </c>
+      <c r="AE26">
+        <v>-0.75100771330930027</v>
+      </c>
+      <c r="AF26">
+        <v>0.24464318723754008</v>
+      </c>
+      <c r="AG26">
+        <v>0.43912341433153629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="array" ref="A30:F35">MMULT(U21:Z26,A21:F26)</f>
+        <v>355.09775570755892</v>
+      </c>
+      <c r="B30">
+        <v>258.2754563745014</v>
+      </c>
+      <c r="C30">
+        <v>448.21625056440041</v>
+      </c>
+      <c r="D30">
+        <v>317.77031700485981</v>
+      </c>
+      <c r="E30">
+        <v>80.320654525402333</v>
+      </c>
+      <c r="F30">
+        <v>152.46034566910964</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="array" ref="N30:S35">MMULT(L30:L35,TRANSPOSE(L30:L35))</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>1-2*N30</f>
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30:Z34" si="17">-2*O30</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="array" ref="AB30:AG35">MMULT(U30:Z35,AB21:AG26)</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="AC30">
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="AD30">
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="AE30">
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="AF30">
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="AG30">
+        <v>0.43214430854101993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-2.1635401761294607E-14</v>
+      </c>
+      <c r="B31">
+        <v>341.70909010895332</v>
+      </c>
+      <c r="C31">
+        <v>62.710889082781726</v>
+      </c>
+      <c r="D31">
+        <v>141.85521235367372</v>
+      </c>
+      <c r="E31">
+        <v>-82.698598980253777</v>
+      </c>
+      <c r="F31">
+        <v>116.37316940993549</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ref="U31:Y35" si="18">-2*N31</f>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f>1-2*O31</f>
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0.53828726458353282</v>
+      </c>
+      <c r="AC31">
+        <v>-0.66033764804353645</v>
+      </c>
+      <c r="AD31">
+        <v>0.40899311284344558</v>
+      </c>
+      <c r="AE31">
+        <v>0.18453520680380819</v>
+      </c>
+      <c r="AF31">
+        <v>0.26555146694129173</v>
+      </c>
+      <c r="AG31">
+        <v>4.8526496528596891E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1.7878681996430047E-14</v>
+      </c>
+      <c r="B32">
+        <v>3.5952298657098463E-14</v>
+      </c>
+      <c r="C32">
+        <v>180.14253710079609</v>
+      </c>
+      <c r="D32">
+        <v>181.95743360653103</v>
+      </c>
+      <c r="E32">
+        <v>295.3974034800766</v>
+      </c>
+      <c r="F32">
+        <v>109.59029571643092</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f>1-2*P32</f>
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0.56661753983621177</v>
+      </c>
+      <c r="AC32">
+        <v>0.26527708085235757</v>
+      </c>
+      <c r="AD32">
+        <v>0.10938139752690619</v>
+      </c>
+      <c r="AE32">
+        <v>9.2795257156146005E-2</v>
+      </c>
+      <c r="AF32">
+        <v>-0.7505567641940557</v>
+      </c>
+      <c r="AG32">
+        <v>0.15704116584942035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5.6218529705797543E-15</v>
+      </c>
+      <c r="B33">
+        <v>5.1287857139652995E-14</v>
+      </c>
+      <c r="C33">
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D33">
+        <v>176.00596866344037</v>
+      </c>
+      <c r="E33">
+        <v>32.279188206787076</v>
+      </c>
+      <c r="F33">
+        <v>265.57445727823949</v>
+      </c>
+      <c r="H33">
+        <f>D33</f>
+        <v>176.00596866344037</v>
+      </c>
+      <c r="I33">
+        <f>SQRT(SUMPRODUCT(H33:H35,H33:H35))</f>
+        <v>265.02057082023958</v>
+      </c>
+      <c r="J33">
+        <f>H33-I33</f>
+        <v>-89.014602156799214</v>
+      </c>
+      <c r="K33">
+        <f>SQRT(SUMPRODUCT(J33:J35,J33:J35))</f>
+        <v>217.21280199348959</v>
+      </c>
+      <c r="L33">
+        <f>J33/K$33</f>
+        <v>-0.40980366414806069</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0.16793904314917651</v>
+      </c>
+      <c r="R33">
+        <v>4.4158993484249412E-2</v>
+      </c>
+      <c r="S33">
+        <v>-0.37119469854750564</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f>1-2*Q33</f>
+        <v>0.66412191370164697</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="17"/>
+        <v>-8.8317986968498824E-2</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="17"/>
+        <v>0.74238939709501128</v>
+      </c>
+      <c r="AB33">
+        <v>0.23924213726129739</v>
+      </c>
+      <c r="AC33">
+        <v>0.45468703305192437</v>
+      </c>
+      <c r="AD33">
+        <v>0.51078284151769671</v>
+      </c>
+      <c r="AE33">
+        <v>-0.58915804261541438</v>
+      </c>
+      <c r="AF33">
+        <v>0.30314983316998917</v>
+      </c>
+      <c r="AG33">
+        <v>-0.1900441264937538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.289004973673941E-15</v>
+      </c>
+      <c r="B34">
+        <v>4.3334837145520272E-14</v>
+      </c>
+      <c r="C34">
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="D34">
+        <v>-23.40608332008604</v>
+      </c>
+      <c r="E34">
+        <v>-8.6601934660748157</v>
+      </c>
+      <c r="F34">
+        <v>-54.761723841088639</v>
+      </c>
+      <c r="H34">
+        <f>D34</f>
+        <v>-23.40608332008604</v>
+      </c>
+      <c r="J34">
+        <f>H34</f>
+        <v>-23.40608332008604</v>
+      </c>
+      <c r="L34">
+        <f>J34/K$33</f>
+        <v>-0.1077564632713848</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>4.4158993484249412E-2</v>
+      </c>
+      <c r="R34">
+        <v>1.1611455376757302E-2</v>
+      </c>
+      <c r="S34">
+        <v>-9.7604368627889265E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="18"/>
+        <v>-8.8317986968498824E-2</v>
+      </c>
+      <c r="Y34">
+        <f>1-2*R34</f>
+        <v>0.97677708924648543</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="17"/>
+        <v>0.19520873725577853</v>
+      </c>
+      <c r="AB34">
+        <v>0.53439568144606908</v>
+      </c>
+      <c r="AC34">
+        <v>0.1618082220485359</v>
+      </c>
+      <c r="AD34">
+        <v>-0.67625579336945862</v>
+      </c>
+      <c r="AE34">
+        <v>-0.11759790908478068</v>
+      </c>
+      <c r="AF34">
+        <v>0.3981595964260467</v>
+      </c>
+      <c r="AG34">
+        <v>0.24198579383150326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2.9482955177940624E-14</v>
+      </c>
+      <c r="B35">
+        <v>1.5446647249051937E-14</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>196.74846178901339</v>
+      </c>
+      <c r="E35">
+        <v>-33.176601826174576</v>
+      </c>
+      <c r="F35">
+        <v>-11.473141282110674</v>
+      </c>
+      <c r="H35">
+        <f>D35</f>
+        <v>196.74846178901339</v>
+      </c>
+      <c r="J35">
+        <f>H35</f>
+        <v>196.74846178901339</v>
+      </c>
+      <c r="L35">
+        <f>J35/K$33</f>
+        <v>0.90578667547831937</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>-0.37119469854750564</v>
+      </c>
+      <c r="R35">
+        <v>-9.7604368627889265E-2</v>
+      </c>
+      <c r="S35">
+        <v>0.82044950147406626</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="18"/>
+        <v>0.74238939709501128</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="18"/>
+        <v>0.19520873725577853</v>
+      </c>
+      <c r="Z35">
+        <f>1-2*S35</f>
+        <v>-0.64089900294813251</v>
+      </c>
+      <c r="AB35">
+        <v>0.20505805202902622</v>
+      </c>
+      <c r="AC35">
+        <v>0.19905177465899149</v>
+      </c>
+      <c r="AD35">
+        <v>-0.11336281178277474</v>
+      </c>
+      <c r="AE35">
+        <v>0.45352994556855258</v>
+      </c>
+      <c r="AF35">
+        <v>9.071049637486378E-2</v>
+      </c>
+      <c r="AG35">
+        <v>-0.8316012587339453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="array" ref="A39:F44">MMULT(U30:Z35,A30:F35)</f>
+        <v>355.09775570755892</v>
+      </c>
+      <c r="B39">
+        <v>258.2754563745014</v>
+      </c>
+      <c r="C39">
+        <v>448.21625056440041</v>
+      </c>
+      <c r="D39">
+        <v>317.77031700485981</v>
+      </c>
+      <c r="E39">
+        <v>80.320654525402333</v>
+      </c>
+      <c r="F39">
+        <v>152.46034566910964</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="array" ref="N39:S44">MMULT(L39:L44,TRANSPOSE(L39:L44))</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>1-2*N39</f>
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V39:Z43" si="19">-2*O39</f>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="array" ref="AB39:AG44">MMULT(U39:Z44,AB30:AG35)</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="AC39">
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="AD39">
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="AE39">
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="AF39">
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="AG39">
+        <v>0.43214430854101993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-2.1635401761294607E-14</v>
+      </c>
+      <c r="B40">
+        <v>341.70909010895332</v>
+      </c>
+      <c r="C40">
+        <v>62.710889082781726</v>
+      </c>
+      <c r="D40">
+        <v>141.85521235367372</v>
+      </c>
+      <c r="E40">
+        <v>-82.698598980253777</v>
+      </c>
+      <c r="F40">
+        <v>116.37316940993549</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40:Y44" si="20">-2*N40</f>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f>1-2*O40</f>
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0.53828726458353282</v>
+      </c>
+      <c r="AC40">
+        <v>-0.66033764804353645</v>
+      </c>
+      <c r="AD40">
+        <v>0.40899311284344558</v>
+      </c>
+      <c r="AE40">
+        <v>0.18453520680380819</v>
+      </c>
+      <c r="AF40">
+        <v>0.26555146694129173</v>
+      </c>
+      <c r="AG40">
+        <v>4.8526496528596891E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-1.7878681996430047E-14</v>
+      </c>
+      <c r="B41">
+        <v>3.5952298657098463E-14</v>
+      </c>
+      <c r="C41">
+        <v>180.14253710079609</v>
+      </c>
+      <c r="D41">
+        <v>181.95743360653103</v>
+      </c>
+      <c r="E41">
+        <v>295.3974034800766</v>
+      </c>
+      <c r="F41">
+        <v>109.59029571643092</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>1-2*P41</f>
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0.56661753983621177</v>
+      </c>
+      <c r="AC41">
+        <v>0.26527708085235757</v>
+      </c>
+      <c r="AD41">
+        <v>0.10938139752690619</v>
+      </c>
+      <c r="AE41">
+        <v>9.2795257156146005E-2</v>
+      </c>
+      <c r="AF41">
+        <v>-0.7505567641940557</v>
+      </c>
+      <c r="AG41">
+        <v>0.15704116584942035</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.5154314800160036E-14</v>
+      </c>
+      <c r="B42">
+        <v>4.1701571389305927E-14</v>
+      </c>
+      <c r="C42">
+        <v>-1.4784147083968263E-14</v>
+      </c>
+      <c r="D42">
+        <v>265.02057082023958</v>
+      </c>
+      <c r="E42">
+        <v>-2.4277903290864558</v>
+      </c>
+      <c r="F42">
+        <v>172.69272357125848</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f>1-2*Q42</f>
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0.23924213726129739</v>
+      </c>
+      <c r="AC42">
+        <v>0.45468703305192437</v>
+      </c>
+      <c r="AD42">
+        <v>0.51078284151769671</v>
+      </c>
+      <c r="AE42">
+        <v>-0.58915804261541438</v>
+      </c>
+      <c r="AF42">
+        <v>0.30314983316998917</v>
+      </c>
+      <c r="AG42">
+        <v>-0.1900441264937538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.0424998596655443E-14</v>
+      </c>
+      <c r="B43">
+        <v>4.0814156295792536E-14</v>
+      </c>
+      <c r="C43">
+        <v>8.8230297745325133E-15</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>-17.786274038430026</v>
+      </c>
+      <c r="F43">
+        <v>-79.184656094722087</v>
+      </c>
+      <c r="H43">
+        <f>E43</f>
+        <v>-17.786274038430026</v>
+      </c>
+      <c r="I43">
+        <f>SQRT(SUMPRODUCT(H43:H44,H43:H44))</f>
+        <v>47.029115290525631</v>
+      </c>
+      <c r="J43">
+        <f>H43+I43</f>
+        <v>29.242841252095605</v>
+      </c>
+      <c r="K43">
+        <f>SQRT(SUMPRODUCT(J43:J44,J43:J44))</f>
+        <v>52.445494614262962</v>
+      </c>
+      <c r="L43">
+        <f>J43/K$43</f>
+        <v>0.55758538397200641</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0.3109014604192098</v>
+      </c>
+      <c r="S43">
+        <v>0.46286255230728313</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f>1-2*R43</f>
+        <v>0.37819707916158041</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="19"/>
+        <v>-0.92572510461456625</v>
+      </c>
+      <c r="AB43">
+        <v>1.2279499172836245E-2</v>
+      </c>
+      <c r="AC43">
+        <v>-0.12307182795682525</v>
+      </c>
+      <c r="AD43">
+        <v>-0.15081516502141601</v>
+      </c>
+      <c r="AE43">
+        <v>-0.46431924203866004</v>
+      </c>
+      <c r="AF43">
+        <v>6.6609812662224488E-2</v>
+      </c>
+      <c r="AG43">
+        <v>0.86135248266475739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-1.3689532557870702E-14</v>
+      </c>
+      <c r="B44">
+        <v>3.6635159357754974E-14</v>
+      </c>
+      <c r="C44">
+        <v>-1.4437940294195465E-14</v>
+      </c>
+      <c r="D44">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="E44">
+        <v>43.536032672252318</v>
+      </c>
+      <c r="F44">
+        <v>193.82281907004625</v>
+      </c>
+      <c r="H44">
+        <f>E44</f>
+        <v>43.536032672252318</v>
+      </c>
+      <c r="J44">
+        <f>H44</f>
+        <v>43.536032672252318</v>
+      </c>
+      <c r="L44">
+        <f>J44/K$43</f>
+        <v>0.83011959354106946</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0.46286255230728313</v>
+      </c>
+      <c r="S44">
+        <v>0.68909853958079037</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="20"/>
+        <v>-0.92572510461456625</v>
+      </c>
+      <c r="Z44">
+        <f>1-2*S44</f>
+        <v>-0.37819707916158074</v>
+      </c>
+      <c r="AB44">
+        <v>-0.57225585444817595</v>
+      </c>
+      <c r="AC44">
+        <v>-0.2250707330613376</v>
+      </c>
+      <c r="AD44">
+        <v>0.66890044936493798</v>
+      </c>
+      <c r="AE44">
+        <v>-6.2660364036374455E-2</v>
+      </c>
+      <c r="AF44">
+        <v>-0.40289277883306623</v>
+      </c>
+      <c r="AG44">
+        <v>9.0496842770364877E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB47">
+        <f t="array" ref="AB47:AG52">TRANSPOSE(AB39:AG44)</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="AC47">
+        <v>0.53828726458353282</v>
+      </c>
+      <c r="AD47">
+        <v>0.56661753983621177</v>
+      </c>
+      <c r="AE47">
+        <v>0.23924213726129739</v>
+      </c>
+      <c r="AF47">
+        <v>1.2279499172836245E-2</v>
+      </c>
+      <c r="AG47">
+        <v>-0.57225585444817595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="array" ref="A48:F53">MMULT(U39:Z44,A39:F44)</f>
+        <v>355.09775570755892</v>
+      </c>
+      <c r="B48">
+        <v>258.2754563745014</v>
+      </c>
+      <c r="C48">
+        <v>448.21625056440041</v>
+      </c>
+      <c r="D48">
+        <v>317.77031700485981</v>
+      </c>
+      <c r="E48">
+        <v>80.320654525402333</v>
+      </c>
+      <c r="F48">
+        <v>152.46034566910964</v>
+      </c>
+      <c r="H48">
+        <f>ABS(A48)</f>
+        <v>355.09775570755892</v>
+      </c>
+      <c r="J48">
+        <f>MIN(H48:H53)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="AB48">
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="AC48">
+        <v>-0.66033764804353645</v>
+      </c>
+      <c r="AD48">
+        <v>0.26527708085235757</v>
+      </c>
+      <c r="AE48">
+        <v>0.45468703305192437</v>
+      </c>
+      <c r="AF48">
+        <v>-0.12307182795682525</v>
+      </c>
+      <c r="AG48">
+        <v>-0.2250707330613376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-2.1635401761294607E-14</v>
+      </c>
+      <c r="B49">
+        <v>341.70909010895332</v>
+      </c>
+      <c r="C49">
+        <v>62.710889082781726</v>
+      </c>
+      <c r="D49">
+        <v>141.85521235367372</v>
+      </c>
+      <c r="E49">
+        <v>-82.698598980253777</v>
+      </c>
+      <c r="F49">
+        <v>116.37316940993549</v>
+      </c>
+      <c r="H49">
+        <f>ABS(B49)</f>
+        <v>341.70909010895332</v>
+      </c>
+      <c r="AB49">
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="AC49">
+        <v>0.40899311284344558</v>
+      </c>
+      <c r="AD49">
+        <v>0.10938139752690619</v>
+      </c>
+      <c r="AE49">
+        <v>0.51078284151769671</v>
+      </c>
+      <c r="AF49">
+        <v>-0.15081516502141601</v>
+      </c>
+      <c r="AG49">
+        <v>0.66890044936493798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-1.7878681996430047E-14</v>
+      </c>
+      <c r="B50">
+        <v>3.5952298657098463E-14</v>
+      </c>
+      <c r="C50">
+        <v>180.14253710079609</v>
+      </c>
+      <c r="D50">
+        <v>181.95743360653103</v>
+      </c>
+      <c r="E50">
+        <v>295.3974034800766</v>
+      </c>
+      <c r="F50">
+        <v>109.59029571643092</v>
+      </c>
+      <c r="H50">
+        <f>ABS(C50)</f>
+        <v>180.14253710079609</v>
+      </c>
+      <c r="J50" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB50">
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="AC50">
+        <v>0.18453520680380819</v>
+      </c>
+      <c r="AD50">
+        <v>9.2795257156146005E-2</v>
+      </c>
+      <c r="AE50">
+        <v>-0.58915804261541438</v>
+      </c>
+      <c r="AF50">
+        <v>-0.46431924203866004</v>
+      </c>
+      <c r="AG50">
+        <v>-6.2660364036374455E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2.5154314800160036E-14</v>
+      </c>
+      <c r="B51">
+        <v>4.1701571389305927E-14</v>
+      </c>
+      <c r="C51">
+        <v>-1.4784147083968263E-14</v>
+      </c>
+      <c r="D51">
+        <v>265.02057082023958</v>
+      </c>
+      <c r="E51">
+        <v>-2.4277903290864558</v>
+      </c>
+      <c r="F51">
+        <v>172.69272357125848</v>
+      </c>
+      <c r="H51">
+        <f>ABS(D51)</f>
+        <v>265.02057082023958</v>
+      </c>
+      <c r="J51" s="5" t="b">
+        <f>J48&gt;POWER(10,-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="AC51">
+        <v>0.26555146694129173</v>
+      </c>
+      <c r="AD51">
+        <v>-0.7505567641940557</v>
+      </c>
+      <c r="AE51">
+        <v>0.30314983316998917</v>
+      </c>
+      <c r="AF51">
+        <v>6.6609812662224488E-2</v>
+      </c>
+      <c r="AG51">
+        <v>-0.40289277883306623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.6615447978778028E-14</v>
+      </c>
+      <c r="B52">
+        <v>-1.8478292029516066E-14</v>
+      </c>
+      <c r="C52">
+        <v>1.6702407879346813E-14</v>
+      </c>
+      <c r="D52">
+        <v>2.6310689935785554E-14</v>
+      </c>
+      <c r="E52">
+        <v>-47.029115290525638</v>
+      </c>
+      <c r="F52">
+        <v>-209.37405510974685</v>
+      </c>
+      <c r="H52">
+        <f>ABS(E52)</f>
+        <v>47.029115290525638</v>
+      </c>
+      <c r="AB52">
+        <v>0.43214430854101993</v>
+      </c>
+      <c r="AC52">
+        <v>4.8526496528596891E-2</v>
+      </c>
+      <c r="AD52">
+        <v>0.15704116584942035</v>
+      </c>
+      <c r="AE52">
+        <v>-0.1900441264937538</v>
+      </c>
+      <c r="AF52">
+        <v>0.86135248266475739</v>
+      </c>
+      <c r="AG52">
+        <v>9.0496842770364877E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-4.4733416880215036E-15</v>
+      </c>
+      <c r="B53">
+        <v>-5.1637999370399789E-14</v>
+      </c>
+      <c r="C53">
+        <v>-2.7073133126725262E-15</v>
+      </c>
+      <c r="D53">
+        <v>1.074900749135795E-14</v>
+      </c>
+      <c r="E53">
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="F53">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="H53">
+        <f>ABS(F53)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="U55">
+        <f>A3</f>
+        <v>-23.358402290411277</v>
+      </c>
+      <c r="V55">
+        <f t="shared" ref="V55:Z60" si="21">B3</f>
+        <v>166.94823956776469</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="21"/>
+        <v>106.34463839396584</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="21"/>
+        <v>221.96021957865258</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="21"/>
+        <v>116.41991475197233</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="21"/>
+        <v>153.45347410471106</v>
+      </c>
+      <c r="AB55">
+        <f t="array" ref="AB55:AG60">MMULT(AB47:AG52,A48:F53)</f>
+        <v>-23.35840229041132</v>
+      </c>
+      <c r="AC55">
+        <v>166.94823956776463</v>
+      </c>
+      <c r="AD55">
+        <v>106.34463839396577</v>
+      </c>
+      <c r="AE55">
+        <v>221.96021957865253</v>
+      </c>
+      <c r="AF55">
+        <v>116.41991475197234</v>
+      </c>
+      <c r="AG55">
+        <v>153.45347410471106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="U56">
+        <f t="shared" ref="U56:U60" si="22">A4</f>
+        <v>166.94823956776469</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="21"/>
+        <v>-104.21587678160097</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="21"/>
+        <v>217.10497086115726</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="21"/>
+        <v>224.49706283830216</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="21"/>
+        <v>175.41776989298759</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="21"/>
+        <v>128.1942134830374</v>
+      </c>
+      <c r="AB56">
+        <v>166.94823956776472</v>
+      </c>
+      <c r="AC56">
+        <v>-104.21587678160077</v>
+      </c>
+      <c r="AD56">
+        <v>217.10497086115723</v>
+      </c>
+      <c r="AE56">
+        <v>224.49706283830216</v>
+      </c>
+      <c r="AF56">
+        <v>175.41776989298745</v>
+      </c>
+      <c r="AG56">
+        <v>128.19421348303746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>AB47</f>
+        <v>-6.5780202535687504E-2</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:F62" si="23">AC47</f>
+        <v>0.53828726458353282</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="23"/>
+        <v>0.56661753983621177</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="23"/>
+        <v>0.23924213726129739</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="23"/>
+        <v>1.2279499172836245E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="23"/>
+        <v>-0.57225585444817595</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="22"/>
+        <v>106.34463839396584</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="21"/>
+        <v>217.10497086115726</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="21"/>
+        <v>179.58431960106043</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="21"/>
+        <v>308.4543444677862</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="21"/>
+        <v>28.394874672540638</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="21"/>
+        <v>225.02703546376364</v>
+      </c>
+      <c r="AB57">
+        <v>106.34463839396585</v>
+      </c>
+      <c r="AC57">
+        <v>217.1049708611572</v>
+      </c>
+      <c r="AD57">
+        <v>179.58431960106043</v>
+      </c>
+      <c r="AE57">
+        <v>308.4543444677862</v>
+      </c>
+      <c r="AF57">
+        <v>28.394874672540659</v>
+      </c>
+      <c r="AG57">
+        <v>225.02703546376367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" ref="A58:A62" si="24">AB48</f>
+        <v>0.47014726757455222</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="23"/>
+        <v>-0.66033764804353645</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="23"/>
+        <v>0.26527708085235757</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="23"/>
+        <v>0.45468703305192437</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="23"/>
+        <v>-0.12307182795682525</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="23"/>
+        <v>-0.2250707330613376</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="22"/>
+        <v>221.96021957865258</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="21"/>
+        <v>224.49706283830216</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="21"/>
+        <v>308.4543444677862</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="21"/>
+        <v>85.551101720657527</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="21"/>
+        <v>85.623415684544824</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="21"/>
+        <v>122.41557501089946</v>
+      </c>
+      <c r="AB58">
+        <v>221.96021957865256</v>
+      </c>
+      <c r="AC58">
+        <v>224.49706283830201</v>
+      </c>
+      <c r="AD58">
+        <v>308.4543444677862</v>
+      </c>
+      <c r="AE58">
+        <v>85.551101720657485</v>
+      </c>
+      <c r="AF58">
+        <v>85.623415684544881</v>
+      </c>
+      <c r="AG58">
+        <v>122.41557501089946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="24"/>
+        <v>0.29947989443657896</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="23"/>
+        <v>0.40899311284344558</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="23"/>
+        <v>0.10938139752690619</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="23"/>
+        <v>0.51078284151769671</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="23"/>
+        <v>-0.15081516502141601</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="23"/>
+        <v>0.66890044936493798</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="22"/>
+        <v>116.41991475197233</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="21"/>
+        <v>175.41776989298759</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="21"/>
+        <v>28.394874672540638</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="21"/>
+        <v>85.623415684544824</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="21"/>
+        <v>-221.20845945861961</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="21"/>
+        <v>37.039335145889723</v>
+      </c>
+      <c r="AB59">
+        <v>116.41991475197236</v>
+      </c>
+      <c r="AC59">
+        <v>175.41776989298756</v>
+      </c>
+      <c r="AD59">
+        <v>28.39487467254062</v>
+      </c>
+      <c r="AE59">
+        <v>85.623415684544881</v>
+      </c>
+      <c r="AF59">
+        <v>-221.20845945861964</v>
+      </c>
+      <c r="AG59">
+        <v>37.039335145889751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="24"/>
+        <v>0.62506793132606597</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="23"/>
+        <v>0.18453520680380819</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="23"/>
+        <v>9.2795257156146005E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="23"/>
+        <v>-0.58915804261541438</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="23"/>
+        <v>-0.46431924203866004</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="23"/>
+        <v>-6.2660364036374455E-2</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="22"/>
+        <v>153.45347410471106</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="21"/>
+        <v>128.1942134830374</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="21"/>
+        <v>225.02703546376364</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="21"/>
+        <v>122.41557501089946</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="21"/>
+        <v>37.039335145889723</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="21"/>
+        <v>-124.42185931170877</v>
+      </c>
+      <c r="AB60">
+        <v>153.45347410471109</v>
+      </c>
+      <c r="AC60">
+        <v>128.19421348303737</v>
+      </c>
+      <c r="AD60">
+        <v>225.0270354637637</v>
+      </c>
+      <c r="AE60">
+        <v>122.41557501089946</v>
+      </c>
+      <c r="AF60">
+        <v>37.039335145889716</v>
+      </c>
+      <c r="AG60">
+        <v>-124.42185931170893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="24"/>
+        <v>0.32785314151027767</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="23"/>
+        <v>0.26555146694129173</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="23"/>
+        <v>-0.7505567641940557</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="23"/>
+        <v>0.30314983316998917</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="23"/>
+        <v>6.6609812662224488E-2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="23"/>
+        <v>-0.40289277883306623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="24"/>
+        <v>0.43214430854101993</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="23"/>
+        <v>4.8526496528596891E-2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="23"/>
+        <v>0.15704116584942035</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="23"/>
+        <v>-0.1900441264937538</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="23"/>
+        <v>0.86135248266475739</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="23"/>
+        <v>9.0496842770364877E-2</v>
+      </c>
+      <c r="U62" t="b">
+        <f>ABS(U55-AB55)&lt;EXP(-12)</f>
+        <v>1</v>
+      </c>
+      <c r="V62" t="b">
+        <f t="shared" ref="V62:Z67" si="25">ABS(V55-AC55)&lt;EXP(-12)</f>
+        <v>1</v>
+      </c>
+      <c r="W62" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X62" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y62" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Z62" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U63" t="b">
+        <f t="shared" ref="U63:U67" si="26">ABS(U56-AB56)&lt;EXP(-12)</f>
+        <v>1</v>
+      </c>
+      <c r="V63" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="W63" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X63" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y63" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Z63" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U64" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V64" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="W64" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X64" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y64" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Z64" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="21:26" x14ac:dyDescent="0.25">
+      <c r="U65" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V65" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="W65" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X65" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y65" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Z65" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="21:26" x14ac:dyDescent="0.25">
+      <c r="U66" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V66" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="W66" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X66" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y66" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Z66" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="21:26" x14ac:dyDescent="0.25">
+      <c r="U67" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V67" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="W67" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X67" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y67" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Z67" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SymmTriDiagQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="510" windowWidth="24915" windowHeight="8760" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="2115" yWindow="510" windowWidth="24915" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Step 6x6" sheetId="1" r:id="rId1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,761 +3559,761 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-5</f>
-        <v>9.7864838327165611</v>
+        <v>7.0689118447625994</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*20-5</f>
-        <v>9.3188605193637404</v>
+        <v>14.423283306319178</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9851977716546738</v>
+        <v>9.4594944107415646</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2953818532756167</v>
+        <v>3.091760894757364</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.127762964053957</v>
+        <v>9.66910003617879</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8886877241530531</v>
+        <v>13.353987079683847</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5128964662879358</v>
+        <v>14.061657158981603</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9023940881701291</v>
+        <v>0.28941861965506188</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8812306756334252</v>
+        <v>2.1484601826154126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I20" ca="1" si="1">RAND()*20-5</f>
-        <v>14.535772386505442</v>
+        <v>1.5088023472257746</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1665730608880587</v>
+        <v>5.1303465161336348</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4437288124905105</v>
+        <v>-0.58251520226208342</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7488888446078157</v>
+        <v>4.6626269934077218</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.845366216561374</v>
+        <v>4.5795191839425708</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8892702912064507</v>
+        <v>-2.8553061846869365</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0437281483564584</v>
+        <v>3.9064177779379712</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4379819206146731</v>
+        <v>14.515138944138652</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.207550955168438</v>
+        <v>5.7297936623163164</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>13.907931487753032</v>
+        <v>7.9924926524215056</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8263363990700903</v>
+        <v>11.714257011725813</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0907622648596096</v>
+        <v>12.611460382677045</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6506219294779823</v>
+        <v>14.502554394740873</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63495580401088159</v>
+        <v>-7.0533401470093793E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8937844056158326</v>
+        <v>-1.0951895307784487</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.292149678370912</v>
+        <v>9.9282024563644597</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9782610000510576</v>
+        <v>3.185903294187149</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.50205874994689</v>
+        <v>1.060100487693485</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.25933477269964</v>
+        <v>3.0706619178932719</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.85126827724044</v>
+        <v>4.8226023796795303</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.958323178305715</v>
+        <v>-1.5937953716788789</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5364967568006556</v>
+        <v>10.769752046053343</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7127531847640438</v>
+        <v>-0.53572239126294541</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5043284771451919</v>
+        <v>-9.771011341558733E-2</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6653568692671676E-2</v>
+        <v>6.0150384322409707</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7468393623727412</v>
+        <v>-3.6138015300178772</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8539474525702708</v>
+        <v>14.300297241457166</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0211617409747054</v>
+        <v>9.6243390596582667</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.589234366974793</v>
+        <v>0.21904149638253934</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0730176831841018</v>
+        <v>11.421573900261908</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.294435120748261</v>
+        <v>-1.5734426520582212</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.689784756760579</v>
+        <v>11.855230426306306</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7244094758147668</v>
+        <v>13.300207195151927</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.440029615717009</v>
+        <v>13.431848588053622</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5084338921618823</v>
+        <v>4.8222928235480431</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>14.11733699013168</v>
+        <v>14.526876061783337</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5251526582245774E-2</v>
+        <v>4.9944204546664928</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8683098249437924</v>
+        <v>10.34363430304326</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8868187890372496</v>
+        <v>1.9606189598471673</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5935801349616563</v>
+        <v>-2.5727144842677863</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12230563996360022</v>
+        <v>1.6954955859402432</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9167564924570297</v>
+        <v>-3.9736410595100513</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3177722919259196</v>
+        <v>-1.2422347037613668</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.163229819838897</v>
+        <v>8.8626571719252123</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.403481777459678</v>
+        <v>9.02829921894417</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53493569121403794</v>
+        <v>11.727269909603216</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5009050384007634</v>
+        <v>14.370775919944204</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.648530253347339</v>
+        <v>-4.3497587542458138</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9210929250340776</v>
+        <v>5.1055617046288955</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3139960511088926</v>
+        <v>4.1078866608569307</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9859149223760566</v>
+        <v>3.2714059994354336</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.576309420030678</v>
+        <v>5.1913760169272933</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0152482796230995</v>
+        <v>4.3049369366558103</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>13.18797353833957</v>
+        <v>4.618993830453741</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0060290033697381</v>
+        <v>9.6082395838387757</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7304982377086464</v>
+        <v>3.047495491088279</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.71328731494014</v>
+        <v>-2.6082622838387182</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>14.468875300946646</v>
+        <v>-1.6017739271854281</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0676210841831928</v>
+        <v>7.0521343666173131</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3868047316039487</v>
+        <v>-2.2539152399794715</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.619603727824618E-2</v>
+        <v>14.874925431635837</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14805533148689154</v>
+        <v>11.320169696898603</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>14.507424319790868</v>
+        <v>-0.16084240129108629</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7886119285256221</v>
+        <v>10.548321273943449</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5422117358959531</v>
+        <v>13.715902186707723</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3533139187546626</v>
+        <v>8.6596574316307731</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1629064484271652</v>
+        <v>1.4956181435383797E-2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9530467277416115</v>
+        <v>14.304064656327135</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8383315281931254</v>
+        <v>1.3307671356549378</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>13.955295722122468</v>
+        <v>10.345325027445718</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.58747593062963</v>
+        <v>-0.32873508458006029</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2452365848840188</v>
+        <v>2.3853573813300404</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6787948343447479</v>
+        <v>9.8409958336133698</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.062228868588293</v>
+        <v>-4.4868561305349726</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97610649005316574</v>
+        <v>-1.990544552243263</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4320152031713782</v>
+        <v>7.2650916122504317</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.095777541503569</v>
+        <v>7.2121315628969498</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72992480901211465</v>
+        <v>0.70075480263818601</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9611711208320095</v>
+        <v>6.2910170108206316</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.82067047451768</v>
+        <v>11.468999343249088</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8618492224231469</v>
+        <v>2.9789867806804242</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5326165887174952</v>
+        <v>5.650483574508149</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85272869462432954</v>
+        <v>-3.8563290559565355</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1194114292084976</v>
+        <v>9.9861728294839516</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>13.841326805499129</v>
+        <v>14.72772941723542</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.617690747718072</v>
+        <v>4.150829191679966</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>14.195775157528946</v>
+        <v>10.609676320798659</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.452079968275967</v>
+        <v>10.284410895019771</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.203181761969617</v>
+        <v>0.67564529099405313</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9260709824115434</v>
+        <v>3.3618390087441838</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>12.656357267890872</v>
+        <v>-1.3752708061993091</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0544214639022216</v>
+        <v>-4.3584050224215476</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9779020182857909</v>
+        <v>5.363935707888805</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.865607412742065</v>
+        <v>8.5825342120484134</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.261137427902133</v>
+        <v>13.454109066122761</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3432197197588267</v>
+        <v>11.652314165971625</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.743605569241343</v>
+        <v>-3.7488910514556451</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.759196180371289</v>
+        <v>4.0223215456757799</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.392688885903592</v>
+        <v>0.33524824793208552</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.984341320899039</v>
+        <v>5.0683995536417434</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3282771913836626</v>
+        <v>-0.54922537612952027</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.55859460350504</v>
+        <v>6.2558638196977796</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7427503717885813</v>
+        <v>-2.7824582761101491</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0181603296239654</v>
+        <v>-3.6137894029428907</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>11.037894857044485</v>
+        <v>12.226589039727727</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1882988223116282</v>
+        <v>-0.10792809629998246</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7612696454893477</v>
+        <v>4.8943576351904774</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.70524636136808816</v>
+        <v>1.5422564294041452</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6225622587597712</v>
+        <v>6.1675287805697021</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.888594976060602</v>
+        <v>13.044853290131876</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3967173966436692</v>
+        <v>4.7887204951439273</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.501029679098341</v>
+        <v>5.5999594146687564</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40378542652961258</v>
+        <v>-0.23779728631941843</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4226338722160889</v>
+        <v>2.4961744366722494</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55218981816178747</v>
+        <v>13.202627458852202</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6281537057191429</v>
+        <v>7.8873146891103687</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2388228019250658</v>
+        <v>5.5315061623148409</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5513265596777157</v>
+        <v>2.2452374294698068</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.385254390929227</v>
+        <v>9.567414356506287</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2334546847595078</v>
+        <v>-2.2200973855321915</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.871765916606538</v>
+        <v>-3.3667267244271759</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.350682768129877</v>
+        <v>-1.9989567425237587</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8649167611581894</v>
+        <v>13.700458808676341</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.784852050428604</v>
+        <v>-0.22747390188142536</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3102401433921025</v>
+        <v>-3.6586122683905975</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7933200971286247</v>
+        <v>9.8223992837112135</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54724274116585647</v>
+        <v>12.618006279428819</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4083793458066141</v>
+        <v>7.3715614929155002</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8929633993074741</v>
+        <v>4.8766847606140402</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7937190772573679</v>
+        <v>-4.2969681960176542</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3410994403706109</v>
+        <v>5.6809979293562733</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4587435874019214</v>
+        <v>10.55788294081129</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14486828337142477</v>
+        <v>1.7385709445940218</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0992967880500215</v>
+        <v>8.6707396871256819</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5328173479428884</v>
+        <v>7.0124547642414097</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9751189127250672</v>
+        <v>13.543807124184987</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.814321152007622</v>
+        <v>-1.8162572525297782</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9144770400509827</v>
+        <v>1.3921568228871468</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.340937197850781</v>
+        <v>-0.67316818074800722</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.237766836553178</v>
+        <v>-4.0932397043642421</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0158395174135073</v>
+        <v>-4.646057061261768</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.290298817912351</v>
+        <v>13.750019301475707</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3123772063540304</v>
+        <v>0.86640774148271582</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81432181036638518</v>
+        <v>5.9808767231536937</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4017081097955626</v>
+        <v>12.597684833268936</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.431757851382162</v>
+        <v>2.8726949915113664</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4782448458205426</v>
+        <v>-2.391532598579853</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1321208426795026</v>
+        <v>-1.7632666984677225</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5914957707296811</v>
+        <v>-2.6421973235306973</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19185296864508317</v>
+        <v>13.99917722082936</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9506794707425961</v>
+        <v>-1.9349940139366484</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.082761098105065</v>
+        <v>14.538003990897902</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5236549987921757</v>
+        <v>14.321721088686935</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2568133859229977</v>
+        <v>6.0333429580911169</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8465442238907848</v>
+        <v>-2.973531051852969</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.477960939882518</v>
+        <v>-3.2630131391304817</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17416548712390956</v>
+        <v>2.8835282154753177</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0167670183730255</v>
+        <v>1.881816985681823</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9791868762027085</v>
+        <v>-3.5749681896364649</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5027336761970549</v>
+        <v>12.981876301353381</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19591966635495162</v>
+        <v>-4.3647524279264527</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55115266258520368</v>
+        <v>9.9632097696308506</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4448770394269062</v>
+        <v>10.269020345036337</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4410807872346565</v>
+        <v>11.507976689432574</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4338768731130056</v>
+        <v>13.517683132249211</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.86490690622847</v>
+        <v>11.754383419088704</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9695055853955887</v>
+        <v>0.21222612594358647</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.0469607130151</v>
+        <v>8.1366777310361371</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.995761933796235</v>
+        <v>7.6776891707318811</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7181321829014458</v>
+        <v>13.232088818494169</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.270086051132596</v>
+        <v>-3.5967057502831867</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A72" sqref="A72:E73"/>
     </sheetView>
   </sheetViews>
@@ -8672,8 +8672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10395,8 +10395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10733,8 +10733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10785,7 +10785,7 @@
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'6x6'!A12-G3</f>
-        <v>-23.358402290411277</v>
+        <v>350.58822488309869</v>
       </c>
       <c r="B3">
         <f>'6x6'!B12</f>
@@ -10808,94 +10808,95 @@
         <v>153.45347410471106</v>
       </c>
       <c r="G3">
-        <v>375.10342965500502</v>
+        <f>'6x6'!C23</f>
+        <v>1.1568024814950499</v>
       </c>
       <c r="H3">
         <f>A3</f>
-        <v>-23.358402290411277</v>
+        <v>350.58822488309869</v>
       </c>
       <c r="I3">
         <f>SQRT(SUMPRODUCT(H3:H8,H3:H8))</f>
-        <v>355.09775570755892</v>
+        <v>498.45852844310599</v>
       </c>
       <c r="J3">
         <f>H3-I3</f>
-        <v>-378.45615799797019</v>
+        <v>-147.8703035600073</v>
       </c>
       <c r="K3">
         <f>SQRT(SUMPRODUCT(J3:J8,J3:J8))</f>
-        <v>518.43790821810967</v>
+        <v>383.94586574921368</v>
       </c>
       <c r="L3">
         <f>J3/K$3</f>
-        <v>-0.72999322001498324</v>
+        <v>-0.38513320952541119</v>
       </c>
       <c r="N3">
         <f t="array" ref="N3:S8">MMULT(L3:L8,TRANSPOSE(L3:L8))</f>
-        <v>0.53289010126784375</v>
+        <v>0.14832758907934429</v>
       </c>
       <c r="O3">
-        <v>-0.23507363378727611</v>
+        <v>-0.16746452316626392</v>
       </c>
       <c r="P3">
-        <v>-0.14973994721828948</v>
+        <v>-0.10667350674701519</v>
       </c>
       <c r="Q3">
-        <v>-0.31253396566303299</v>
+        <v>-0.22264662646251338</v>
       </c>
       <c r="R3">
-        <v>-0.16392657075513883</v>
+        <v>-0.11677994066587678</v>
       </c>
       <c r="S3">
-        <v>-0.21607215427050996</v>
+        <v>-0.15392802545079359</v>
       </c>
       <c r="U3">
         <f>1-2*N3</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:Z8" si="0">-2*O3</f>
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
       <c r="AB3">
         <f>U3</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AG8" si="1">V3</f>
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="AD3">
         <f t="shared" si="1"/>
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="AE3">
         <f t="shared" si="1"/>
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="AF3">
         <f t="shared" si="1"/>
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="AG3">
         <f t="shared" si="1"/>
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -10905,7 +10906,7 @@
       </c>
       <c r="B4">
         <f>'6x6'!B13-G3</f>
-        <v>-104.21587678160097</v>
+        <v>269.730750391909</v>
       </c>
       <c r="C4">
         <f>'6x6'!C13</f>
@@ -10937,73 +10938,73 @@
       </c>
       <c r="L4">
         <f>J4/K$3</f>
-        <v>0.32202166724569192</v>
+        <v>0.43482233945139592</v>
       </c>
       <c r="N4">
-        <v>-0.23507363378727611</v>
+        <v>-0.16746452316626392</v>
       </c>
       <c r="O4">
-        <v>0.10369795417569513</v>
+        <v>0.18907046688598497</v>
       </c>
       <c r="P4">
-        <v>6.6054733296736334E-2</v>
+        <v>0.12043631297955099</v>
       </c>
       <c r="Q4">
-        <v>0.137868004707841</v>
+        <v>0.25137205671951662</v>
       </c>
       <c r="R4">
-        <v>7.2312873836492902E-2</v>
+        <v>0.13184665914400032</v>
       </c>
       <c r="S4">
-        <v>9.5315837813027673E-2</v>
+        <v>0.17378751683378771</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:V8" si="3">-2*N4</f>
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="V4">
         <f>1-2*O4</f>
-        <v>0.79260409164860968</v>
+        <v>0.62185906622803011</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>-0.13210946659347267</v>
+        <v>-0.24087262595910197</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>-0.27573600941568199</v>
+        <v>-0.50274411343903325</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>-0.1446257476729858</v>
+        <v>-0.26369331828800063</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>-0.19063167562605535</v>
+        <v>-0.34757503366757542</v>
       </c>
       <c r="AB4">
         <f t="shared" ref="AB4:AB8" si="4">U4</f>
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="AC4">
         <f t="shared" si="1"/>
-        <v>0.79260409164860968</v>
+        <v>0.62185906622803011</v>
       </c>
       <c r="AD4">
         <f t="shared" si="1"/>
-        <v>-0.13210946659347267</v>
+        <v>-0.24087262595910197</v>
       </c>
       <c r="AE4">
         <f t="shared" si="1"/>
-        <v>-0.27573600941568199</v>
+        <v>-0.50274411343903325</v>
       </c>
       <c r="AF4">
         <f t="shared" si="1"/>
-        <v>-0.1446257476729858</v>
+        <v>-0.26369331828800063</v>
       </c>
       <c r="AG4">
         <f t="shared" si="1"/>
-        <v>-0.19063167562605535</v>
+        <v>-0.34757503366757542</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -11017,7 +11018,7 @@
       </c>
       <c r="C5">
         <f>'6x6'!C14-G3</f>
-        <v>179.58431960106043</v>
+        <v>553.53094677457034</v>
       </c>
       <c r="D5">
         <f>'6x6'!D14</f>
@@ -11045,73 +11046,73 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L8" si="6">J5/K$3</f>
-        <v>0.20512512049799042</v>
+        <v>0.27697820937972589</v>
       </c>
       <c r="N5">
-        <v>-0.14973994721828948</v>
+        <v>-0.10667350674701519</v>
       </c>
       <c r="O5">
-        <v>6.6054733296736334E-2</v>
+        <v>0.12043631297955099</v>
       </c>
       <c r="P5">
-        <v>4.2076315059315091E-2</v>
+        <v>7.6716928471199278E-2</v>
       </c>
       <c r="Q5">
-        <v>8.782077094500769E-2</v>
+        <v>0.16012190690596564</v>
       </c>
       <c r="R5">
-        <v>4.6062698470377625E-2</v>
+        <v>8.3985223961765415E-2</v>
       </c>
       <c r="S5">
-        <v>6.0715394973242381E-2</v>
+        <v>0.11070120106042072</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="V5">
         <f t="shared" si="3"/>
-        <v>-0.13210946659347267</v>
+        <v>-0.24087262595910197</v>
       </c>
       <c r="W5">
         <f>1-2*P5</f>
-        <v>0.91584736988136983</v>
+        <v>0.84656614305760147</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>-0.17564154189001538</v>
+        <v>-0.32024381381193129</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>-9.212539694075525E-2</v>
+        <v>-0.16797044792353083</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>-0.12143078994648476</v>
+        <v>-0.22140240212084145</v>
       </c>
       <c r="AB5">
         <f t="shared" si="4"/>
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="AC5">
         <f t="shared" si="1"/>
-        <v>-0.13210946659347267</v>
+        <v>-0.24087262595910197</v>
       </c>
       <c r="AD5">
         <f t="shared" si="1"/>
-        <v>0.91584736988136983</v>
+        <v>0.84656614305760147</v>
       </c>
       <c r="AE5">
         <f t="shared" si="1"/>
-        <v>-0.17564154189001538</v>
+        <v>-0.32024381381193129</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
-        <v>-9.212539694075525E-2</v>
+        <v>-0.16797044792353083</v>
       </c>
       <c r="AG5">
         <f t="shared" si="1"/>
-        <v>-0.12143078994648476</v>
+        <v>-0.22140240212084145</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -11129,7 +11130,7 @@
       </c>
       <c r="D6">
         <f>'6x6'!D15-G3</f>
-        <v>85.551101720657527</v>
+        <v>459.49772889416749</v>
       </c>
       <c r="E6">
         <f>'6x6'!E15</f>
@@ -11153,73 +11154,73 @@
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>0.42813269643328766</v>
+        <v>0.57810290298485179</v>
       </c>
       <c r="N6">
-        <v>-0.31253396566303299</v>
+        <v>-0.22264662646251338</v>
       </c>
       <c r="O6">
-        <v>0.137868004707841</v>
+        <v>0.25137205671951662</v>
       </c>
       <c r="P6">
-        <v>8.782077094500769E-2</v>
+        <v>0.16012190690596564</v>
       </c>
       <c r="Q6">
-        <v>0.18329760575523765</v>
+        <v>0.33420296643951297</v>
       </c>
       <c r="R6">
-        <v>9.61410638211396E-2</v>
+        <v>0.175292135395267</v>
       </c>
       <c r="S6">
-        <v>0.12672385372303049</v>
+        <v>0.23105314255679266</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>-0.27573600941568199</v>
+        <v>-0.50274411343903325</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>-0.17564154189001538</v>
+        <v>-0.32024381381193129</v>
       </c>
       <c r="X6">
         <f>1-2*Q6</f>
-        <v>0.63340478848952464</v>
+        <v>0.33159406712097406</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>-0.1922821276422792</v>
+        <v>-0.350584270790534</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>-0.25344770744606099</v>
+        <v>-0.46210628511358531</v>
       </c>
       <c r="AB6">
         <f t="shared" si="4"/>
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="AC6">
         <f t="shared" si="1"/>
-        <v>-0.27573600941568199</v>
+        <v>-0.50274411343903325</v>
       </c>
       <c r="AD6">
         <f t="shared" si="1"/>
-        <v>-0.17564154189001538</v>
+        <v>-0.32024381381193129</v>
       </c>
       <c r="AE6">
         <f t="shared" si="1"/>
-        <v>0.63340478848952464</v>
+        <v>0.33159406712097406</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
-        <v>-0.1922821276422792</v>
+        <v>-0.350584270790534</v>
       </c>
       <c r="AG6">
         <f t="shared" si="1"/>
-        <v>-0.25344770744606099</v>
+        <v>-0.46210628511358531</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -11241,7 +11242,7 @@
       </c>
       <c r="E7">
         <f>'6x6'!E16-G3</f>
-        <v>-221.20845945861961</v>
+        <v>152.73816771489035</v>
       </c>
       <c r="F7">
         <f>'6x6'!F16</f>
@@ -11261,73 +11262,73 @@
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>0.22455903186576748</v>
+        <v>0.30321960759961836</v>
       </c>
       <c r="N7">
-        <v>-0.16392657075513883</v>
+        <v>-0.11677994066587678</v>
       </c>
       <c r="O7">
-        <v>7.2312873836492902E-2</v>
+        <v>0.13184665914400032</v>
       </c>
       <c r="P7">
-        <v>4.6062698470377625E-2</v>
+        <v>8.3985223961765415E-2</v>
       </c>
       <c r="Q7">
-        <v>9.61410638211396E-2</v>
+        <v>0.175292135395267</v>
       </c>
       <c r="R7">
-        <v>5.0426758792490776E-2</v>
+        <v>9.1942130432866531E-2</v>
       </c>
       <c r="S7">
-        <v>6.6467677295880323E-2</v>
+        <v>0.12118922575720943</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="V7">
         <f t="shared" si="3"/>
-        <v>-0.1446257476729858</v>
+        <v>-0.26369331828800063</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>-9.212539694075525E-2</v>
+        <v>-0.16797044792353083</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>-0.1922821276422792</v>
+        <v>-0.350584270790534</v>
       </c>
       <c r="Y7">
         <f>1-2*R7</f>
-        <v>0.89914648241501849</v>
+        <v>0.81611573913426694</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>-0.13293535459176065</v>
+        <v>-0.24237845151441886</v>
       </c>
       <c r="AB7">
         <f t="shared" si="4"/>
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="AC7">
         <f t="shared" si="1"/>
-        <v>-0.1446257476729858</v>
+        <v>-0.26369331828800063</v>
       </c>
       <c r="AD7">
         <f t="shared" si="1"/>
-        <v>-9.212539694075525E-2</v>
+        <v>-0.16797044792353083</v>
       </c>
       <c r="AE7">
         <f t="shared" si="1"/>
-        <v>-0.1922821276422792</v>
+        <v>-0.350584270790534</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
-        <v>0.89914648241501849</v>
+        <v>0.81611573913426694</v>
       </c>
       <c r="AG7">
         <f t="shared" si="1"/>
-        <v>-0.13293535459176065</v>
+        <v>-0.24237845151441886</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -11353,7 +11354,7 @@
       </c>
       <c r="F8">
         <f>'6x6'!F17-G3</f>
-        <v>-124.42185931170877</v>
+        <v>249.52476786180119</v>
       </c>
       <c r="G8" s="5">
         <f>'6x6'!A26</f>
@@ -11369,73 +11370,73 @@
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>0.29599200149567834</v>
+        <v>0.39967476614253744</v>
       </c>
       <c r="N8">
-        <v>-0.21607215427050996</v>
+        <v>-0.15392802545079359</v>
       </c>
       <c r="O8">
-        <v>9.5315837813027673E-2</v>
+        <v>0.17378751683378771</v>
       </c>
       <c r="P8">
-        <v>6.0715394973242381E-2</v>
+        <v>0.11070120106042072</v>
       </c>
       <c r="Q8">
-        <v>0.12672385372303049</v>
+        <v>0.23105314255679266</v>
       </c>
       <c r="R8">
-        <v>6.6467677295880323E-2</v>
+        <v>0.12118922575720943</v>
       </c>
       <c r="S8">
-        <v>8.761126494941765E-2</v>
+        <v>0.159739918691092</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
-        <v>-0.19063167562605535</v>
+        <v>-0.34757503366757542</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>-0.12143078994648476</v>
+        <v>-0.22140240212084145</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>-0.25344770744606099</v>
+        <v>-0.46210628511358531</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>-0.13293535459176065</v>
+        <v>-0.24237845151441886</v>
       </c>
       <c r="Z8">
         <f>1-2*S8</f>
-        <v>0.82477747010116476</v>
+        <v>0.680520162617816</v>
       </c>
       <c r="AB8">
         <f t="shared" si="4"/>
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
       <c r="AC8">
         <f t="shared" si="1"/>
-        <v>-0.19063167562605535</v>
+        <v>-0.34757503366757542</v>
       </c>
       <c r="AD8">
         <f t="shared" si="1"/>
-        <v>-0.12143078994648476</v>
+        <v>-0.22140240212084145</v>
       </c>
       <c r="AE8">
         <f t="shared" si="1"/>
-        <v>-0.25344770744606099</v>
+        <v>-0.46210628511358531</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
-        <v>-0.13293535459176065</v>
+        <v>-0.24237845151441886</v>
       </c>
       <c r="AG8">
         <f t="shared" si="1"/>
-        <v>0.82477747010116476</v>
+        <v>0.680520162617816</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -11454,22 +11455,22 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="array" ref="A12:F17">MMULT(U3:Z8,A3:F8)</f>
-        <v>355.09775570755892</v>
+        <v>498.45852844310599</v>
       </c>
       <c r="B12">
-        <v>258.2754563745014</v>
+        <v>434.48448517315728</v>
       </c>
       <c r="C12">
-        <v>448.21625056440041</v>
+        <v>478.86636243027044</v>
       </c>
       <c r="D12">
-        <v>317.77031700485981</v>
+        <v>559.40878015690305</v>
       </c>
       <c r="E12">
-        <v>80.320654525402333</v>
+        <v>231.89763335904357</v>
       </c>
       <c r="F12">
-        <v>152.46034566910964</v>
+        <v>338.85496000658122</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -11519,22 +11520,22 @@
       </c>
       <c r="AB12">
         <f t="array" ref="AB12:AG17">MMULT(U12:Z17,AB3:AG8)</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="AC12">
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="AD12">
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="AE12">
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="AF12">
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="AG12">
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -11542,57 +11543,57 @@
         <v>1.4210854715202004E-14</v>
       </c>
       <c r="B13">
-        <v>-144.50302166824872</v>
+        <v>-32.322495926504104</v>
       </c>
       <c r="C13">
-        <v>66.295259871189003</v>
+        <v>-203.47877402424899</v>
       </c>
       <c r="D13">
-        <v>182.23238630948973</v>
+        <v>-156.48844795665741</v>
       </c>
       <c r="E13">
-        <v>191.34222459444024</v>
+        <v>45.04134293902041</v>
       </c>
       <c r="F13">
-        <v>128.63231190073901</v>
+        <v>-81.127407825490849</v>
       </c>
       <c r="H13">
         <f>B13</f>
-        <v>-144.50302166824872</v>
+        <v>-32.322495926504104</v>
       </c>
       <c r="I13">
         <f>SQRT(SUMPRODUCT(H13:H17,H13:H17))</f>
-        <v>341.70909010895343</v>
+        <v>237.88290082724905</v>
       </c>
       <c r="J13">
         <f>H13-I13</f>
-        <v>-486.21211177720215</v>
+        <v>-270.20539675375312</v>
       </c>
       <c r="K13">
         <f>SQRT(SUMPRODUCT(J13:J17,J13:J17))</f>
-        <v>576.44270888847325</v>
+        <v>358.54495840538755</v>
       </c>
       <c r="L13">
         <f>J13/K$13</f>
-        <v>-0.84346996549707709</v>
+        <v>-0.75361650030021166</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7114415826956404</v>
+        <v>0.56793782952473892</v>
       </c>
       <c r="P13">
-        <v>-0.28012482048146609</v>
+        <v>-5.1915392251809925E-2</v>
       </c>
       <c r="Q13">
-        <v>-0.25011727359275621</v>
+        <v>0.37221530875094022</v>
       </c>
       <c r="R13">
-        <v>-0.21556915105750327</v>
+        <v>7.4020570133623259E-2</v>
       </c>
       <c r="S13">
-        <v>-0.13339352540608024</v>
+        <v>0.31411138549142686</v>
       </c>
       <c r="U13">
         <f t="shared" ref="U13:Y17" si="8">-2*N13</f>
@@ -11600,91 +11601,91 @@
       </c>
       <c r="V13">
         <f>1-2*O13</f>
-        <v>-0.42288316539128079</v>
+        <v>-0.13587565904947785</v>
       </c>
       <c r="W13">
         <f t="shared" si="7"/>
-        <v>0.56024964096293217</v>
+        <v>0.10383078450361985</v>
       </c>
       <c r="X13">
         <f t="shared" si="7"/>
-        <v>0.50023454718551241</v>
+        <v>-0.74443061750188044</v>
       </c>
       <c r="Y13">
         <f t="shared" si="7"/>
-        <v>0.43113830211500653</v>
+        <v>-0.14804114026724652</v>
       </c>
       <c r="Z13">
         <f t="shared" si="7"/>
-        <v>0.26678705081216048</v>
+        <v>-0.62822277098285373</v>
       </c>
       <c r="AB13">
-        <v>0.53828726458353282</v>
+        <v>-0.58282530088132367</v>
       </c>
       <c r="AC13">
-        <v>-0.66033764804353645</v>
+        <v>0.52214461692976033</v>
       </c>
       <c r="AD13">
-        <v>0.40899311284344558</v>
+        <v>0.52298422083863372</v>
       </c>
       <c r="AE13">
-        <v>0.18453520680380819</v>
+        <v>0.1304173313096644</v>
       </c>
       <c r="AF13">
-        <v>0.26555146694129173</v>
+        <v>0.3108236230444828</v>
       </c>
       <c r="AG13">
-        <v>4.8526496528596891E-2</v>
+        <v>-2.3391611086922837E-2</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-7.1054273576010019E-15</v>
+        <v>3.5527136788005009E-14</v>
       </c>
       <c r="B14">
-        <v>191.44239504731144</v>
+        <v>24.699568212890068</v>
       </c>
       <c r="C14">
-        <v>83.519789522461508</v>
+        <v>285.62260356581317</v>
       </c>
       <c r="D14">
-        <v>281.53209746517484</v>
+        <v>65.769746632390039</v>
       </c>
       <c r="E14">
-        <v>38.538619711311668</v>
+        <v>-54.653823627085188</v>
       </c>
       <c r="F14">
-        <v>225.30610050770824</v>
+        <v>91.690905752383202</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H17" si="9">B14</f>
-        <v>191.44239504731144</v>
+        <v>24.699568212890068</v>
       </c>
       <c r="J14">
         <f t="shared" ref="J14:J17" si="10">H14</f>
-        <v>191.44239504731144</v>
+        <v>24.699568212890068</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:L17" si="11">J14/K$13</f>
-        <v>0.33211001214060043</v>
+        <v>6.8888343383045406E-2</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>-0.28012482048146609</v>
+        <v>-5.1915392251809925E-2</v>
       </c>
       <c r="P14">
-        <v>0.11029706016402976</v>
+        <v>4.7456038540603755E-3</v>
       </c>
       <c r="Q14">
-        <v>9.8481812236800984E-2</v>
+        <v>-3.4024329339188482E-2</v>
       </c>
       <c r="R14">
-        <v>8.4878746491767562E-2</v>
+        <v>-6.7662457639164324E-3</v>
       </c>
       <c r="S14">
-        <v>5.2522706384670104E-2</v>
+        <v>-2.8713029738119553E-2</v>
       </c>
       <c r="U14">
         <f t="shared" si="8"/>
@@ -11692,91 +11693,91 @@
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>0.56024964096293217</v>
+        <v>0.10383078450361985</v>
       </c>
       <c r="W14">
         <f>1-2*P14</f>
-        <v>0.77940587967194053</v>
+        <v>0.99050879229187927</v>
       </c>
       <c r="X14">
         <f t="shared" si="7"/>
-        <v>-0.19696362447360197</v>
+        <v>6.8048658678376964E-2</v>
       </c>
       <c r="Y14">
         <f t="shared" si="7"/>
-        <v>-0.16975749298353512</v>
+        <v>1.3532491527832865E-2</v>
       </c>
       <c r="Z14">
         <f t="shared" si="7"/>
-        <v>-0.10504541276934021</v>
+        <v>5.7426059476239105E-2</v>
       </c>
       <c r="AB14">
-        <v>0.2726502784933762</v>
+        <v>0.29723925389344452</v>
       </c>
       <c r="AC14">
-        <v>0.43997551395989348</v>
+        <v>-0.23175769386728332</v>
       </c>
       <c r="AD14">
-        <v>0.70279226231722525</v>
+        <v>0.77674172608062353</v>
       </c>
       <c r="AE14">
-        <v>-0.35686990266103508</v>
+        <v>-0.37812131915500424</v>
       </c>
       <c r="AF14">
-        <v>-0.25362961795361055</v>
+        <v>-0.22048723904756129</v>
       </c>
       <c r="AG14">
-        <v>-0.2155975376753114</v>
+        <v>-0.25103612023201677</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-3.5527136788005009E-14</v>
+        <v>-1.4210854715202004E-14</v>
       </c>
       <c r="B15">
-        <v>170.93469195982584</v>
+        <v>-177.08731475596761</v>
       </c>
       <c r="C15">
-        <v>107.95054369341852</v>
+        <v>-250.7181308315694</v>
       </c>
       <c r="D15">
-        <v>29.35957249552834</v>
+        <v>-47.028292891224183</v>
       </c>
       <c r="E15">
-        <v>106.79522001956468</v>
+        <v>-87.714023688911809</v>
       </c>
       <c r="F15">
-        <v>122.99803350966454</v>
+        <v>-155.88069902283684</v>
       </c>
       <c r="H15">
         <f t="shared" si="9"/>
-        <v>170.93469195982584</v>
+        <v>-177.08731475596761</v>
       </c>
       <c r="J15">
         <f t="shared" si="10"/>
-        <v>170.93469195982584</v>
+        <v>-177.08731475596761</v>
       </c>
       <c r="L15">
         <f t="shared" si="11"/>
-        <v>0.29653370460601536</v>
+        <v>-0.49390546597993018</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>-0.25011727359275621</v>
+        <v>0.37221530875094022</v>
       </c>
       <c r="P15">
-        <v>9.8481812236800984E-2</v>
+        <v>-3.4024329339188482E-2</v>
       </c>
       <c r="Q15">
-        <v>8.7932237967367571E-2</v>
+        <v>0.24394260932485196</v>
       </c>
       <c r="R15">
-        <v>7.5786360601688418E-2</v>
+        <v>4.8511629150083016E-2</v>
       </c>
       <c r="S15">
-        <v>4.6896366055915809E-2</v>
+        <v>0.20586243820158179</v>
       </c>
       <c r="U15">
         <f t="shared" si="8"/>
@@ -11784,91 +11785,91 @@
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>0.50023454718551241</v>
+        <v>-0.74443061750188044</v>
       </c>
       <c r="W15">
         <f t="shared" si="8"/>
-        <v>-0.19696362447360197</v>
+        <v>6.8048658678376964E-2</v>
       </c>
       <c r="X15">
         <f>1-2*Q15</f>
-        <v>0.8241355240652648</v>
+        <v>0.51211478135029609</v>
       </c>
       <c r="Y15">
         <f t="shared" si="7"/>
-        <v>-0.15157272120337684</v>
+        <v>-9.7023258300166032E-2</v>
       </c>
       <c r="Z15">
         <f t="shared" si="7"/>
-        <v>-9.3792732111831617E-2</v>
+        <v>-0.41172487640316358</v>
       </c>
       <c r="AB15">
-        <v>0.60111235902183091</v>
+        <v>-0.15618493702329997</v>
       </c>
       <c r="AC15">
-        <v>0.23506605144218498</v>
+        <v>-0.56809500679921709</v>
       </c>
       <c r="AD15">
-        <v>-0.36587374815208429</v>
+        <v>0.18037297431479465</v>
       </c>
       <c r="AE15">
-        <v>0.47158998244761974</v>
+        <v>0.74655565339801933</v>
       </c>
       <c r="AF15">
-        <v>-0.33648568434256798</v>
+        <v>2.5942858736415816E-2</v>
       </c>
       <c r="AG15">
-        <v>-0.3375271194901262</v>
+        <v>-0.24964283144864854</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.4210854715202004E-14</v>
+        <v>2.1316282072803006E-14</v>
       </c>
       <c r="B16">
-        <v>147.32387692683798</v>
+        <v>-35.216455888546271</v>
       </c>
       <c r="C16">
-        <v>-76.770976388111947</v>
+        <v>-264.89557182988892</v>
       </c>
       <c r="D16">
-        <v>56.150508086098441</v>
+        <v>-180.05354385285906</v>
       </c>
       <c r="E16">
-        <v>-210.10367833834761</v>
+        <v>61.821291017387622</v>
       </c>
       <c r="F16">
-        <v>37.344839298397382</v>
+        <v>-108.92929184638217</v>
       </c>
       <c r="H16">
         <f t="shared" si="9"/>
-        <v>147.32387692683798</v>
+        <v>-35.216455888546271</v>
       </c>
       <c r="J16">
         <f t="shared" si="10"/>
-        <v>147.32387692683798</v>
+        <v>-35.216455888546271</v>
       </c>
       <c r="L16">
         <f t="shared" si="11"/>
-        <v>0.25557418743471583</v>
+        <v>-9.8220474344890701E-2</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>-0.21556915105750327</v>
+        <v>7.4020570133623259E-2</v>
       </c>
       <c r="P16">
-        <v>8.4878746491767562E-2</v>
+        <v>-6.7662457639164324E-3</v>
       </c>
       <c r="Q16">
-        <v>7.5786360601688418E-2</v>
+        <v>4.8511629150083016E-2</v>
       </c>
       <c r="R16">
-        <v>6.5318165282915258E-2</v>
+        <v>9.6472615805353323E-3</v>
       </c>
       <c r="S16">
-        <v>4.0418679098573329E-2</v>
+        <v>4.093881870660801E-2</v>
       </c>
       <c r="U16">
         <f t="shared" si="8"/>
@@ -11876,91 +11877,91 @@
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>0.43113830211500653</v>
+        <v>-0.14804114026724652</v>
       </c>
       <c r="W16">
         <f t="shared" si="8"/>
-        <v>-0.16975749298353512</v>
+        <v>1.3532491527832865E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="8"/>
-        <v>-0.15157272120337684</v>
+        <v>-9.7023258300166032E-2</v>
       </c>
       <c r="Y16">
         <f>1-2*R16</f>
-        <v>0.86936366943416954</v>
+        <v>0.98070547683892939</v>
       </c>
       <c r="Z16">
         <f t="shared" si="7"/>
-        <v>-8.0837358197146658E-2</v>
+        <v>-8.187763741321602E-2</v>
       </c>
       <c r="AB16">
-        <v>0.30720649719602378</v>
+        <v>0.11394696510775792</v>
       </c>
       <c r="AC16">
-        <v>0.2956204018066419</v>
+        <v>-0.27668931891327103</v>
       </c>
       <c r="AD16">
-        <v>-0.25608126699585609</v>
+        <v>-6.8415326991095704E-2</v>
       </c>
       <c r="AE16">
-        <v>-0.33174582747367798</v>
+        <v>-0.26806296530513196</v>
       </c>
       <c r="AF16">
-        <v>0.77486143064379187</v>
+        <v>0.89099377919094436</v>
       </c>
       <c r="AG16">
-        <v>-0.20540107123500365</v>
+        <v>-0.20012692235079593</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="B17">
-        <v>91.163560385874504</v>
+        <v>-149.4434551271338</v>
       </c>
       <c r="C17">
-        <v>86.407579876485357</v>
+        <v>-161.56007064608036</v>
       </c>
       <c r="D17">
-        <v>83.567238172788919</v>
+        <v>-227.7741027383766</v>
       </c>
       <c r="E17">
-        <v>51.6765838134273</v>
+        <v>-82.798500276894643</v>
       </c>
       <c r="F17">
-        <v>-124.01917327937836</v>
+        <v>57.123038570212387</v>
       </c>
       <c r="H17">
         <f t="shared" si="9"/>
-        <v>91.163560385874504</v>
+        <v>-149.4434551271338</v>
       </c>
       <c r="J17">
         <f t="shared" si="10"/>
-        <v>91.163560385874504</v>
+        <v>-149.4434551271338</v>
       </c>
       <c r="L17">
         <f t="shared" si="11"/>
-        <v>0.15814851845669245</v>
+        <v>-0.4168053451142551</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>-0.13339352540608024</v>
+        <v>0.31411138549142686</v>
       </c>
       <c r="P17">
-        <v>5.2522706384670104E-2</v>
+        <v>-2.8713029738119553E-2</v>
       </c>
       <c r="Q17">
-        <v>4.6896366055915809E-2</v>
+        <v>0.20586243820158179</v>
       </c>
       <c r="R17">
-        <v>4.0418679098573329E-2</v>
+        <v>4.093881870660801E-2</v>
       </c>
       <c r="S17">
-        <v>2.5010953890046792E-2</v>
+        <v>0.17372669571581328</v>
       </c>
       <c r="U17">
         <f t="shared" si="8"/>
@@ -11968,41 +11969,41 @@
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>0.26678705081216048</v>
+        <v>-0.62822277098285373</v>
       </c>
       <c r="W17">
         <f t="shared" si="8"/>
-        <v>-0.10504541276934021</v>
+        <v>5.7426059476239105E-2</v>
       </c>
       <c r="X17">
         <f t="shared" si="8"/>
-        <v>-9.3792732111831617E-2</v>
+        <v>-0.41172487640316358</v>
       </c>
       <c r="Y17">
         <f t="shared" si="8"/>
-        <v>-8.0837358197146658E-2</v>
+        <v>-8.187763741321602E-2</v>
       </c>
       <c r="Z17">
         <f>1-2*S17</f>
-        <v>0.94997809221990637</v>
+        <v>0.65254660856837343</v>
       </c>
       <c r="AB17">
-        <v>0.41936822875700169</v>
+        <v>-0.19972959414227021</v>
       </c>
       <c r="AC17">
-        <v>8.1791283027590367E-2</v>
+        <v>-0.40272445706274623</v>
       </c>
       <c r="AD17">
-        <v>-0.22288617635210767</v>
+        <v>0.20106660767470677</v>
       </c>
       <c r="AE17">
-        <v>-0.33974741450258283</v>
+        <v>-0.11192144390271525</v>
       </c>
       <c r="AF17">
-        <v>-0.20984256107149812</v>
+        <v>7.5371666630127732E-2</v>
       </c>
       <c r="AG17">
-        <v>0.77993590827889026</v>
+        <v>0.85981743553477341</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -12021,22 +12022,22 @@
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="array" ref="A21:F26">MMULT(U12:Z17,A12:F17)</f>
-        <v>355.09775570755892</v>
+        <v>498.45852844310599</v>
       </c>
       <c r="B21">
-        <v>258.2754563745014</v>
+        <v>434.48448517315728</v>
       </c>
       <c r="C21">
-        <v>448.21625056440041</v>
+        <v>478.86636243027044</v>
       </c>
       <c r="D21">
-        <v>317.77031700485981</v>
+        <v>559.40878015690305</v>
       </c>
       <c r="E21">
-        <v>80.320654525402333</v>
+        <v>231.89763335904357</v>
       </c>
       <c r="F21">
-        <v>152.46034566910964</v>
+        <v>338.85496000658122</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -12086,42 +12087,42 @@
       </c>
       <c r="AB21">
         <f t="array" ref="AB21:AG26">MMULT(U21:Z26,AB12:AG17)</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="AC21">
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="AD21">
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="AE21">
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="AF21">
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="AG21">
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-2.1635401761294607E-14</v>
+        <v>-8.6739551741050747E-15</v>
       </c>
       <c r="B22">
-        <v>341.70909010895332</v>
+        <v>237.88290082724905</v>
       </c>
       <c r="C22">
-        <v>62.710889082781726</v>
+        <v>384.65764224409912</v>
       </c>
       <c r="D22">
-        <v>141.85521235367372</v>
+        <v>232.84940642783152</v>
       </c>
       <c r="E22">
-        <v>-82.698598980253777</v>
+        <v>96.36604214084349</v>
       </c>
       <c r="F22">
-        <v>116.37316940993549</v>
+        <v>116.82596670747978</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -12169,62 +12170,62 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.53828726458353282</v>
+        <v>-0.58282530088132367</v>
       </c>
       <c r="AC22">
-        <v>-0.66033764804353645</v>
+        <v>0.52214461692976033</v>
       </c>
       <c r="AD22">
-        <v>0.40899311284344558</v>
+        <v>0.52298422083863372</v>
       </c>
       <c r="AE22">
-        <v>0.18453520680380819</v>
+        <v>0.1304173313096644</v>
       </c>
       <c r="AF22">
-        <v>0.26555146694129173</v>
+        <v>0.3108236230444828</v>
       </c>
       <c r="AG22">
-        <v>4.8526496528596891E-2</v>
+        <v>-2.3391611086922837E-2</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7.0087689512011992E-15</v>
+        <v>3.7619045127700705E-14</v>
       </c>
       <c r="B23">
-        <v>3.730349362740526E-14</v>
+        <v>-1.7763568394002505E-15</v>
       </c>
       <c r="C23">
-        <v>84.931108804414606</v>
+        <v>231.8608515555695</v>
       </c>
       <c r="D23">
-        <v>297.43030876042417</v>
+        <v>30.180239510170161</v>
       </c>
       <c r="E23">
-        <v>146.44015144015799</v>
+        <v>-59.345432026368158</v>
       </c>
       <c r="F23">
-        <v>230.13304649037252</v>
+        <v>73.595919730676471</v>
       </c>
       <c r="H23">
         <f>C23</f>
-        <v>84.931108804414606</v>
+        <v>231.8608515555695</v>
       </c>
       <c r="I23">
         <f>SQRT(SUMPRODUCT(H23:H26,H23:H26))</f>
-        <v>180.14253710079609</v>
+        <v>366.26941305446451</v>
       </c>
       <c r="J23">
         <f>H23-I23</f>
-        <v>-95.211428296381484</v>
+        <v>-134.40856149889501</v>
       </c>
       <c r="K23">
         <f>SQRT(SUMPRODUCT(J23:J26,J23:J26))</f>
-        <v>185.21138331269321</v>
+        <v>313.78255187213699</v>
       </c>
       <c r="L23">
         <f>J23/K$23</f>
-        <v>-0.51406898751809227</v>
+        <v>-0.42834937983952992</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -12233,16 +12234,16 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.26426692392787648</v>
+        <v>0.18348319120890988</v>
       </c>
       <c r="Q23">
-        <v>-0.30312296392881288</v>
+        <v>-0.18392872911222688</v>
       </c>
       <c r="R23">
-        <v>0.21006948555851679</v>
+        <v>0.25697269459584615</v>
       </c>
       <c r="S23">
-        <v>-0.241696497330363</v>
+        <v>-0.22350026083209729</v>
       </c>
       <c r="U23">
         <f t="shared" si="13"/>
@@ -12254,69 +12255,69 @@
       </c>
       <c r="W23">
         <f>1-2*P23</f>
-        <v>0.47146615214424703</v>
+        <v>0.63303361758218024</v>
       </c>
       <c r="X23">
         <f t="shared" si="12"/>
-        <v>0.60624592785762577</v>
+        <v>0.36785745822445376</v>
       </c>
       <c r="Y23">
         <f t="shared" si="12"/>
-        <v>-0.42013897111703358</v>
+        <v>-0.5139453891916923</v>
       </c>
       <c r="Z23">
         <f t="shared" si="12"/>
-        <v>0.48339299466072599</v>
+        <v>0.44700052166419457</v>
       </c>
       <c r="AB23">
-        <v>0.56661753983621177</v>
+        <v>-1.7133103869633667E-2</v>
       </c>
       <c r="AC23">
-        <v>0.26527708085235757</v>
+        <v>-0.3935032392823854</v>
       </c>
       <c r="AD23">
-        <v>0.10938139752690619</v>
+        <v>0.68309378902862838</v>
       </c>
       <c r="AE23">
-        <v>9.2795257156146005E-2</v>
+        <v>0.12300333975415477</v>
       </c>
       <c r="AF23">
-        <v>-0.7505567641940557</v>
+        <v>-0.5542635308024304</v>
       </c>
       <c r="AG23">
-        <v>0.15704116584942035</v>
+        <v>0.23644587044040477</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-2.2924882215764707E-14</v>
+        <v>-2.920911004498536E-14</v>
       </c>
       <c r="B24">
-        <v>4.9737991503207013E-14</v>
+        <v>1.4210854715202004E-14</v>
       </c>
       <c r="C24">
-        <v>109.21067955129888</v>
+        <v>134.73493531157789</v>
       </c>
       <c r="D24">
-        <v>43.554734699772965</v>
+        <v>208.13609684386506</v>
       </c>
       <c r="E24">
-        <v>203.13811775392281</v>
+        <v>-54.076822983436401</v>
       </c>
       <c r="F24">
-        <v>127.30790711132697</v>
+        <v>-26.145941819327319</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:H26" si="14">C24</f>
-        <v>109.21067955129888</v>
+        <v>134.73493531157789</v>
       </c>
       <c r="J24">
         <f>H24</f>
-        <v>109.21067955129888</v>
+        <v>134.73493531157789</v>
       </c>
       <c r="L24">
         <f t="shared" ref="L24:L26" si="15">J24/K$23</f>
-        <v>0.58965425125580972</v>
+        <v>0.42938950718483837</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -12325,16 +12326,16 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>-0.30312296392881288</v>
+        <v>-0.18392872911222688</v>
       </c>
       <c r="Q24">
-        <v>0.34769213602404958</v>
+        <v>0.18437534888043836</v>
       </c>
       <c r="R24">
-        <v>-0.24095669691481031</v>
+        <v>-0.25759668132076413</v>
       </c>
       <c r="S24">
-        <v>0.2772339328473325</v>
+        <v>0.22404296906027804</v>
       </c>
       <c r="U24">
         <f t="shared" si="13"/>
@@ -12346,69 +12347,69 @@
       </c>
       <c r="W24">
         <f t="shared" si="13"/>
-        <v>0.60624592785762577</v>
+        <v>0.36785745822445376</v>
       </c>
       <c r="X24">
         <f>1-2*Q24</f>
-        <v>0.30461572795190084</v>
+        <v>0.63124930223912323</v>
       </c>
       <c r="Y24">
         <f t="shared" si="12"/>
-        <v>0.48191339382962062</v>
+        <v>0.51519336264152826</v>
       </c>
       <c r="Z24">
         <f t="shared" si="12"/>
-        <v>-0.554467865694665</v>
+        <v>-0.44808593812055608</v>
       </c>
       <c r="AB24">
-        <v>0.26392211882137517</v>
+        <v>0.15895078658389583</v>
       </c>
       <c r="AC24">
-        <v>0.43545097305927016</v>
+        <v>-0.40595670730838573</v>
       </c>
       <c r="AD24">
-        <v>0.31478827904846413</v>
+        <v>0.27424830933850142</v>
       </c>
       <c r="AE24">
-        <v>-4.419093327722215E-2</v>
+        <v>0.24421415261708018</v>
       </c>
       <c r="AF24">
-        <v>0.23350630400857422</v>
+        <v>0.36052963339288258</v>
       </c>
       <c r="AG24">
-        <v>-0.7649561242559082</v>
+        <v>-0.73830853656705275</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.5072388908844598E-14</v>
+        <v>1.8333655124315322E-14</v>
       </c>
       <c r="B25">
-        <v>4.4408920985006262E-14</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>-75.684900191940514</v>
+        <v>-188.24247604128945</v>
       </c>
       <c r="D25">
-        <v>68.384925251843512</v>
+        <v>-129.31029616277695</v>
       </c>
       <c r="E25">
-        <v>-127.06840301853488</v>
+        <v>68.510550473893289</v>
       </c>
       <c r="F25">
-        <v>41.059399992786879</v>
+        <v>-83.129598849937949</v>
       </c>
       <c r="H25">
         <f t="shared" si="14"/>
-        <v>-75.684900191940514</v>
+        <v>-188.24247604128945</v>
       </c>
       <c r="J25">
         <f t="shared" ref="J25:J26" si="16">H25</f>
-        <v>-75.684900191940514</v>
+        <v>-188.24247604128945</v>
       </c>
       <c r="L25">
         <f t="shared" si="15"/>
-        <v>-0.40864065068917149</v>
+        <v>-0.59991377760862952</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -12417,16 +12418,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.21006948555851679</v>
+        <v>0.25697269459584615</v>
       </c>
       <c r="Q25">
-        <v>-0.24095669691481031</v>
+        <v>-0.25759668132076413</v>
       </c>
       <c r="R25">
-        <v>0.16698718139566948</v>
+        <v>0.3598965405646562</v>
       </c>
       <c r="S25">
-        <v>-0.19212793678766141</v>
+        <v>-0.31301757883372555</v>
       </c>
       <c r="U25">
         <f t="shared" si="13"/>
@@ -12438,69 +12439,69 @@
       </c>
       <c r="W25">
         <f t="shared" si="13"/>
-        <v>-0.42013897111703358</v>
+        <v>-0.5139453891916923</v>
       </c>
       <c r="X25">
         <f t="shared" si="13"/>
-        <v>0.48191339382962062</v>
+        <v>0.51519336264152826</v>
       </c>
       <c r="Y25">
         <f>1-2*R25</f>
-        <v>0.66602563720866104</v>
+        <v>0.2802069188706876</v>
       </c>
       <c r="Z25">
         <f t="shared" si="12"/>
-        <v>0.38425587357532281</v>
+        <v>0.6260351576674511</v>
       </c>
       <c r="AB25">
-        <v>0.54088519766854015</v>
+        <v>-0.32633920687650536</v>
       </c>
       <c r="AC25">
-        <v>0.15675016626859614</v>
+        <v>-0.50321790919089215</v>
       </c>
       <c r="AD25">
-        <v>-0.72779188911426518</v>
+        <v>-0.19957155208745075</v>
       </c>
       <c r="AE25">
-        <v>2.5699316974908654E-2</v>
+        <v>0.43377436965646743</v>
       </c>
       <c r="AF25">
-        <v>0.37984707009036156</v>
+        <v>0.42353192331554368</v>
       </c>
       <c r="AG25">
-        <v>9.0814662407081581E-2</v>
+        <v>0.48260352224568032</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6.7210838392279442E-15</v>
+        <v>1.5764726628160452E-14</v>
       </c>
       <c r="B26">
-        <v>1.4210854715202004E-14</v>
+        <v>-1.4210854715202004E-14</v>
       </c>
       <c r="C26">
-        <v>87.079640474934749</v>
+        <v>163.722618704984</v>
       </c>
       <c r="D26">
-        <v>91.137857758297528</v>
+        <v>-12.44163762100564</v>
       </c>
       <c r="E26">
-        <v>103.05855592603109</v>
+        <v>-54.412167234585588</v>
       </c>
       <c r="F26">
-        <v>-121.72061458520186</v>
+        <v>166.60581204435769</v>
       </c>
       <c r="H26">
         <f t="shared" si="14"/>
-        <v>87.079640474934749</v>
+        <v>163.722618704984</v>
       </c>
       <c r="J26">
         <f t="shared" si="16"/>
-        <v>87.079640474934749</v>
+        <v>163.722618704984</v>
       </c>
       <c r="L26">
         <f t="shared" si="15"/>
-        <v>0.47016354458039872</v>
+        <v>0.52177094528729306</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -12509,16 +12510,16 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-0.241696497330363</v>
+        <v>-0.22350026083209729</v>
       </c>
       <c r="Q26">
-        <v>0.2772339328473325</v>
+        <v>0.22404296906027804</v>
       </c>
       <c r="R26">
-        <v>-0.19212793678766141</v>
+        <v>-0.31301757883372555</v>
       </c>
       <c r="S26">
-        <v>0.22105375865240456</v>
+        <v>0.27224491934599537</v>
       </c>
       <c r="U26">
         <f t="shared" si="13"/>
@@ -12530,37 +12531,37 @@
       </c>
       <c r="W26">
         <f t="shared" si="13"/>
-        <v>0.48339299466072599</v>
+        <v>0.44700052166419457</v>
       </c>
       <c r="X26">
         <f t="shared" si="13"/>
-        <v>-0.554467865694665</v>
+        <v>-0.44808593812055608</v>
       </c>
       <c r="Y26">
         <f t="shared" si="13"/>
-        <v>0.38425587357532281</v>
+        <v>0.6260351576674511</v>
       </c>
       <c r="Z26">
         <f>1-2*S26</f>
-        <v>0.55789248269519087</v>
+        <v>0.45551016130800925</v>
       </c>
       <c r="AB26">
-        <v>0.15050803111927571</v>
+        <v>0.18320632219706512</v>
       </c>
       <c r="AC26">
-        <v>0.24156912712403089</v>
+        <v>-0.20570274978523678</v>
       </c>
       <c r="AD26">
-        <v>0.31984283931821988</v>
+        <v>0.31513884622476501</v>
       </c>
       <c r="AE26">
-        <v>-0.75100771330930027</v>
+        <v>-0.72233971294225041</v>
       </c>
       <c r="AF26">
-        <v>0.24464318723754008</v>
+        <v>0.48194344999227018</v>
       </c>
       <c r="AG26">
-        <v>0.43912341433153629</v>
+        <v>0.2660172549929738</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -12579,22 +12580,22 @@
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="array" ref="A30:F35">MMULT(U21:Z26,A21:F26)</f>
-        <v>355.09775570755892</v>
+        <v>498.45852844310599</v>
       </c>
       <c r="B30">
-        <v>258.2754563745014</v>
+        <v>434.48448517315728</v>
       </c>
       <c r="C30">
-        <v>448.21625056440041</v>
+        <v>478.86636243027044</v>
       </c>
       <c r="D30">
-        <v>317.77031700485981</v>
+        <v>559.40878015690305</v>
       </c>
       <c r="E30">
-        <v>80.320654525402333</v>
+        <v>231.89763335904357</v>
       </c>
       <c r="F30">
-        <v>152.46034566910964</v>
+        <v>338.85496000658122</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -12644,42 +12645,42 @@
       </c>
       <c r="AB30">
         <f t="array" ref="AB30:AG35">MMULT(U30:Z35,AB21:AG26)</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="AC30">
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="AD30">
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="AE30">
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="AF30">
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="AG30">
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-2.1635401761294607E-14</v>
+        <v>-8.6739551741050747E-15</v>
       </c>
       <c r="B31">
-        <v>341.70909010895332</v>
+        <v>237.88290082724905</v>
       </c>
       <c r="C31">
-        <v>62.710889082781726</v>
+        <v>384.65764224409912</v>
       </c>
       <c r="D31">
-        <v>141.85521235367372</v>
+        <v>232.84940642783152</v>
       </c>
       <c r="E31">
-        <v>-82.698598980253777</v>
+        <v>96.36604214084349</v>
       </c>
       <c r="F31">
-        <v>116.37316940993549</v>
+        <v>116.82596670747978</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -12727,42 +12728,42 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.53828726458353282</v>
+        <v>-0.58282530088132367</v>
       </c>
       <c r="AC31">
-        <v>-0.66033764804353645</v>
+        <v>0.52214461692976033</v>
       </c>
       <c r="AD31">
-        <v>0.40899311284344558</v>
+        <v>0.52298422083863372</v>
       </c>
       <c r="AE31">
-        <v>0.18453520680380819</v>
+        <v>0.1304173313096644</v>
       </c>
       <c r="AF31">
-        <v>0.26555146694129173</v>
+        <v>0.3108236230444828</v>
       </c>
       <c r="AG31">
-        <v>4.8526496528596891E-2</v>
+        <v>-2.3391611086922837E-2</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-1.7878681996430047E-14</v>
+        <v>1.0693674757537635E-14</v>
       </c>
       <c r="B32">
-        <v>3.5952298657098463E-14</v>
+        <v>-2.2491841724205606E-15</v>
       </c>
       <c r="C32">
-        <v>180.14253710079609</v>
+        <v>366.26941305446451</v>
       </c>
       <c r="D32">
-        <v>181.95743360653103</v>
+        <v>156.56653372728763</v>
       </c>
       <c r="E32">
-        <v>295.3974034800766</v>
+        <v>-116.99316483995118</v>
       </c>
       <c r="F32">
-        <v>109.59029571643092</v>
+        <v>154.16767053625094</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -12810,62 +12811,62 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0.56661753983621177</v>
+        <v>-1.7133103869633667E-2</v>
       </c>
       <c r="AC32">
-        <v>0.26527708085235757</v>
+        <v>-0.3935032392823854</v>
       </c>
       <c r="AD32">
-        <v>0.10938139752690619</v>
+        <v>0.68309378902862838</v>
       </c>
       <c r="AE32">
-        <v>9.2795257156146005E-2</v>
+        <v>0.12300333975415477</v>
       </c>
       <c r="AF32">
-        <v>-0.7505567641940557</v>
+        <v>-0.5542635308024304</v>
       </c>
       <c r="AG32">
-        <v>0.15704116584942035</v>
+        <v>0.23644587044040477</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5.6218529705797543E-15</v>
+        <v>-2.218358900803059E-15</v>
       </c>
       <c r="B33">
-        <v>5.1287857139652995E-14</v>
+        <v>1.4684830177907636E-14</v>
       </c>
       <c r="C33">
-        <v>-2.1316282072803006E-14</v>
+        <v>1.4210854715202004E-14</v>
       </c>
       <c r="D33">
-        <v>176.00596866344037</v>
+        <v>81.442908659172176</v>
       </c>
       <c r="E33">
-        <v>32.279188206787076</v>
+        <v>3.7108913174944007</v>
       </c>
       <c r="F33">
-        <v>265.57445727823949</v>
+        <v>-106.91333871479142</v>
       </c>
       <c r="H33">
         <f>D33</f>
-        <v>176.00596866344037</v>
+        <v>81.442908659172176</v>
       </c>
       <c r="I33">
         <f>SQRT(SUMPRODUCT(H33:H35,H33:H35))</f>
-        <v>265.02057082023958</v>
+        <v>191.29649558554283</v>
       </c>
       <c r="J33">
         <f>H33-I33</f>
-        <v>-89.014602156799214</v>
+        <v>-109.85358692637065</v>
       </c>
       <c r="K33">
         <f>SQRT(SUMPRODUCT(J33:J35,J33:J35))</f>
-        <v>217.21280199348959</v>
+        <v>205.0102739206819</v>
       </c>
       <c r="L33">
         <f>J33/K$33</f>
-        <v>-0.40980366414806069</v>
+        <v>-0.53584430099767977</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -12877,13 +12878,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.16793904314917651</v>
+        <v>0.28712911491169202</v>
       </c>
       <c r="R33">
-        <v>4.4158993484249412E-2</v>
+        <v>-0.12466720390613888</v>
       </c>
       <c r="S33">
-        <v>-0.37119469854750564</v>
+        <v>0.43490697229631253</v>
       </c>
       <c r="U33">
         <f t="shared" si="18"/>
@@ -12899,65 +12900,65 @@
       </c>
       <c r="X33">
         <f>1-2*Q33</f>
-        <v>0.66412191370164697</v>
+        <v>0.42574177017661596</v>
       </c>
       <c r="Y33">
         <f t="shared" si="17"/>
-        <v>-8.8317986968498824E-2</v>
+        <v>0.24933440781227775</v>
       </c>
       <c r="Z33">
         <f t="shared" si="17"/>
-        <v>0.74238939709501128</v>
+        <v>-0.86981394459262507</v>
       </c>
       <c r="AB33">
-        <v>0.23924213726129739</v>
+        <v>-0.17305101742582518</v>
       </c>
       <c r="AC33">
-        <v>0.45468703305192437</v>
+        <v>-0.11937914636893959</v>
       </c>
       <c r="AD33">
-        <v>0.51078284151769671</v>
+        <v>-0.20711325699931546</v>
       </c>
       <c r="AE33">
-        <v>-0.58915804261541438</v>
+        <v>0.84042819627002063</v>
       </c>
       <c r="AF33">
-        <v>0.30314983316998917</v>
+        <v>-0.16010752769706671</v>
       </c>
       <c r="AG33">
-        <v>-0.1900441264937538</v>
+        <v>-0.42538463776245844</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5.289004973673941E-15</v>
+        <v>-1.9375984278751538E-14</v>
       </c>
       <c r="B34">
-        <v>4.3334837145520272E-14</v>
+        <v>-6.6220623831670262E-16</v>
       </c>
       <c r="C34">
-        <v>7.1054273576010019E-15</v>
+        <v>-5.6843418860808015E-14</v>
       </c>
       <c r="D34">
-        <v>-23.40608332008604</v>
+        <v>47.696798443385333</v>
       </c>
       <c r="E34">
-        <v>-8.6601934660748157</v>
+        <v>-12.226508549573513</v>
       </c>
       <c r="F34">
-        <v>-54.761723841088639</v>
+        <v>29.713107756573748</v>
       </c>
       <c r="H34">
         <f>D34</f>
-        <v>-23.40608332008604</v>
+        <v>47.696798443385333</v>
       </c>
       <c r="J34">
         <f>H34</f>
-        <v>-23.40608332008604</v>
+        <v>47.696798443385333</v>
       </c>
       <c r="L34">
         <f>J34/K$33</f>
-        <v>-0.1077564632713848</v>
+        <v>0.23265564954973494</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -12969,13 +12970,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>4.4158993484249412E-2</v>
+        <v>-0.12466720390613888</v>
       </c>
       <c r="R34">
-        <v>1.1611455376757302E-2</v>
+        <v>5.4128651267409081E-2</v>
       </c>
       <c r="S34">
-        <v>-9.7604368627889265E-2</v>
+        <v>-0.18883015820997842</v>
       </c>
       <c r="U34">
         <f t="shared" si="18"/>
@@ -12991,65 +12992,65 @@
       </c>
       <c r="X34">
         <f t="shared" si="18"/>
-        <v>-8.8317986968498824E-2</v>
+        <v>0.24933440781227775</v>
       </c>
       <c r="Y34">
         <f>1-2*R34</f>
-        <v>0.97677708924648543</v>
+        <v>0.89174269746518187</v>
       </c>
       <c r="Z34">
         <f t="shared" si="17"/>
-        <v>0.19520873725577853</v>
+        <v>0.37766031641995684</v>
       </c>
       <c r="AB34">
-        <v>0.53439568144606908</v>
+        <v>-0.18218894677343137</v>
       </c>
       <c r="AC34">
-        <v>0.1618082220485359</v>
+        <v>-0.62764563654118144</v>
       </c>
       <c r="AD34">
-        <v>-0.67625579336945862</v>
+        <v>9.4285019881221038E-3</v>
       </c>
       <c r="AE34">
-        <v>-0.11759790908478068</v>
+        <v>0.17490707305840303</v>
       </c>
       <c r="AF34">
-        <v>0.3981595964260467</v>
+        <v>0.64958485822141787</v>
       </c>
       <c r="AG34">
-        <v>0.24198579383150326</v>
+        <v>0.34673660567968018</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.9482955177940624E-14</v>
+        <v>4.8562430118506366E-14</v>
       </c>
       <c r="B35">
-        <v>1.5446647249051937E-14</v>
+        <v>-1.3634905324076238E-14</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>7.1054273576010019E-14</v>
       </c>
       <c r="D35">
-        <v>196.74846178901339</v>
+        <v>-166.39235941200673</v>
       </c>
       <c r="E35">
-        <v>-33.176601826174576</v>
+        <v>15.808343076601972</v>
       </c>
       <c r="F35">
-        <v>-11.473141282110674</v>
+        <v>68.461632176451701</v>
       </c>
       <c r="H35">
         <f>D35</f>
-        <v>196.74846178901339</v>
+        <v>-166.39235941200673</v>
       </c>
       <c r="J35">
         <f>H35</f>
-        <v>196.74846178901339</v>
+        <v>-166.39235941200673</v>
       </c>
       <c r="L35">
         <f>J35/K$33</f>
-        <v>0.90578667547831937</v>
+        <v>-0.81162936973775091</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -13061,13 +13062,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>-0.37119469854750564</v>
+        <v>0.43490697229631253</v>
       </c>
       <c r="R35">
-        <v>-9.7604368627889265E-2</v>
+        <v>-0.18883015820997842</v>
       </c>
       <c r="S35">
-        <v>0.82044950147406626</v>
+        <v>0.6587422338208988</v>
       </c>
       <c r="U35">
         <f t="shared" si="18"/>
@@ -13083,33 +13084,33 @@
       </c>
       <c r="X35">
         <f t="shared" si="18"/>
-        <v>0.74238939709501128</v>
+        <v>-0.86981394459262507</v>
       </c>
       <c r="Y35">
         <f t="shared" si="18"/>
-        <v>0.19520873725577853</v>
+        <v>0.37766031641995684</v>
       </c>
       <c r="Z35">
         <f>1-2*S35</f>
-        <v>-0.64089900294813251</v>
+        <v>-0.31748446764179761</v>
       </c>
       <c r="AB35">
-        <v>0.20505805202902622</v>
+        <v>-0.31966814047520459</v>
       </c>
       <c r="AC35">
-        <v>0.19905177465899149</v>
+        <v>0.22836879811253907</v>
       </c>
       <c r="AD35">
-        <v>-0.11336281178277474</v>
+        <v>-0.41396694808026874</v>
       </c>
       <c r="AE35">
-        <v>0.45352994556855258</v>
+        <v>0.18073012950612022</v>
       </c>
       <c r="AF35">
-        <v>9.071049637486378E-2</v>
+        <v>-0.30665206204494233</v>
       </c>
       <c r="AG35">
-        <v>-0.8316012587339453</v>
+        <v>0.73999491284950925</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
@@ -13128,22 +13129,22 @@
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="array" ref="A39:F44">MMULT(U30:Z35,A30:F35)</f>
-        <v>355.09775570755892</v>
+        <v>498.45852844310599</v>
       </c>
       <c r="B39">
-        <v>258.2754563745014</v>
+        <v>434.48448517315728</v>
       </c>
       <c r="C39">
-        <v>448.21625056440041</v>
+        <v>478.86636243027044</v>
       </c>
       <c r="D39">
-        <v>317.77031700485981</v>
+        <v>559.40878015690305</v>
       </c>
       <c r="E39">
-        <v>80.320654525402333</v>
+        <v>231.89763335904357</v>
       </c>
       <c r="F39">
-        <v>152.46034566910964</v>
+        <v>338.85496000658122</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -13193,42 +13194,42 @@
       </c>
       <c r="AB39">
         <f t="array" ref="AB39:AG44">MMULT(U39:Z44,AB30:AG35)</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="AC39">
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="AD39">
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="AE39">
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="AF39">
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="AG39">
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-2.1635401761294607E-14</v>
+        <v>-8.6739551741050747E-15</v>
       </c>
       <c r="B40">
-        <v>341.70909010895332</v>
+        <v>237.88290082724905</v>
       </c>
       <c r="C40">
-        <v>62.710889082781726</v>
+        <v>384.65764224409912</v>
       </c>
       <c r="D40">
-        <v>141.85521235367372</v>
+        <v>232.84940642783152</v>
       </c>
       <c r="E40">
-        <v>-82.698598980253777</v>
+        <v>96.36604214084349</v>
       </c>
       <c r="F40">
-        <v>116.37316940993549</v>
+        <v>116.82596670747978</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -13276,42 +13277,42 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0.53828726458353282</v>
+        <v>-0.58282530088132367</v>
       </c>
       <c r="AC40">
-        <v>-0.66033764804353645</v>
+        <v>0.52214461692976033</v>
       </c>
       <c r="AD40">
-        <v>0.40899311284344558</v>
+        <v>0.52298422083863372</v>
       </c>
       <c r="AE40">
-        <v>0.18453520680380819</v>
+        <v>0.1304173313096644</v>
       </c>
       <c r="AF40">
-        <v>0.26555146694129173</v>
+        <v>0.3108236230444828</v>
       </c>
       <c r="AG40">
-        <v>4.8526496528596891E-2</v>
+        <v>-2.3391611086922837E-2</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-1.7878681996430047E-14</v>
+        <v>1.0693674757537635E-14</v>
       </c>
       <c r="B41">
-        <v>3.5952298657098463E-14</v>
+        <v>-2.2491841724205606E-15</v>
       </c>
       <c r="C41">
-        <v>180.14253710079609</v>
+        <v>366.26941305446451</v>
       </c>
       <c r="D41">
-        <v>181.95743360653103</v>
+        <v>156.56653372728763</v>
       </c>
       <c r="E41">
-        <v>295.3974034800766</v>
+        <v>-116.99316483995118</v>
       </c>
       <c r="F41">
-        <v>109.59029571643092</v>
+        <v>154.16767053625094</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -13359,42 +13360,42 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0.56661753983621177</v>
+        <v>-1.7133103869633667E-2</v>
       </c>
       <c r="AC41">
-        <v>0.26527708085235757</v>
+        <v>-0.3935032392823854</v>
       </c>
       <c r="AD41">
-        <v>0.10938139752690619</v>
+        <v>0.68309378902862838</v>
       </c>
       <c r="AE41">
-        <v>9.2795257156146005E-2</v>
+        <v>0.12300333975415477</v>
       </c>
       <c r="AF41">
-        <v>-0.7505567641940557</v>
+        <v>-0.5542635308024304</v>
       </c>
       <c r="AG41">
-        <v>0.15704116584942035</v>
+        <v>0.23644587044040477</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2.5154314800160036E-14</v>
+        <v>-4.8015826511619186E-14</v>
       </c>
       <c r="B42">
-        <v>4.1701571389305927E-14</v>
+        <v>1.7946665578486835E-14</v>
       </c>
       <c r="C42">
-        <v>-1.4784147083968263E-14</v>
+        <v>-6.9926863716824817E-14</v>
       </c>
       <c r="D42">
-        <v>265.02057082023958</v>
+        <v>191.29649558554283</v>
       </c>
       <c r="E42">
-        <v>-2.4277903290864558</v>
+        <v>-15.218925079309239</v>
       </c>
       <c r="F42">
-        <v>172.69272357125848</v>
+        <v>-97.657856289828544</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -13442,62 +13443,62 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>0.23924213726129739</v>
+        <v>-0.17305101742582518</v>
       </c>
       <c r="AC42">
-        <v>0.45468703305192437</v>
+        <v>-0.11937914636893959</v>
       </c>
       <c r="AD42">
-        <v>0.51078284151769671</v>
+        <v>-0.20711325699931546</v>
       </c>
       <c r="AE42">
-        <v>-0.58915804261541438</v>
+        <v>0.84042819627002063</v>
       </c>
       <c r="AF42">
-        <v>0.30314983316998917</v>
+        <v>-0.16010752769706671</v>
       </c>
       <c r="AG42">
-        <v>-0.1900441264937538</v>
+        <v>-0.42538463776245844</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.0424998596655443E-14</v>
+        <v>5.0859703505347862E-16</v>
       </c>
       <c r="B43">
-        <v>4.0814156295792536E-14</v>
+        <v>-2.0784468000491278E-15</v>
       </c>
       <c r="C43">
-        <v>8.8230297745325133E-15</v>
+        <v>-2.0312069181452805E-14</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>-17.786274038430026</v>
+        <v>-4.007462977089868</v>
       </c>
       <c r="F43">
-        <v>-79.184656094722087</v>
+        <v>25.694514535620154</v>
       </c>
       <c r="H43">
         <f>E43</f>
-        <v>-17.786274038430026</v>
+        <v>-4.007462977089868</v>
       </c>
       <c r="I43">
         <f>SQRT(SUMPRODUCT(H43:H44,H43:H44))</f>
-        <v>47.029115290525631</v>
+        <v>13.4739101949275</v>
       </c>
       <c r="J43">
         <f>H43+I43</f>
-        <v>29.242841252095605</v>
+        <v>9.4664472178376329</v>
       </c>
       <c r="K43">
         <f>SQRT(SUMPRODUCT(J43:J44,J43:J44))</f>
-        <v>52.445494614262962</v>
+        <v>15.971853973672909</v>
       </c>
       <c r="L43">
         <f>J43/K$43</f>
-        <v>0.55758538397200641</v>
+        <v>0.59269557769821735</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -13512,10 +13513,10 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0.3109014604192098</v>
+        <v>0.35128804782302359</v>
       </c>
       <c r="S43">
-        <v>0.46286255230728313</v>
+        <v>-0.47737276344562507</v>
       </c>
       <c r="U43">
         <f t="shared" si="20"/>
@@ -13535,61 +13536,61 @@
       </c>
       <c r="Y43">
         <f>1-2*R43</f>
-        <v>0.37819707916158041</v>
+        <v>0.29742390435395283</v>
       </c>
       <c r="Z43">
         <f t="shared" si="19"/>
-        <v>-0.92572510461456625</v>
+        <v>0.95474552689125014</v>
       </c>
       <c r="AB43">
-        <v>1.2279499172836245E-2</v>
+        <v>-0.3593890750878338</v>
       </c>
       <c r="AC43">
-        <v>-0.12307182795682525</v>
+        <v>3.1357272708677442E-2</v>
       </c>
       <c r="AD43">
-        <v>-0.15081516502141601</v>
+        <v>-0.39242883008694268</v>
       </c>
       <c r="AE43">
-        <v>-0.46431924203866004</v>
+        <v>0.22457282728859693</v>
       </c>
       <c r="AF43">
-        <v>6.6609812662224488E-2</v>
+        <v>-9.9572619807963836E-2</v>
       </c>
       <c r="AG43">
-        <v>0.86135248266475739</v>
+        <v>0.80963458800903687</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-1.3689532557870702E-14</v>
+        <v>-2.0805798121197738E-14</v>
       </c>
       <c r="B44">
-        <v>3.6635159357754974E-14</v>
+        <v>-8.6942884220559607E-15</v>
       </c>
       <c r="C44">
-        <v>-1.4437940294195465E-14</v>
+        <v>-5.6386931369181644E-14</v>
       </c>
       <c r="D44">
-        <v>-2.8421709430404007E-14</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="E44">
-        <v>43.536032672252318</v>
+        <v>-12.864155488341442</v>
       </c>
       <c r="F44">
-        <v>193.82281907004625</v>
+        <v>82.480669708818724</v>
       </c>
       <c r="H44">
         <f>E44</f>
-        <v>43.536032672252318</v>
+        <v>-12.864155488341442</v>
       </c>
       <c r="J44">
         <f>H44</f>
-        <v>43.536032672252318</v>
+        <v>-12.864155488341442</v>
       </c>
       <c r="L44">
         <f>J44/K$43</f>
-        <v>0.83011959354106946</v>
+        <v>-0.80542656535340107</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -13604,10 +13605,10 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0.46286255230728313</v>
+        <v>-0.47737276344562507</v>
       </c>
       <c r="S44">
-        <v>0.68909853958079037</v>
+        <v>0.64871195217697641</v>
       </c>
       <c r="U44">
         <f t="shared" si="20"/>
@@ -13627,29 +13628,29 @@
       </c>
       <c r="Y44">
         <f t="shared" si="20"/>
-        <v>-0.92572510461456625</v>
+        <v>0.95474552689125014</v>
       </c>
       <c r="Z44">
         <f>1-2*S44</f>
-        <v>-0.37819707916158074</v>
+        <v>-0.29742390435395283</v>
       </c>
       <c r="AB44">
-        <v>-0.57225585444817595</v>
+        <v>-7.8867135543258443E-2</v>
       </c>
       <c r="AC44">
-        <v>-0.2250707330613376</v>
+        <v>-0.66716420352775541</v>
       </c>
       <c r="AD44">
-        <v>0.66890044936493798</v>
+        <v>0.13212548606996843</v>
       </c>
       <c r="AE44">
-        <v>-6.2660364036374455E-2</v>
+        <v>0.11323828487204558</v>
       </c>
       <c r="AF44">
-        <v>-0.40289277883306623</v>
+        <v>0.71139389129478303</v>
       </c>
       <c r="AG44">
-        <v>9.0496842770364877E-2</v>
+        <v>0.11095304710036577</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
@@ -13675,268 +13676,268 @@
       </c>
       <c r="AB47">
         <f t="array" ref="AB47:AG52">TRANSPOSE(AB39:AG44)</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="AC47">
-        <v>0.53828726458353282</v>
+        <v>-0.58282530088132367</v>
       </c>
       <c r="AD47">
-        <v>0.56661753983621177</v>
+        <v>-1.7133103869633667E-2</v>
       </c>
       <c r="AE47">
-        <v>0.23924213726129739</v>
+        <v>-0.17305101742582518</v>
       </c>
       <c r="AF47">
-        <v>1.2279499172836245E-2</v>
+        <v>-0.3593890750878338</v>
       </c>
       <c r="AG47">
-        <v>-0.57225585444817595</v>
+        <v>-7.8867135543258443E-2</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="array" ref="A48:F53">MMULT(U39:Z44,A39:F44)</f>
-        <v>355.09775570755892</v>
+        <v>498.45852844310599</v>
       </c>
       <c r="B48">
-        <v>258.2754563745014</v>
+        <v>434.48448517315728</v>
       </c>
       <c r="C48">
-        <v>448.21625056440041</v>
+        <v>478.86636243027044</v>
       </c>
       <c r="D48">
-        <v>317.77031700485981</v>
+        <v>559.40878015690305</v>
       </c>
       <c r="E48">
-        <v>80.320654525402333</v>
+        <v>231.89763335904357</v>
       </c>
       <c r="F48">
-        <v>152.46034566910964</v>
+        <v>338.85496000658122</v>
       </c>
       <c r="H48">
         <f>ABS(A48)</f>
-        <v>355.09775570755892</v>
+        <v>498.45852844310599</v>
       </c>
       <c r="J48">
         <f>MIN(H48:H53)</f>
-        <v>2.8421709430404007E-14</v>
+        <v>1.2789769243681803E-13</v>
       </c>
       <c r="AB48">
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="AC48">
-        <v>-0.66033764804353645</v>
+        <v>0.52214461692976033</v>
       </c>
       <c r="AD48">
-        <v>0.26527708085235757</v>
+        <v>-0.3935032392823854</v>
       </c>
       <c r="AE48">
-        <v>0.45468703305192437</v>
+        <v>-0.11937914636893959</v>
       </c>
       <c r="AF48">
-        <v>-0.12307182795682525</v>
+        <v>3.1357272708677442E-2</v>
       </c>
       <c r="AG48">
-        <v>-0.2250707330613376</v>
+        <v>-0.66716420352775541</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-2.1635401761294607E-14</v>
+        <v>-8.6739551741050747E-15</v>
       </c>
       <c r="B49">
-        <v>341.70909010895332</v>
+        <v>237.88290082724905</v>
       </c>
       <c r="C49">
-        <v>62.710889082781726</v>
+        <v>384.65764224409912</v>
       </c>
       <c r="D49">
-        <v>141.85521235367372</v>
+        <v>232.84940642783152</v>
       </c>
       <c r="E49">
-        <v>-82.698598980253777</v>
+        <v>96.36604214084349</v>
       </c>
       <c r="F49">
-        <v>116.37316940993549</v>
+        <v>116.82596670747978</v>
       </c>
       <c r="H49">
         <f>ABS(B49)</f>
-        <v>341.70909010895332</v>
+        <v>237.88290082724905</v>
       </c>
       <c r="AB49">
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="AC49">
-        <v>0.40899311284344558</v>
+        <v>0.52298422083863372</v>
       </c>
       <c r="AD49">
-        <v>0.10938139752690619</v>
+        <v>0.68309378902862838</v>
       </c>
       <c r="AE49">
-        <v>0.51078284151769671</v>
+        <v>-0.20711325699931546</v>
       </c>
       <c r="AF49">
-        <v>-0.15081516502141601</v>
+        <v>-0.39242883008694268</v>
       </c>
       <c r="AG49">
-        <v>0.66890044936493798</v>
+        <v>0.13212548606996843</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-1.7878681996430047E-14</v>
+        <v>1.0693674757537635E-14</v>
       </c>
       <c r="B50">
-        <v>3.5952298657098463E-14</v>
+        <v>-2.2491841724205606E-15</v>
       </c>
       <c r="C50">
-        <v>180.14253710079609</v>
+        <v>366.26941305446451</v>
       </c>
       <c r="D50">
-        <v>181.95743360653103</v>
+        <v>156.56653372728763</v>
       </c>
       <c r="E50">
-        <v>295.3974034800766</v>
+        <v>-116.99316483995118</v>
       </c>
       <c r="F50">
-        <v>109.59029571643092</v>
+        <v>154.16767053625094</v>
       </c>
       <c r="H50">
         <f>ABS(C50)</f>
-        <v>180.14253710079609</v>
+        <v>366.26941305446451</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
       </c>
       <c r="AB50">
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="AC50">
-        <v>0.18453520680380819</v>
+        <v>0.1304173313096644</v>
       </c>
       <c r="AD50">
-        <v>9.2795257156146005E-2</v>
+        <v>0.12300333975415477</v>
       </c>
       <c r="AE50">
-        <v>-0.58915804261541438</v>
+        <v>0.84042819627002063</v>
       </c>
       <c r="AF50">
-        <v>-0.46431924203866004</v>
+        <v>0.22457282728859693</v>
       </c>
       <c r="AG50">
-        <v>-6.2660364036374455E-2</v>
+        <v>0.11323828487204558</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2.5154314800160036E-14</v>
+        <v>-4.8015826511619186E-14</v>
       </c>
       <c r="B51">
-        <v>4.1701571389305927E-14</v>
+        <v>1.7946665578486835E-14</v>
       </c>
       <c r="C51">
-        <v>-1.4784147083968263E-14</v>
+        <v>-6.9926863716824817E-14</v>
       </c>
       <c r="D51">
-        <v>265.02057082023958</v>
+        <v>191.29649558554283</v>
       </c>
       <c r="E51">
-        <v>-2.4277903290864558</v>
+        <v>-15.218925079309239</v>
       </c>
       <c r="F51">
-        <v>172.69272357125848</v>
+        <v>-97.657856289828544</v>
       </c>
       <c r="H51">
         <f>ABS(D51)</f>
-        <v>265.02057082023958</v>
+        <v>191.29649558554283</v>
       </c>
       <c r="J51" s="5" t="b">
         <f>J48&gt;POWER(10,-10)</f>
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="AC51">
-        <v>0.26555146694129173</v>
+        <v>0.3108236230444828</v>
       </c>
       <c r="AD51">
-        <v>-0.7505567641940557</v>
+        <v>-0.5542635308024304</v>
       </c>
       <c r="AE51">
-        <v>0.30314983316998917</v>
+        <v>-0.16010752769706671</v>
       </c>
       <c r="AF51">
-        <v>6.6609812662224488E-2</v>
+        <v>-9.9572619807963836E-2</v>
       </c>
       <c r="AG51">
-        <v>-0.40289277883306623</v>
+        <v>0.71139389129478303</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1.6615447978778028E-14</v>
+        <v>-1.9712973773707468E-14</v>
       </c>
       <c r="B52">
-        <v>-1.8478292029516066E-14</v>
+        <v>-8.9190127427229057E-15</v>
       </c>
       <c r="C52">
-        <v>1.6702407879346813E-14</v>
+        <v>-5.9876465421305383E-14</v>
       </c>
       <c r="D52">
-        <v>2.6310689935785554E-14</v>
+        <v>6.7838749863202717E-15</v>
       </c>
       <c r="E52">
-        <v>-47.029115290525638</v>
+        <v>-13.473910194927502</v>
       </c>
       <c r="F52">
-        <v>-209.37405510974685</v>
+        <v>86.39021329315284</v>
       </c>
       <c r="H52">
         <f>ABS(E52)</f>
-        <v>47.029115290525638</v>
+        <v>13.473910194927502</v>
       </c>
       <c r="AB52">
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
       <c r="AC52">
-        <v>4.8526496528596891E-2</v>
+        <v>-2.3391611086922837E-2</v>
       </c>
       <c r="AD52">
-        <v>0.15704116584942035</v>
+        <v>0.23644587044040477</v>
       </c>
       <c r="AE52">
-        <v>-0.1900441264937538</v>
+        <v>-0.42538463776245844</v>
       </c>
       <c r="AF52">
-        <v>0.86135248266475739</v>
+        <v>0.80963458800903687</v>
       </c>
       <c r="AG52">
-        <v>9.0496842770364877E-2</v>
+        <v>0.11095304710036577</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-4.4733416880215036E-15</v>
+        <v>6.6737224546142283E-15</v>
       </c>
       <c r="B53">
-        <v>-5.1637999370399789E-14</v>
+        <v>6.0150142283891412E-16</v>
       </c>
       <c r="C53">
-        <v>-2.7073133126725262E-15</v>
+        <v>-2.6220359105372997E-15</v>
       </c>
       <c r="D53">
-        <v>1.074900749135795E-14</v>
+        <v>-2.1133239468010802E-15</v>
       </c>
       <c r="E53">
-        <v>3.5527136788005009E-15</v>
+        <v>-1.3322676295501878E-15</v>
       </c>
       <c r="F53">
-        <v>2.8421709430404007E-14</v>
+        <v>-1.2789769243681803E-13</v>
       </c>
       <c r="H53">
         <f>ABS(F53)</f>
-        <v>2.8421709430404007E-14</v>
+        <v>1.2789769243681803E-13</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
@@ -13953,7 +13954,7 @@
       </c>
       <c r="U55">
         <f>A3</f>
-        <v>-23.358402290411277</v>
+        <v>350.58822488309869</v>
       </c>
       <c r="V55">
         <f t="shared" ref="V55:Z60" si="21">B3</f>
@@ -13977,22 +13978,22 @@
       </c>
       <c r="AB55">
         <f t="array" ref="AB55:AG60">MMULT(AB47:AG52,A48:F53)</f>
-        <v>-23.35840229041132</v>
+        <v>350.58822488309863</v>
       </c>
       <c r="AC55">
-        <v>166.94823956776463</v>
+        <v>166.94823956776472</v>
       </c>
       <c r="AD55">
-        <v>106.34463839396577</v>
+        <v>106.34463839396595</v>
       </c>
       <c r="AE55">
-        <v>221.96021957865253</v>
+        <v>221.96021957865261</v>
       </c>
       <c r="AF55">
-        <v>116.41991475197234</v>
+        <v>116.41991475197227</v>
       </c>
       <c r="AG55">
-        <v>153.45347410471106</v>
+        <v>153.45347410471112</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
@@ -14008,7 +14009,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="21"/>
-        <v>-104.21587678160097</v>
+        <v>269.730750391909</v>
       </c>
       <c r="W56">
         <f t="shared" si="21"/>
@@ -14027,48 +14028,48 @@
         <v>128.1942134830374</v>
       </c>
       <c r="AB56">
-        <v>166.94823956776472</v>
+        <v>166.94823956776469</v>
       </c>
       <c r="AC56">
-        <v>-104.21587678160077</v>
+        <v>269.73075039190905</v>
       </c>
       <c r="AD56">
         <v>217.10497086115723</v>
       </c>
       <c r="AE56">
-        <v>224.49706283830216</v>
+        <v>224.49706283830221</v>
       </c>
       <c r="AF56">
-        <v>175.41776989298745</v>
+        <v>175.41776989298759</v>
       </c>
       <c r="AG56">
-        <v>128.19421348303746</v>
+        <v>128.19421348303737</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>AB47</f>
-        <v>-6.5780202535687504E-2</v>
+        <v>0.70334482184131142</v>
       </c>
       <c r="B57">
         <f t="shared" ref="B57:F62" si="23">AC47</f>
-        <v>0.53828726458353282</v>
+        <v>-0.58282530088132367</v>
       </c>
       <c r="C57">
         <f t="shared" si="23"/>
-        <v>0.56661753983621177</v>
+        <v>-1.7133103869633667E-2</v>
       </c>
       <c r="D57">
         <f t="shared" si="23"/>
-        <v>0.23924213726129739</v>
+        <v>-0.17305101742582518</v>
       </c>
       <c r="E57">
         <f t="shared" si="23"/>
-        <v>1.2279499172836245E-2</v>
+        <v>-0.3593890750878338</v>
       </c>
       <c r="F57">
         <f t="shared" si="23"/>
-        <v>-0.57225585444817595</v>
+        <v>-7.8867135543258443E-2</v>
       </c>
       <c r="U57">
         <f t="shared" si="22"/>
@@ -14080,7 +14081,7 @@
       </c>
       <c r="W57">
         <f t="shared" si="21"/>
-        <v>179.58431960106043</v>
+        <v>553.53094677457034</v>
       </c>
       <c r="X57">
         <f t="shared" si="21"/>
@@ -14095,48 +14096,48 @@
         <v>225.02703546376364</v>
       </c>
       <c r="AB57">
-        <v>106.34463839396585</v>
+        <v>106.34463839396589</v>
       </c>
       <c r="AC57">
-        <v>217.1049708611572</v>
+        <v>217.10497086115726</v>
       </c>
       <c r="AD57">
-        <v>179.58431960106043</v>
+        <v>553.53094677457011</v>
       </c>
       <c r="AE57">
-        <v>308.4543444677862</v>
+        <v>308.45434446778614</v>
       </c>
       <c r="AF57">
-        <v>28.394874672540659</v>
+        <v>28.394874672540624</v>
       </c>
       <c r="AG57">
-        <v>225.02703546376367</v>
+        <v>225.02703546376361</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ref="A58:A62" si="24">AB48</f>
-        <v>0.47014726757455222</v>
+        <v>0.33492904633252785</v>
       </c>
       <c r="B58">
         <f t="shared" si="23"/>
-        <v>-0.66033764804353645</v>
+        <v>0.52214461692976033</v>
       </c>
       <c r="C58">
         <f t="shared" si="23"/>
-        <v>0.26527708085235757</v>
+        <v>-0.3935032392823854</v>
       </c>
       <c r="D58">
         <f t="shared" si="23"/>
-        <v>0.45468703305192437</v>
+        <v>-0.11937914636893959</v>
       </c>
       <c r="E58">
         <f t="shared" si="23"/>
-        <v>-0.12307182795682525</v>
+        <v>3.1357272708677442E-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="23"/>
-        <v>-0.2250707330613376</v>
+        <v>-0.66716420352775541</v>
       </c>
       <c r="U58">
         <f t="shared" si="22"/>
@@ -14152,7 +14153,7 @@
       </c>
       <c r="X58">
         <f t="shared" si="21"/>
-        <v>85.551101720657527</v>
+        <v>459.49772889416749</v>
       </c>
       <c r="Y58">
         <f t="shared" si="21"/>
@@ -14163,48 +14164,48 @@
         <v>122.41557501089946</v>
       </c>
       <c r="AB58">
-        <v>221.96021957865256</v>
+        <v>221.96021957865261</v>
       </c>
       <c r="AC58">
-        <v>224.49706283830201</v>
+        <v>224.49706283830216</v>
       </c>
       <c r="AD58">
-        <v>308.4543444677862</v>
+        <v>308.45434446778603</v>
       </c>
       <c r="AE58">
-        <v>85.551101720657485</v>
+        <v>459.49772889416732</v>
       </c>
       <c r="AF58">
-        <v>85.623415684544881</v>
+        <v>85.623415684544852</v>
       </c>
       <c r="AG58">
-        <v>122.41557501089946</v>
+        <v>122.41557501089943</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="24"/>
-        <v>0.29947989443657896</v>
+        <v>0.21334701349403037</v>
       </c>
       <c r="B59">
         <f t="shared" si="23"/>
-        <v>0.40899311284344558</v>
+        <v>0.52298422083863372</v>
       </c>
       <c r="C59">
         <f t="shared" si="23"/>
-        <v>0.10938139752690619</v>
+        <v>0.68309378902862838</v>
       </c>
       <c r="D59">
         <f t="shared" si="23"/>
-        <v>0.51078284151769671</v>
+        <v>-0.20711325699931546</v>
       </c>
       <c r="E59">
         <f t="shared" si="23"/>
-        <v>-0.15081516502141601</v>
+        <v>-0.39242883008694268</v>
       </c>
       <c r="F59">
         <f t="shared" si="23"/>
-        <v>0.66890044936493798</v>
+        <v>0.13212548606996843</v>
       </c>
       <c r="U59">
         <f t="shared" si="22"/>
@@ -14224,7 +14225,7 @@
       </c>
       <c r="Y59">
         <f t="shared" si="21"/>
-        <v>-221.20845945861961</v>
+        <v>152.73816771489035</v>
       </c>
       <c r="Z59">
         <f t="shared" si="21"/>
@@ -14234,45 +14235,45 @@
         <v>116.41991475197236</v>
       </c>
       <c r="AC59">
-        <v>175.41776989298756</v>
+        <v>175.41776989298762</v>
       </c>
       <c r="AD59">
-        <v>28.39487467254062</v>
+        <v>28.394874672540581</v>
       </c>
       <c r="AE59">
-        <v>85.623415684544881</v>
+        <v>85.62341568454481</v>
       </c>
       <c r="AF59">
-        <v>-221.20845945861964</v>
+        <v>152.73816771489035</v>
       </c>
       <c r="AG59">
-        <v>37.039335145889751</v>
+        <v>37.03933514588973</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="24"/>
-        <v>0.62506793132606597</v>
+        <v>0.44529325292502675</v>
       </c>
       <c r="B60">
         <f t="shared" si="23"/>
-        <v>0.18453520680380819</v>
+        <v>0.1304173313096644</v>
       </c>
       <c r="C60">
         <f t="shared" si="23"/>
-        <v>9.2795257156146005E-2</v>
+        <v>0.12300333975415477</v>
       </c>
       <c r="D60">
         <f t="shared" si="23"/>
-        <v>-0.58915804261541438</v>
+        <v>0.84042819627002063</v>
       </c>
       <c r="E60">
         <f t="shared" si="23"/>
-        <v>-0.46431924203866004</v>
+        <v>0.22457282728859693</v>
       </c>
       <c r="F60">
         <f t="shared" si="23"/>
-        <v>-6.2660364036374455E-2</v>
+        <v>0.11323828487204558</v>
       </c>
       <c r="U60">
         <f t="shared" si="22"/>
@@ -14296,77 +14297,77 @@
       </c>
       <c r="Z60">
         <f t="shared" si="21"/>
-        <v>-124.42185931170877</v>
+        <v>249.52476786180119</v>
       </c>
       <c r="AB60">
         <v>153.45347410471109</v>
       </c>
       <c r="AC60">
-        <v>128.19421348303737</v>
+        <v>128.19421348303734</v>
       </c>
       <c r="AD60">
-        <v>225.0270354637637</v>
+        <v>225.02703546376355</v>
       </c>
       <c r="AE60">
-        <v>122.41557501089946</v>
+        <v>122.41557501089932</v>
       </c>
       <c r="AF60">
-        <v>37.039335145889716</v>
+        <v>37.039335145889758</v>
       </c>
       <c r="AG60">
-        <v>-124.42185931170893</v>
+        <v>249.52476786180117</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="24"/>
-        <v>0.32785314151027767</v>
+        <v>0.23355988133175357</v>
       </c>
       <c r="B61">
         <f t="shared" si="23"/>
-        <v>0.26555146694129173</v>
+        <v>0.3108236230444828</v>
       </c>
       <c r="C61">
         <f t="shared" si="23"/>
-        <v>-0.7505567641940557</v>
+        <v>-0.5542635308024304</v>
       </c>
       <c r="D61">
         <f t="shared" si="23"/>
-        <v>0.30314983316998917</v>
+        <v>-0.16010752769706671</v>
       </c>
       <c r="E61">
         <f t="shared" si="23"/>
-        <v>6.6609812662224488E-2</v>
+        <v>-9.9572619807963836E-2</v>
       </c>
       <c r="F61">
         <f t="shared" si="23"/>
-        <v>-0.40289277883306623</v>
+        <v>0.71139389129478303</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="24"/>
-        <v>0.43214430854101993</v>
+        <v>0.30785605090158719</v>
       </c>
       <c r="B62">
         <f t="shared" si="23"/>
-        <v>4.8526496528596891E-2</v>
+        <v>-2.3391611086922837E-2</v>
       </c>
       <c r="C62">
         <f t="shared" si="23"/>
-        <v>0.15704116584942035</v>
+        <v>0.23644587044040477</v>
       </c>
       <c r="D62">
         <f t="shared" si="23"/>
-        <v>-0.1900441264937538</v>
+        <v>-0.42538463776245844</v>
       </c>
       <c r="E62">
         <f t="shared" si="23"/>
-        <v>0.86135248266475739</v>
+        <v>0.80963458800903687</v>
       </c>
       <c r="F62">
         <f t="shared" si="23"/>
-        <v>9.0496842770364877E-2</v>
+        <v>0.11095304710036577</v>
       </c>
       <c r="U62" t="b">
         <f>ABS(U55-AB55)&lt;EXP(-12)</f>
